--- a/Erwerbstätige_Schweiz_1960-2020_Nationalität & Wirtschaftssektoren.xlsx
+++ b/Erwerbstätige_Schweiz_1960-2020_Nationalität & Wirtschaftssektoren.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabie\Universität St.Gallen\Software-Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1001285-4E27-45EF-B9B3-AB7B782DF74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B236893E-7E62-4010-8C82-C50EA49DE2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Jahreswerte" sheetId="21" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Jahreswerte!$A$1:$BJ$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Jahreswerte!$A$1:$BJ$60</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Notiz!$A$1:$J$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Quartalswerte!$A$1:$GE$61</definedName>
   </definedNames>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3678" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3677" uniqueCount="224">
   <si>
     <t xml:space="preserve">Erwerbstätige (Inlandkonzept) nach Geschlecht, Nationalität und Wirtschaftssektoren
 </t>
@@ -769,9 +769,6 @@
   </si>
   <si>
     <t>Auskunft: Bundesamt für Statistik (BFS), Sektion Arbeit und Erwerbsleben, info.arbeit@bfs.admin.ch, Tel. 058 463 64 00</t>
-  </si>
-  <si>
-    <t>T 03.02.01.07</t>
   </si>
   <si>
     <t xml:space="preserve">Erwerbstätige (Inlandkonzept) nach Geschlecht, Nationalität und Wirtschaftssektoren (in 1000)
@@ -24081,13 +24078,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:GE61"/>
+  <dimension ref="A1:GE60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -24099,7 +24096,7 @@
   <sheetData>
     <row r="1" spans="1:62" s="14" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -24113,1150 +24110,1322 @@
       <c r="K1" s="11"/>
     </row>
     <row r="2" spans="1:62" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="BI2" s="12"/>
-      <c r="BJ2" s="12" t="s">
-        <v>223</v>
+      <c r="A2" s="6"/>
+      <c r="B2" s="5">
+        <v>1960</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1961</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1962</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1963</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1964</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1965</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1966</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1967</v>
+      </c>
+      <c r="J2" s="5">
+        <v>1968</v>
+      </c>
+      <c r="K2" s="5">
+        <v>1969</v>
+      </c>
+      <c r="L2" s="5">
+        <v>1970</v>
+      </c>
+      <c r="M2" s="5">
+        <v>1971</v>
+      </c>
+      <c r="N2" s="5">
+        <v>1972</v>
+      </c>
+      <c r="O2" s="5">
+        <v>1973</v>
+      </c>
+      <c r="P2" s="5">
+        <v>1974</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>1975</v>
+      </c>
+      <c r="R2" s="5">
+        <v>1976</v>
+      </c>
+      <c r="S2" s="5">
+        <v>1977</v>
+      </c>
+      <c r="T2" s="5">
+        <v>1978</v>
+      </c>
+      <c r="U2" s="5">
+        <v>1979</v>
+      </c>
+      <c r="V2" s="5">
+        <v>1980</v>
+      </c>
+      <c r="W2" s="5">
+        <v>1981</v>
+      </c>
+      <c r="X2" s="5">
+        <v>1982</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>1983</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>1984</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>1985</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>1986</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>1987</v>
+      </c>
+      <c r="AD2" s="5">
+        <v>1988</v>
+      </c>
+      <c r="AE2" s="5">
+        <v>1989</v>
+      </c>
+      <c r="AF2" s="5">
+        <v>1990</v>
+      </c>
+      <c r="AG2" s="5">
+        <v>1991</v>
+      </c>
+      <c r="AH2" s="5">
+        <v>1992</v>
+      </c>
+      <c r="AI2" s="5">
+        <v>1993</v>
+      </c>
+      <c r="AJ2" s="5">
+        <v>1994</v>
+      </c>
+      <c r="AK2" s="5">
+        <v>1995</v>
+      </c>
+      <c r="AL2" s="5">
+        <v>1996</v>
+      </c>
+      <c r="AM2" s="5">
+        <v>1997</v>
+      </c>
+      <c r="AN2" s="5">
+        <v>1998</v>
+      </c>
+      <c r="AO2" s="5">
+        <v>1999</v>
+      </c>
+      <c r="AP2" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AQ2" s="5">
+        <v>2001</v>
+      </c>
+      <c r="AR2" s="5">
+        <v>2002</v>
+      </c>
+      <c r="AS2" s="5">
+        <v>2003</v>
+      </c>
+      <c r="AT2" s="5">
+        <v>2004</v>
+      </c>
+      <c r="AU2" s="5">
+        <v>2005</v>
+      </c>
+      <c r="AV2" s="5">
+        <v>2006</v>
+      </c>
+      <c r="AW2" s="5">
+        <v>2007</v>
+      </c>
+      <c r="AX2" s="5">
+        <v>2008</v>
+      </c>
+      <c r="AY2" s="5">
+        <v>2009</v>
+      </c>
+      <c r="AZ2" s="5">
+        <v>2010</v>
+      </c>
+      <c r="BA2" s="5">
+        <v>2011</v>
+      </c>
+      <c r="BB2" s="5">
+        <v>2012</v>
+      </c>
+      <c r="BC2" s="5">
+        <v>2013</v>
+      </c>
+      <c r="BD2" s="5">
+        <v>2014</v>
+      </c>
+      <c r="BE2" s="5">
+        <v>2015</v>
+      </c>
+      <c r="BF2" s="5">
+        <v>2016</v>
+      </c>
+      <c r="BG2" s="5">
+        <v>2017</v>
+      </c>
+      <c r="BH2" s="5">
+        <v>2018</v>
+      </c>
+      <c r="BI2" s="16">
+        <v>2019</v>
+      </c>
+      <c r="BJ2" s="16">
+        <v>2020</v>
       </c>
     </row>
     <row r="3" spans="1:62" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="5">
-        <v>1960</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1961</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1962</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1963</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1964</v>
-      </c>
-      <c r="G3" s="5">
-        <v>1965</v>
-      </c>
-      <c r="H3" s="5">
-        <v>1966</v>
-      </c>
-      <c r="I3" s="5">
-        <v>1967</v>
-      </c>
-      <c r="J3" s="5">
-        <v>1968</v>
-      </c>
-      <c r="K3" s="5">
-        <v>1969</v>
-      </c>
-      <c r="L3" s="5">
-        <v>1970</v>
-      </c>
-      <c r="M3" s="5">
-        <v>1971</v>
-      </c>
-      <c r="N3" s="5">
-        <v>1972</v>
-      </c>
-      <c r="O3" s="5">
-        <v>1973</v>
-      </c>
-      <c r="P3" s="5">
-        <v>1974</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>1975</v>
-      </c>
-      <c r="R3" s="5">
-        <v>1976</v>
-      </c>
-      <c r="S3" s="5">
-        <v>1977</v>
-      </c>
-      <c r="T3" s="5">
-        <v>1978</v>
-      </c>
-      <c r="U3" s="5">
-        <v>1979</v>
-      </c>
-      <c r="V3" s="5">
-        <v>1980</v>
-      </c>
-      <c r="W3" s="5">
-        <v>1981</v>
-      </c>
-      <c r="X3" s="5">
-        <v>1982</v>
-      </c>
-      <c r="Y3" s="5">
-        <v>1983</v>
-      </c>
-      <c r="Z3" s="5">
-        <v>1984</v>
-      </c>
-      <c r="AA3" s="5">
-        <v>1985</v>
-      </c>
-      <c r="AB3" s="5">
-        <v>1986</v>
-      </c>
-      <c r="AC3" s="5">
-        <v>1987</v>
-      </c>
-      <c r="AD3" s="5">
-        <v>1988</v>
-      </c>
-      <c r="AE3" s="5">
-        <v>1989</v>
-      </c>
-      <c r="AF3" s="5">
-        <v>1990</v>
-      </c>
-      <c r="AG3" s="5">
-        <v>1991</v>
-      </c>
-      <c r="AH3" s="5">
-        <v>1992</v>
-      </c>
-      <c r="AI3" s="5">
-        <v>1993</v>
-      </c>
-      <c r="AJ3" s="5">
-        <v>1994</v>
-      </c>
-      <c r="AK3" s="5">
-        <v>1995</v>
-      </c>
-      <c r="AL3" s="5">
-        <v>1996</v>
-      </c>
-      <c r="AM3" s="5">
-        <v>1997</v>
-      </c>
-      <c r="AN3" s="5">
-        <v>1998</v>
-      </c>
-      <c r="AO3" s="5">
-        <v>1999</v>
-      </c>
-      <c r="AP3" s="5">
-        <v>2000</v>
-      </c>
-      <c r="AQ3" s="5">
-        <v>2001</v>
-      </c>
-      <c r="AR3" s="5">
-        <v>2002</v>
-      </c>
-      <c r="AS3" s="5">
-        <v>2003</v>
-      </c>
-      <c r="AT3" s="5">
-        <v>2004</v>
-      </c>
-      <c r="AU3" s="5">
-        <v>2005</v>
-      </c>
-      <c r="AV3" s="5">
-        <v>2006</v>
-      </c>
-      <c r="AW3" s="5">
-        <v>2007</v>
-      </c>
-      <c r="AX3" s="5">
-        <v>2008</v>
-      </c>
-      <c r="AY3" s="5">
-        <v>2009</v>
-      </c>
-      <c r="AZ3" s="5">
-        <v>2010</v>
-      </c>
-      <c r="BA3" s="5">
-        <v>2011</v>
-      </c>
-      <c r="BB3" s="5">
-        <v>2012</v>
-      </c>
-      <c r="BC3" s="5">
-        <v>2013</v>
-      </c>
-      <c r="BD3" s="5">
-        <v>2014</v>
-      </c>
-      <c r="BE3" s="5">
-        <v>2015</v>
-      </c>
-      <c r="BF3" s="5">
-        <v>2016</v>
-      </c>
-      <c r="BG3" s="5">
-        <v>2017</v>
-      </c>
-      <c r="BH3" s="5">
-        <v>2018</v>
-      </c>
-      <c r="BI3" s="16">
-        <v>2019</v>
-      </c>
-      <c r="BJ3" s="16">
-        <v>2020</v>
+      <c r="A3" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="20">
+        <v>2717.1</v>
+      </c>
+      <c r="C3" s="20">
+        <v>2844.1</v>
+      </c>
+      <c r="D3" s="20">
+        <v>2953.7</v>
+      </c>
+      <c r="E3" s="20">
+        <v>2999.1</v>
+      </c>
+      <c r="F3" s="20">
+        <v>3046</v>
+      </c>
+      <c r="G3" s="20">
+        <v>3025.3</v>
+      </c>
+      <c r="H3" s="20">
+        <v>3013.7</v>
+      </c>
+      <c r="I3" s="20">
+        <v>3029.7</v>
+      </c>
+      <c r="J3" s="20">
+        <v>3048</v>
+      </c>
+      <c r="K3" s="20">
+        <v>3098.4</v>
+      </c>
+      <c r="L3" s="20">
+        <v>3142.5</v>
+      </c>
+      <c r="M3" s="20">
+        <v>3198.6</v>
+      </c>
+      <c r="N3" s="20">
+        <v>3242.8</v>
+      </c>
+      <c r="O3" s="20">
+        <v>3276.5</v>
+      </c>
+      <c r="P3" s="20">
+        <v>3273.4</v>
+      </c>
+      <c r="Q3" s="20">
+        <v>3107.75</v>
+      </c>
+      <c r="R3" s="20">
+        <v>3018.75</v>
+      </c>
+      <c r="S3" s="20">
+        <v>3031.75</v>
+      </c>
+      <c r="T3" s="20">
+        <v>3062</v>
+      </c>
+      <c r="U3" s="20">
+        <v>3094.75</v>
+      </c>
+      <c r="V3" s="20">
+        <v>3165.9215851729195</v>
+      </c>
+      <c r="W3" s="20">
+        <v>3240.0020122034557</v>
+      </c>
+      <c r="X3" s="20">
+        <v>3256.317652852646</v>
+      </c>
+      <c r="Y3" s="20">
+        <v>3256.5463745986235</v>
+      </c>
+      <c r="Z3" s="20">
+        <v>3288.1759249964043</v>
+      </c>
+      <c r="AA3" s="20">
+        <v>3354.3173209024139</v>
+      </c>
+      <c r="AB3" s="20">
+        <v>3430.4134960163692</v>
+      </c>
+      <c r="AC3" s="20">
+        <v>3515.0924438843358</v>
+      </c>
+      <c r="AD3" s="20">
+        <v>3606.5915348808171</v>
+      </c>
+      <c r="AE3" s="20">
+        <v>3703.5068407721228</v>
+      </c>
+      <c r="AF3" s="20">
+        <v>3820.6608304688034</v>
+      </c>
+      <c r="AG3" s="20">
+        <v>4027.2947193727105</v>
+      </c>
+      <c r="AH3" s="20">
+        <v>3973.2331661046251</v>
+      </c>
+      <c r="AI3" s="20">
+        <v>3943.7836740630255</v>
+      </c>
+      <c r="AJ3" s="20">
+        <v>3921.974278911131</v>
+      </c>
+      <c r="AK3" s="20">
+        <v>3915.5841523348768</v>
+      </c>
+      <c r="AL3" s="20">
+        <v>3904.6577920566669</v>
+      </c>
+      <c r="AM3" s="20">
+        <v>3898.9661314529258</v>
+      </c>
+      <c r="AN3" s="20">
+        <v>3950.7208928943437</v>
+      </c>
+      <c r="AO3" s="20">
+        <v>3982.8840716743075</v>
+      </c>
+      <c r="AP3" s="20">
+        <v>4021.7879266195991</v>
+      </c>
+      <c r="AQ3" s="20">
+        <v>4088.6935737682315</v>
+      </c>
+      <c r="AR3" s="20">
+        <v>4117.9089882341686</v>
+      </c>
+      <c r="AS3" s="20">
+        <v>4103.2174591301882</v>
+      </c>
+      <c r="AT3" s="20">
+        <v>4114.5643529719291</v>
+      </c>
+      <c r="AU3" s="20">
+        <v>4144.6636091727305</v>
+      </c>
+      <c r="AV3" s="20">
+        <v>4234.9321061172695</v>
+      </c>
+      <c r="AW3" s="20">
+        <v>4344.2744162789022</v>
+      </c>
+      <c r="AX3" s="20">
+        <v>4448.2630219087687</v>
+      </c>
+      <c r="AY3" s="20">
+        <v>4469.1149849350713</v>
+      </c>
+      <c r="AZ3" s="20">
+        <v>4481.7117499798005</v>
+      </c>
+      <c r="BA3" s="20">
+        <v>4597.5814999848244</v>
+      </c>
+      <c r="BB3" s="20">
+        <v>4679.4677504325246</v>
+      </c>
+      <c r="BC3" s="20">
+        <v>4736.0497500105994</v>
+      </c>
+      <c r="BD3" s="20">
+        <v>4825.2497499948249</v>
+      </c>
+      <c r="BE3" s="20">
+        <v>4899.1555002837995</v>
+      </c>
+      <c r="BF3" s="20">
+        <v>4967.2687499653002</v>
+      </c>
+      <c r="BG3" s="20">
+        <v>5012.5495000702249</v>
+      </c>
+      <c r="BH3" s="20">
+        <v>5064.5477499991503</v>
+      </c>
+      <c r="BI3" s="20">
+        <v>5100.6387507056752</v>
+      </c>
+      <c r="BJ3" s="20">
+        <v>5077.1152500657245</v>
       </c>
     </row>
     <row r="4" spans="1:62" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B4" s="20">
-        <v>2717.1</v>
-      </c>
-      <c r="C4" s="20">
-        <v>2844.1</v>
-      </c>
-      <c r="D4" s="20">
-        <v>2953.7</v>
-      </c>
-      <c r="E4" s="20">
-        <v>2999.1</v>
-      </c>
-      <c r="F4" s="20">
-        <v>3046</v>
-      </c>
-      <c r="G4" s="20">
-        <v>3025.3</v>
-      </c>
-      <c r="H4" s="20">
-        <v>3013.7</v>
-      </c>
-      <c r="I4" s="20">
-        <v>3029.7</v>
-      </c>
-      <c r="J4" s="20">
-        <v>3048</v>
-      </c>
-      <c r="K4" s="20">
-        <v>3098.4</v>
-      </c>
-      <c r="L4" s="20">
-        <v>3142.5</v>
-      </c>
-      <c r="M4" s="20">
-        <v>3198.6</v>
-      </c>
-      <c r="N4" s="20">
-        <v>3242.8</v>
-      </c>
-      <c r="O4" s="20">
-        <v>3276.5</v>
-      </c>
-      <c r="P4" s="20">
-        <v>3273.4</v>
-      </c>
-      <c r="Q4" s="20">
-        <v>3107.75</v>
-      </c>
-      <c r="R4" s="20">
-        <v>3018.75</v>
-      </c>
-      <c r="S4" s="20">
-        <v>3031.75</v>
-      </c>
-      <c r="T4" s="20">
-        <v>3062</v>
-      </c>
-      <c r="U4" s="20">
-        <v>3094.75</v>
-      </c>
-      <c r="V4" s="20">
-        <v>3165.9215851729195</v>
-      </c>
-      <c r="W4" s="20">
-        <v>3240.0020122034557</v>
-      </c>
-      <c r="X4" s="20">
-        <v>3256.317652852646</v>
-      </c>
-      <c r="Y4" s="20">
-        <v>3256.5463745986235</v>
-      </c>
-      <c r="Z4" s="20">
-        <v>3288.1759249964043</v>
-      </c>
-      <c r="AA4" s="20">
-        <v>3354.3173209024139</v>
-      </c>
-      <c r="AB4" s="20">
-        <v>3430.4134960163692</v>
-      </c>
-      <c r="AC4" s="20">
-        <v>3515.0924438843358</v>
-      </c>
-      <c r="AD4" s="20">
-        <v>3606.5915348808171</v>
-      </c>
-      <c r="AE4" s="20">
-        <v>3703.5068407721228</v>
-      </c>
-      <c r="AF4" s="20">
-        <v>3820.6608304688034</v>
-      </c>
-      <c r="AG4" s="20">
-        <v>4027.2947193727105</v>
-      </c>
-      <c r="AH4" s="20">
-        <v>3973.2331661046251</v>
-      </c>
-      <c r="AI4" s="20">
-        <v>3943.7836740630255</v>
-      </c>
-      <c r="AJ4" s="20">
-        <v>3921.974278911131</v>
-      </c>
-      <c r="AK4" s="20">
-        <v>3915.5841523348768</v>
-      </c>
-      <c r="AL4" s="20">
-        <v>3904.6577920566669</v>
-      </c>
-      <c r="AM4" s="20">
-        <v>3898.9661314529258</v>
-      </c>
-      <c r="AN4" s="20">
-        <v>3950.7208928943437</v>
-      </c>
-      <c r="AO4" s="20">
-        <v>3982.8840716743075</v>
-      </c>
-      <c r="AP4" s="20">
-        <v>4021.7879266195991</v>
-      </c>
-      <c r="AQ4" s="20">
-        <v>4088.6935737682315</v>
-      </c>
-      <c r="AR4" s="20">
-        <v>4117.9089882341686</v>
-      </c>
-      <c r="AS4" s="20">
-        <v>4103.2174591301882</v>
-      </c>
-      <c r="AT4" s="20">
-        <v>4114.5643529719291</v>
-      </c>
-      <c r="AU4" s="20">
-        <v>4144.6636091727305</v>
-      </c>
-      <c r="AV4" s="20">
-        <v>4234.9321061172695</v>
-      </c>
-      <c r="AW4" s="20">
-        <v>4344.2744162789022</v>
-      </c>
-      <c r="AX4" s="20">
-        <v>4448.2630219087687</v>
-      </c>
-      <c r="AY4" s="20">
-        <v>4469.1149849350713</v>
-      </c>
-      <c r="AZ4" s="20">
-        <v>4481.7117499798005</v>
-      </c>
-      <c r="BA4" s="20">
-        <v>4597.5814999848244</v>
-      </c>
-      <c r="BB4" s="20">
-        <v>4679.4677504325246</v>
-      </c>
-      <c r="BC4" s="20">
-        <v>4736.0497500105994</v>
-      </c>
-      <c r="BD4" s="20">
-        <v>4825.2497499948249</v>
-      </c>
-      <c r="BE4" s="20">
-        <v>4899.1555002837995</v>
-      </c>
-      <c r="BF4" s="20">
-        <v>4967.2687499653002</v>
-      </c>
-      <c r="BG4" s="20">
-        <v>5012.5495000702249</v>
-      </c>
-      <c r="BH4" s="20">
-        <v>5064.5477499991503</v>
-      </c>
-      <c r="BI4" s="20">
-        <v>5100.6387507056752</v>
-      </c>
-      <c r="BJ4" s="20">
-        <v>5077.1152500657245</v>
+      <c r="A4" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="21">
+        <v>393.4</v>
+      </c>
+      <c r="C4" s="21">
+        <v>380.8</v>
+      </c>
+      <c r="D4" s="21">
+        <v>366.9</v>
+      </c>
+      <c r="E4" s="21">
+        <v>346.5</v>
+      </c>
+      <c r="F4" s="21">
+        <v>332.1</v>
+      </c>
+      <c r="G4" s="21">
+        <v>316.5</v>
+      </c>
+      <c r="H4" s="21">
+        <v>306.3</v>
+      </c>
+      <c r="I4" s="21">
+        <v>303</v>
+      </c>
+      <c r="J4" s="21">
+        <v>286.60000000000002</v>
+      </c>
+      <c r="K4" s="21">
+        <v>275.89999999999998</v>
+      </c>
+      <c r="L4" s="21">
+        <v>268.5</v>
+      </c>
+      <c r="M4" s="21">
+        <v>262.3</v>
+      </c>
+      <c r="N4" s="21">
+        <v>254.6</v>
+      </c>
+      <c r="O4" s="21">
+        <v>247.3</v>
+      </c>
+      <c r="P4" s="21">
+        <v>243.5</v>
+      </c>
+      <c r="Q4" s="21">
+        <v>234.75</v>
+      </c>
+      <c r="R4" s="21">
+        <v>232.5</v>
+      </c>
+      <c r="S4" s="21">
+        <v>227.5</v>
+      </c>
+      <c r="T4" s="21">
+        <v>222.5</v>
+      </c>
+      <c r="U4" s="21">
+        <v>220</v>
+      </c>
+      <c r="V4" s="21">
+        <v>217.75</v>
+      </c>
+      <c r="W4" s="21">
+        <v>212.61725000000001</v>
+      </c>
+      <c r="X4" s="21">
+        <v>210.13974999999999</v>
+      </c>
+      <c r="Y4" s="21">
+        <v>207.64150000000001</v>
+      </c>
+      <c r="Z4" s="21">
+        <v>203.66825</v>
+      </c>
+      <c r="AA4" s="21">
+        <v>202.50358633547833</v>
+      </c>
+      <c r="AB4" s="21">
+        <v>194.52447269000919</v>
+      </c>
+      <c r="AC4" s="21">
+        <v>186.87345285744919</v>
+      </c>
+      <c r="AD4" s="21">
+        <v>177.2273783936225</v>
+      </c>
+      <c r="AE4" s="21">
+        <v>168.3249996183184</v>
+      </c>
+      <c r="AF4" s="21">
+        <v>162.25485745391586</v>
+      </c>
+      <c r="AG4" s="21">
+        <v>163.70540046384886</v>
+      </c>
+      <c r="AH4" s="21">
+        <v>160.03889011854534</v>
+      </c>
+      <c r="AI4" s="21">
+        <v>167.10386969468166</v>
+      </c>
+      <c r="AJ4" s="21">
+        <v>163.03987779709564</v>
+      </c>
+      <c r="AK4" s="21">
+        <v>161.64017647718427</v>
+      </c>
+      <c r="AL4" s="21">
+        <v>171.54845672416735</v>
+      </c>
+      <c r="AM4" s="21">
+        <v>171.45094540815893</v>
+      </c>
+      <c r="AN4" s="21">
+        <v>172.88678759254395</v>
+      </c>
+      <c r="AO4" s="21">
+        <v>176.0668381334126</v>
+      </c>
+      <c r="AP4" s="21">
+        <v>167.25559712308049</v>
+      </c>
+      <c r="AQ4" s="21">
+        <v>157.15747977434779</v>
+      </c>
+      <c r="AR4" s="21">
+        <v>158.07072761627984</v>
+      </c>
+      <c r="AS4" s="21">
+        <v>155.59318296339245</v>
+      </c>
+      <c r="AT4" s="21">
+        <v>147.93970657510908</v>
+      </c>
+      <c r="AU4" s="21">
+        <v>147.53385906969208</v>
+      </c>
+      <c r="AV4" s="21">
+        <v>148.37799779716974</v>
+      </c>
+      <c r="AW4" s="21">
+        <v>154.03360857143193</v>
+      </c>
+      <c r="AX4" s="21">
+        <v>155.8594178448356</v>
+      </c>
+      <c r="AY4" s="21">
+        <v>148.96991272643919</v>
+      </c>
+      <c r="AZ4" s="21">
+        <v>155.51724999980001</v>
+      </c>
+      <c r="BA4" s="21">
+        <v>160.52975000007501</v>
+      </c>
+      <c r="BB4" s="21">
+        <v>162.13675000002502</v>
+      </c>
+      <c r="BC4" s="21">
+        <v>164.30875000085001</v>
+      </c>
+      <c r="BD4" s="21">
+        <v>169.93075000007502</v>
+      </c>
+      <c r="BE4" s="21">
+        <v>165.89825000004998</v>
+      </c>
+      <c r="BF4" s="21">
+        <v>164.48300000005</v>
+      </c>
+      <c r="BG4" s="21">
+        <v>155.26074999972499</v>
+      </c>
+      <c r="BH4" s="21">
+        <v>152.43725000015002</v>
+      </c>
+      <c r="BI4" s="21">
+        <v>132.68649999992499</v>
+      </c>
+      <c r="BJ4" s="21">
+        <v>132.330249999975</v>
       </c>
     </row>
     <row r="5" spans="1:62" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B5" s="21">
-        <v>393.4</v>
+        <v>1262.7</v>
       </c>
       <c r="C5" s="21">
-        <v>380.8</v>
+        <v>1358.6</v>
       </c>
       <c r="D5" s="21">
-        <v>366.9</v>
+        <v>1436.4</v>
       </c>
       <c r="E5" s="21">
-        <v>346.5</v>
+        <v>1464.6</v>
       </c>
       <c r="F5" s="21">
-        <v>332.1</v>
+        <v>1486.8</v>
       </c>
       <c r="G5" s="21">
-        <v>316.5</v>
+        <v>1464</v>
       </c>
       <c r="H5" s="21">
-        <v>306.3</v>
+        <v>1442.2</v>
       </c>
       <c r="I5" s="21">
-        <v>303</v>
+        <v>1431.4</v>
       </c>
       <c r="J5" s="21">
-        <v>286.60000000000002</v>
+        <v>1428.9</v>
       </c>
       <c r="K5" s="21">
-        <v>275.89999999999998</v>
+        <v>1443.5</v>
       </c>
       <c r="L5" s="21">
-        <v>268.5</v>
+        <v>1450.6</v>
       </c>
       <c r="M5" s="21">
-        <v>262.3</v>
+        <v>1471.2</v>
       </c>
       <c r="N5" s="21">
-        <v>254.6</v>
+        <v>1477.6</v>
       </c>
       <c r="O5" s="21">
-        <v>247.3</v>
+        <v>1475.1</v>
       </c>
       <c r="P5" s="21">
-        <v>243.5</v>
+        <v>1456.7</v>
       </c>
       <c r="Q5" s="21">
-        <v>234.75</v>
+        <v>1257.8409999999999</v>
       </c>
       <c r="R5" s="21">
-        <v>232.5</v>
+        <v>1184.8699999999999</v>
       </c>
       <c r="S5" s="21">
-        <v>227.5</v>
+        <v>1178.9670000000001</v>
       </c>
       <c r="T5" s="21">
-        <v>222.5</v>
+        <v>1180.74</v>
       </c>
       <c r="U5" s="21">
-        <v>220</v>
+        <v>1181.116</v>
       </c>
       <c r="V5" s="21">
-        <v>217.75</v>
+        <v>1206.8652245632661</v>
       </c>
       <c r="W5" s="21">
-        <v>212.61725000000001</v>
+        <v>1226.5360594617352</v>
       </c>
       <c r="X5" s="21">
-        <v>210.13974999999999</v>
+        <v>1202.1860935145817</v>
       </c>
       <c r="Y5" s="21">
-        <v>207.64150000000001</v>
+        <v>1172.6889792308007</v>
       </c>
       <c r="Z5" s="21">
-        <v>203.66825</v>
+        <v>1174.2994058852178</v>
       </c>
       <c r="AA5" s="21">
-        <v>202.50358633547833</v>
+        <v>1193.461111408599</v>
       </c>
       <c r="AB5" s="21">
-        <v>194.52447269000919</v>
+        <v>1210.0772756313286</v>
       </c>
       <c r="AC5" s="21">
-        <v>186.87345285744919</v>
+        <v>1209.1430988124932</v>
       </c>
       <c r="AD5" s="21">
-        <v>177.2273783936225</v>
+        <v>1210.7661909504627</v>
       </c>
       <c r="AE5" s="21">
-        <v>168.3249996183184</v>
+        <v>1221.5597420804572</v>
       </c>
       <c r="AF5" s="21">
-        <v>162.25485745391586</v>
+        <v>1229.4897059718178</v>
       </c>
       <c r="AG5" s="21">
-        <v>163.70540046384886</v>
+        <v>1188.8416685063034</v>
       </c>
       <c r="AH5" s="21">
-        <v>160.03889011854534</v>
+        <v>1138.2827179835219</v>
       </c>
       <c r="AI5" s="21">
-        <v>167.10386969468166</v>
+        <v>1099.4076313538958</v>
       </c>
       <c r="AJ5" s="21">
-        <v>163.03987779709564</v>
+        <v>1072.6466687567909</v>
       </c>
       <c r="AK5" s="21">
-        <v>161.64017647718427</v>
+        <v>1059.7008112477993</v>
       </c>
       <c r="AL5" s="21">
-        <v>171.54845672416735</v>
+        <v>1024.9238125199754</v>
       </c>
       <c r="AM5" s="21">
-        <v>171.45094540815893</v>
+        <v>992.77990815386511</v>
       </c>
       <c r="AN5" s="21">
-        <v>172.88678759254395</v>
+        <v>980.8291414457567</v>
       </c>
       <c r="AO5" s="21">
-        <v>176.0668381334126</v>
+        <v>964.94618915053832</v>
       </c>
       <c r="AP5" s="21">
-        <v>167.25559712308049</v>
+        <v>964.46203390059532</v>
       </c>
       <c r="AQ5" s="21">
-        <v>157.15747977434779</v>
+        <v>978.52852867883985</v>
       </c>
       <c r="AR5" s="21">
-        <v>158.07072761627984</v>
+        <v>964.85217383350891</v>
       </c>
       <c r="AS5" s="21">
-        <v>155.59318296339245</v>
+        <v>949.86486879003598</v>
       </c>
       <c r="AT5" s="21">
-        <v>147.93970657510908</v>
+        <v>945.77601520041321</v>
       </c>
       <c r="AU5" s="21">
-        <v>147.53385906969208</v>
+        <v>952.66347143973132</v>
       </c>
       <c r="AV5" s="21">
-        <v>148.37799779716974</v>
+        <v>978.97123182099244</v>
       </c>
       <c r="AW5" s="21">
-        <v>154.03360857143193</v>
+        <v>1007.9071102899125</v>
       </c>
       <c r="AX5" s="21">
-        <v>155.8594178448356</v>
+        <v>1022.3339351198027</v>
       </c>
       <c r="AY5" s="21">
-        <v>148.96991272643919</v>
+        <v>1011.1511968139223</v>
       </c>
       <c r="AZ5" s="21">
-        <v>155.51724999980001</v>
+        <v>1006.6399999975</v>
       </c>
       <c r="BA5" s="21">
-        <v>160.52975000007501</v>
+        <v>1030.9352500022499</v>
       </c>
       <c r="BB5" s="21">
-        <v>162.13675000002502</v>
+        <v>1038.0167503774999</v>
       </c>
       <c r="BC5" s="21">
-        <v>164.30875000085001</v>
+        <v>1031.5850000472501</v>
       </c>
       <c r="BD5" s="21">
-        <v>169.93075000007502</v>
+        <v>1045.0662499997497</v>
       </c>
       <c r="BE5" s="21">
-        <v>165.89825000004998</v>
+        <v>1051.5967502712501</v>
       </c>
       <c r="BF5" s="21">
-        <v>164.48300000005</v>
+        <v>1044.9910000002501</v>
       </c>
       <c r="BG5" s="21">
-        <v>155.26074999972499</v>
+        <v>1045.4427500504999</v>
       </c>
       <c r="BH5" s="21">
-        <v>152.43725000015002</v>
+        <v>1051.009749999</v>
       </c>
       <c r="BI5" s="21">
-        <v>132.68649999992499</v>
+        <v>1057.7240006357499</v>
       </c>
       <c r="BJ5" s="21">
-        <v>132.330249999975</v>
+        <v>1050.3235000407499</v>
       </c>
     </row>
     <row r="6" spans="1:62" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B6" s="21">
-        <v>1262.7</v>
+        <v>1061</v>
       </c>
       <c r="C6" s="21">
-        <v>1358.6</v>
+        <v>1104.7</v>
       </c>
       <c r="D6" s="21">
-        <v>1436.4</v>
+        <v>1150.4000000000001</v>
       </c>
       <c r="E6" s="21">
-        <v>1464.6</v>
+        <v>1188</v>
       </c>
       <c r="F6" s="21">
-        <v>1486.8</v>
+        <v>1227.0999999999999</v>
       </c>
       <c r="G6" s="21">
-        <v>1464</v>
+        <v>1244.8</v>
       </c>
       <c r="H6" s="21">
-        <v>1442.2</v>
+        <v>1265.2</v>
       </c>
       <c r="I6" s="21">
-        <v>1431.4</v>
+        <v>1295.3</v>
       </c>
       <c r="J6" s="21">
-        <v>1428.9</v>
+        <v>1332.5</v>
       </c>
       <c r="K6" s="21">
-        <v>1443.5</v>
+        <v>1379</v>
       </c>
       <c r="L6" s="21">
-        <v>1450.6</v>
+        <v>1423.4</v>
       </c>
       <c r="M6" s="21">
-        <v>1471.2</v>
+        <v>1465.1</v>
       </c>
       <c r="N6" s="21">
-        <v>1477.6</v>
+        <v>1510.6</v>
       </c>
       <c r="O6" s="21">
-        <v>1475.1</v>
+        <v>1554.1</v>
       </c>
       <c r="P6" s="21">
-        <v>1456.7</v>
+        <v>1573.2</v>
       </c>
       <c r="Q6" s="21">
-        <v>1257.8409999999999</v>
+        <v>1615.1590000000001</v>
       </c>
       <c r="R6" s="21">
-        <v>1184.8699999999999</v>
+        <v>1601.38</v>
       </c>
       <c r="S6" s="21">
-        <v>1178.9670000000001</v>
+        <v>1625.2829999999999</v>
       </c>
       <c r="T6" s="21">
-        <v>1180.74</v>
+        <v>1658.76</v>
       </c>
       <c r="U6" s="21">
-        <v>1181.116</v>
+        <v>1693.634</v>
       </c>
       <c r="V6" s="21">
-        <v>1206.8652245632661</v>
+        <v>1741.306360609653</v>
       </c>
       <c r="W6" s="21">
-        <v>1226.5360594617352</v>
+        <v>1800.8487027417207</v>
       </c>
       <c r="X6" s="21">
-        <v>1202.1860935145817</v>
+        <v>1843.9918093380643</v>
       </c>
       <c r="Y6" s="21">
-        <v>1172.6889792308007</v>
+        <v>1876.2158953678227</v>
       </c>
       <c r="Z6" s="21">
-        <v>1174.2994058852178</v>
+        <v>1910.2082691111868</v>
       </c>
       <c r="AA6" s="21">
-        <v>1193.461111408599</v>
+        <v>1958.3526231583371</v>
       </c>
       <c r="AB6" s="21">
-        <v>1210.0772756313286</v>
+        <v>2025.811747695031</v>
       </c>
       <c r="AC6" s="21">
-        <v>1209.1430988124932</v>
+        <v>2119.0758922143932</v>
       </c>
       <c r="AD6" s="21">
-        <v>1210.7661909504627</v>
+        <v>2218.5979655367319</v>
       </c>
       <c r="AE6" s="21">
-        <v>1221.5597420804572</v>
+        <v>2313.6220990733473</v>
       </c>
       <c r="AF6" s="21">
-        <v>1229.4897059718178</v>
+        <v>2428.9162670430696</v>
       </c>
       <c r="AG6" s="21">
-        <v>1188.8416685063034</v>
+        <v>2674.7476504025576</v>
       </c>
       <c r="AH6" s="21">
-        <v>1138.2827179835219</v>
+        <v>2674.9115580025577</v>
       </c>
       <c r="AI6" s="21">
-        <v>1099.4076313538958</v>
+        <v>2677.2721730144476</v>
       </c>
       <c r="AJ6" s="21">
-        <v>1072.6466687567909</v>
+        <v>2686.2877323572438</v>
       </c>
       <c r="AK6" s="21">
-        <v>1059.7008112477993</v>
+        <v>2694.243164609893</v>
       </c>
       <c r="AL6" s="21">
-        <v>1024.9238125199754</v>
+        <v>2708.1855228125232</v>
       </c>
       <c r="AM6" s="21">
-        <v>992.77990815386511</v>
+        <v>2734.7352778909017</v>
       </c>
       <c r="AN6" s="21">
-        <v>980.8291414457567</v>
+        <v>2797.0049638560431</v>
       </c>
       <c r="AO6" s="21">
-        <v>964.94618915053832</v>
+        <v>2841.871044390356</v>
       </c>
       <c r="AP6" s="21">
-        <v>964.46203390059532</v>
+        <v>2890.0702955959232</v>
       </c>
       <c r="AQ6" s="21">
-        <v>978.52852867883985</v>
+        <v>2953.0075653150434</v>
       </c>
       <c r="AR6" s="21">
-        <v>964.85217383350891</v>
+        <v>2994.9860867843795</v>
       </c>
       <c r="AS6" s="21">
-        <v>949.86486879003598</v>
+        <v>2997.7594073767605</v>
       </c>
       <c r="AT6" s="21">
-        <v>945.77601520041321</v>
+        <v>3020.848631196407</v>
       </c>
       <c r="AU6" s="21">
-        <v>952.66347143973132</v>
+        <v>3044.4662786633075</v>
       </c>
       <c r="AV6" s="21">
-        <v>978.97123182099244</v>
+        <v>3107.5828764991074</v>
       </c>
       <c r="AW6" s="21">
-        <v>1007.9071102899125</v>
+        <v>3182.3336974175581</v>
       </c>
       <c r="AX6" s="21">
-        <v>1022.3339351198027</v>
+        <v>3270.0696689441306</v>
       </c>
       <c r="AY6" s="21">
-        <v>1011.1511968139223</v>
+        <v>3308.9938753947099</v>
       </c>
       <c r="AZ6" s="21">
-        <v>1006.6399999975</v>
+        <v>3319.5544999825001</v>
       </c>
       <c r="BA6" s="21">
-        <v>1030.9352500022499</v>
+        <v>3406.1164999825005</v>
       </c>
       <c r="BB6" s="21">
-        <v>1038.0167503774999</v>
+        <v>3479.3142500549998</v>
       </c>
       <c r="BC6" s="21">
-        <v>1031.5850000472501</v>
+        <v>3540.1559999624997</v>
       </c>
       <c r="BD6" s="21">
-        <v>1045.0662499997497</v>
+        <v>3610.2527499949997</v>
       </c>
       <c r="BE6" s="21">
-        <v>1051.5967502712501</v>
+        <v>3681.6605000125001</v>
       </c>
       <c r="BF6" s="21">
-        <v>1044.9910000002501</v>
+        <v>3757.7947499649999</v>
       </c>
       <c r="BG6" s="21">
-        <v>1045.4427500504999</v>
+        <v>3811.8460000200002</v>
       </c>
       <c r="BH6" s="21">
-        <v>1051.009749999</v>
+        <v>3861.1007499999996</v>
       </c>
       <c r="BI6" s="21">
-        <v>1057.7240006357499</v>
+        <v>3910.2282500700003</v>
       </c>
       <c r="BJ6" s="21">
-        <v>1050.3235000407499</v>
+        <v>3894.4615000250001</v>
       </c>
     </row>
     <row r="7" spans="1:62" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>192</v>
+      <c r="A7" s="7" t="s">
+        <v>193</v>
       </c>
       <c r="B7" s="21">
-        <v>1061</v>
+        <v>2271.8000000000002</v>
       </c>
       <c r="C7" s="21">
-        <v>1104.7</v>
+        <v>2297.6</v>
       </c>
       <c r="D7" s="21">
-        <v>1150.4000000000001</v>
+        <v>2312.3000000000002</v>
       </c>
       <c r="E7" s="21">
-        <v>1188</v>
+        <v>2301.4</v>
       </c>
       <c r="F7" s="21">
-        <v>1227.0999999999999</v>
+        <v>2314.1999999999998</v>
       </c>
       <c r="G7" s="21">
-        <v>1244.8</v>
+        <v>2311.8000000000002</v>
       </c>
       <c r="H7" s="21">
-        <v>1265.2</v>
+        <v>2311.6</v>
       </c>
       <c r="I7" s="21">
-        <v>1295.3</v>
+        <v>2315.9</v>
       </c>
       <c r="J7" s="21">
-        <v>1332.5</v>
+        <v>2315.9</v>
       </c>
       <c r="K7" s="21">
-        <v>1379</v>
+        <v>2335.5</v>
       </c>
       <c r="L7" s="21">
-        <v>1423.4</v>
+        <v>2355.8000000000002</v>
       </c>
       <c r="M7" s="21">
-        <v>1465.1</v>
+        <v>2389.9</v>
       </c>
       <c r="N7" s="21">
-        <v>1510.6</v>
+        <v>2412.9</v>
       </c>
       <c r="O7" s="21">
-        <v>1554.1</v>
+        <v>2441.1</v>
       </c>
       <c r="P7" s="21">
-        <v>1573.2</v>
+        <v>2463.8000000000002</v>
       </c>
       <c r="Q7" s="21">
-        <v>1615.1590000000001</v>
+        <v>2387.15</v>
       </c>
       <c r="R7" s="21">
-        <v>1601.38</v>
+        <v>2379.375</v>
       </c>
       <c r="S7" s="21">
-        <v>1625.2829999999999</v>
+        <v>2413.8249999999998</v>
       </c>
       <c r="T7" s="21">
-        <v>1658.76</v>
+        <v>2438.8249999999998</v>
       </c>
       <c r="U7" s="21">
-        <v>1693.634</v>
+        <v>2461.5749999999998</v>
       </c>
       <c r="V7" s="21">
-        <v>1741.306360609653</v>
+        <v>2511.6215851729194</v>
       </c>
       <c r="W7" s="21">
-        <v>1800.8487027417207</v>
+        <v>2553.9020122034558</v>
       </c>
       <c r="X7" s="21">
-        <v>1843.9918093380643</v>
+        <v>2556.6176528526462</v>
       </c>
       <c r="Y7" s="21">
-        <v>1876.2158953678227</v>
+        <v>2572.4463745986232</v>
       </c>
       <c r="Z7" s="21">
-        <v>1910.2082691111868</v>
+        <v>2597.3759249964046</v>
       </c>
       <c r="AA7" s="21">
-        <v>1958.3526231583371</v>
+        <v>2647.8763209024141</v>
       </c>
       <c r="AB7" s="21">
-        <v>2025.811747695031</v>
+        <v>2690.1424691050115</v>
       </c>
       <c r="AC7" s="21">
-        <v>2119.0758922143932</v>
+        <v>2731.6262744125252</v>
       </c>
       <c r="AD7" s="21">
-        <v>2218.5979655367319</v>
+        <v>2779.6259273014462</v>
       </c>
       <c r="AE7" s="21">
-        <v>2313.6220990733473</v>
+        <v>2821.7462488107894</v>
       </c>
       <c r="AF7" s="21">
-        <v>2428.9162670430696</v>
+        <v>2863.2723345710492</v>
       </c>
       <c r="AG7" s="21">
-        <v>2674.7476504025576</v>
+        <v>2995.7008199746547</v>
       </c>
       <c r="AH7" s="21">
-        <v>2674.9115580025577</v>
+        <v>2970.2248647654128</v>
       </c>
       <c r="AI7" s="21">
-        <v>2677.2721730144476</v>
+        <v>2974.68109048423</v>
       </c>
       <c r="AJ7" s="21">
-        <v>2686.2877323572438</v>
+        <v>2973.0652786737337</v>
       </c>
       <c r="AK7" s="21">
-        <v>2694.243164609893</v>
+        <v>2953.6087478320051</v>
       </c>
       <c r="AL7" s="21">
-        <v>2708.1855228125232</v>
+        <v>2959.6496902422969</v>
       </c>
       <c r="AM7" s="21">
-        <v>2734.7352778909017</v>
+        <v>2976.0218120206964</v>
       </c>
       <c r="AN7" s="21">
-        <v>2797.0049638560431</v>
+        <v>3014.4252965213946</v>
       </c>
       <c r="AO7" s="21">
-        <v>2841.871044390356</v>
+        <v>3055.7229690401537</v>
       </c>
       <c r="AP7" s="21">
-        <v>2890.0702955959232</v>
+        <v>3072.9076377471974</v>
       </c>
       <c r="AQ7" s="21">
-        <v>2953.0075653150434</v>
+        <v>3080.8198826766115</v>
       </c>
       <c r="AR7" s="21">
-        <v>2994.9860867843795</v>
+        <v>3103.6773148973125</v>
       </c>
       <c r="AS7" s="21">
-        <v>2997.7594073767605</v>
+        <v>3093.1974369200907</v>
       </c>
       <c r="AT7" s="21">
-        <v>3020.848631196407</v>
+        <v>3095.4939937319441</v>
       </c>
       <c r="AU7" s="21">
-        <v>3044.4662786633075</v>
+        <v>3108.1196055193286</v>
       </c>
       <c r="AV7" s="21">
-        <v>3107.5828764991074</v>
+        <v>3160.956712878994</v>
       </c>
       <c r="AW7" s="21">
-        <v>3182.3336974175581</v>
+        <v>3220.443148983466</v>
       </c>
       <c r="AX7" s="21">
-        <v>3270.0696689441306</v>
+        <v>3272.5919988532705</v>
       </c>
       <c r="AY7" s="21">
-        <v>3308.9938753947099</v>
+        <v>3265.2363382341755</v>
       </c>
       <c r="AZ7" s="21">
-        <v>3319.5544999825001</v>
+        <v>3267.2464999767499</v>
       </c>
       <c r="BA7" s="21">
-        <v>3406.1164999825005</v>
+        <v>3308.1252499852499</v>
       </c>
       <c r="BB7" s="21">
-        <v>3479.3142500549998</v>
+        <v>3329.3650002704999</v>
       </c>
       <c r="BC7" s="21">
-        <v>3540.1559999624997</v>
+        <v>3341.9102499922496</v>
       </c>
       <c r="BD7" s="21">
-        <v>3610.2527499949997</v>
+        <v>3373.2602499964996</v>
       </c>
       <c r="BE7" s="21">
-        <v>3681.6605000125001</v>
+        <v>3404.3592501849998</v>
       </c>
       <c r="BF7" s="21">
-        <v>3757.7947499649999</v>
+        <v>3441.6659999664998</v>
       </c>
       <c r="BG7" s="21">
-        <v>3811.8460000200002</v>
+        <v>3453.7862500497499</v>
       </c>
       <c r="BH7" s="21">
-        <v>3861.1007499999996</v>
+        <v>3469.8797500007499</v>
       </c>
       <c r="BI7" s="21">
-        <v>3910.2282500700003</v>
+        <v>3474.7420004380001</v>
       </c>
       <c r="BJ7" s="21">
-        <v>3894.4615000250001</v>
+        <v>3439.7757500489997</v>
       </c>
     </row>
     <row r="8" spans="1:62" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="B8" s="21">
-        <v>2271.8000000000002</v>
-      </c>
-      <c r="C8" s="21">
-        <v>2297.6</v>
-      </c>
-      <c r="D8" s="21">
-        <v>2312.3000000000002</v>
-      </c>
-      <c r="E8" s="21">
-        <v>2301.4</v>
-      </c>
-      <c r="F8" s="21">
-        <v>2314.1999999999998</v>
-      </c>
-      <c r="G8" s="21">
-        <v>2311.8000000000002</v>
-      </c>
-      <c r="H8" s="21">
-        <v>2311.6</v>
-      </c>
-      <c r="I8" s="21">
-        <v>2315.9</v>
-      </c>
-      <c r="J8" s="21">
-        <v>2315.9</v>
-      </c>
-      <c r="K8" s="21">
-        <v>2335.5</v>
-      </c>
-      <c r="L8" s="21">
-        <v>2355.8000000000002</v>
-      </c>
-      <c r="M8" s="21">
-        <v>2389.9</v>
-      </c>
-      <c r="N8" s="21">
-        <v>2412.9</v>
-      </c>
-      <c r="O8" s="21">
-        <v>2441.1</v>
-      </c>
-      <c r="P8" s="21">
-        <v>2463.8000000000002</v>
-      </c>
-      <c r="Q8" s="21">
-        <v>2387.15</v>
-      </c>
-      <c r="R8" s="21">
-        <v>2379.375</v>
-      </c>
-      <c r="S8" s="21">
-        <v>2413.8249999999998</v>
-      </c>
-      <c r="T8" s="21">
-        <v>2438.8249999999998</v>
-      </c>
-      <c r="U8" s="21">
-        <v>2461.5749999999998</v>
-      </c>
-      <c r="V8" s="21">
-        <v>2511.6215851729194</v>
-      </c>
-      <c r="W8" s="21">
-        <v>2553.9020122034558</v>
-      </c>
-      <c r="X8" s="21">
-        <v>2556.6176528526462</v>
-      </c>
-      <c r="Y8" s="21">
-        <v>2572.4463745986232</v>
-      </c>
-      <c r="Z8" s="21">
-        <v>2597.3759249964046</v>
-      </c>
-      <c r="AA8" s="21">
-        <v>2647.8763209024141</v>
-      </c>
-      <c r="AB8" s="21">
-        <v>2690.1424691050115</v>
-      </c>
-      <c r="AC8" s="21">
-        <v>2731.6262744125252</v>
-      </c>
-      <c r="AD8" s="21">
-        <v>2779.6259273014462</v>
-      </c>
-      <c r="AE8" s="21">
-        <v>2821.7462488107894</v>
-      </c>
-      <c r="AF8" s="21">
-        <v>2863.2723345710492</v>
-      </c>
-      <c r="AG8" s="21">
-        <v>2995.7008199746547</v>
-      </c>
-      <c r="AH8" s="21">
-        <v>2970.2248647654128</v>
-      </c>
-      <c r="AI8" s="21">
-        <v>2974.68109048423</v>
-      </c>
-      <c r="AJ8" s="21">
-        <v>2973.0652786737337</v>
-      </c>
-      <c r="AK8" s="21">
-        <v>2953.6087478320051</v>
-      </c>
-      <c r="AL8" s="21">
-        <v>2959.6496902422969</v>
-      </c>
-      <c r="AM8" s="21">
-        <v>2976.0218120206964</v>
-      </c>
-      <c r="AN8" s="21">
-        <v>3014.4252965213946</v>
-      </c>
-      <c r="AO8" s="21">
-        <v>3055.7229690401537</v>
-      </c>
-      <c r="AP8" s="21">
-        <v>3072.9076377471974</v>
-      </c>
-      <c r="AQ8" s="21">
-        <v>3080.8198826766115</v>
-      </c>
-      <c r="AR8" s="21">
-        <v>3103.6773148973125</v>
-      </c>
-      <c r="AS8" s="21">
-        <v>3093.1974369200907</v>
-      </c>
-      <c r="AT8" s="21">
-        <v>3095.4939937319441</v>
-      </c>
-      <c r="AU8" s="21">
-        <v>3108.1196055193286</v>
-      </c>
-      <c r="AV8" s="21">
-        <v>3160.956712878994</v>
-      </c>
-      <c r="AW8" s="21">
-        <v>3220.443148983466</v>
-      </c>
-      <c r="AX8" s="21">
-        <v>3272.5919988532705</v>
-      </c>
-      <c r="AY8" s="21">
-        <v>3265.2363382341755</v>
+      <c r="A8" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="P8" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q8" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="R8" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="S8" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="T8" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="U8" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="V8" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="W8" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="X8" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y8" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z8" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA8" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB8" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC8" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD8" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE8" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF8" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG8" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH8" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI8" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ8" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AK8" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AL8" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AM8" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AN8" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AO8" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AP8" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AQ8" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AR8" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS8" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AT8" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AU8" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AV8" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AW8" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX8" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AY8" s="21" t="s">
+        <v>194</v>
       </c>
       <c r="AZ8" s="21">
-        <v>3267.2464999767499</v>
+        <v>137.80695041174999</v>
       </c>
       <c r="BA8" s="21">
-        <v>3308.1252499852499</v>
+        <v>141.23039817275</v>
       </c>
       <c r="BB8" s="21">
-        <v>3329.3650002704999</v>
+        <v>142.39207512550001</v>
       </c>
       <c r="BC8" s="21">
-        <v>3341.9102499922496</v>
+        <v>142.72534871475</v>
       </c>
       <c r="BD8" s="21">
-        <v>3373.2602499964996</v>
+        <v>146.89741512150002</v>
       </c>
       <c r="BE8" s="21">
-        <v>3404.3592501849998</v>
+        <v>144.4621315775</v>
       </c>
       <c r="BF8" s="21">
-        <v>3441.6659999664998</v>
+        <v>143.18996001149998</v>
       </c>
       <c r="BG8" s="21">
-        <v>3453.7862500497499</v>
+        <v>134.16259538225</v>
       </c>
       <c r="BH8" s="21">
-        <v>3469.8797500007499</v>
+        <v>129.83105392825001</v>
       </c>
       <c r="BI8" s="21">
-        <v>3474.7420004380001</v>
+        <v>112.83315535550001</v>
       </c>
       <c r="BJ8" s="21">
-        <v>3439.7757500489997</v>
+        <v>113.0893608865</v>
       </c>
     </row>
     <row r="9" spans="1:62" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>194</v>
@@ -25409,42 +25578,42 @@
         <v>194</v>
       </c>
       <c r="AZ9" s="21">
-        <v>137.80695041174999</v>
+        <v>645.39208451500008</v>
       </c>
       <c r="BA9" s="21">
-        <v>141.23039817275</v>
+        <v>647.62658661249998</v>
       </c>
       <c r="BB9" s="21">
-        <v>142.39207512550001</v>
+        <v>647.90224934499997</v>
       </c>
       <c r="BC9" s="21">
-        <v>142.72534871475</v>
+        <v>639.43896535249996</v>
       </c>
       <c r="BD9" s="21">
-        <v>146.89741512150002</v>
+        <v>643.68814267499999</v>
       </c>
       <c r="BE9" s="21">
-        <v>144.4621315775</v>
+        <v>646.18199790749998</v>
       </c>
       <c r="BF9" s="21">
-        <v>143.18996001149998</v>
+        <v>644.53116110500002</v>
       </c>
       <c r="BG9" s="21">
-        <v>134.16259538225</v>
+        <v>636.75743291750007</v>
       </c>
       <c r="BH9" s="21">
-        <v>129.83105392825001</v>
+        <v>640.6441737975</v>
       </c>
       <c r="BI9" s="21">
-        <v>112.83315535550001</v>
+        <v>641.18342100749999</v>
       </c>
       <c r="BJ9" s="21">
-        <v>113.0893608865</v>
+        <v>628.68002173750006</v>
       </c>
     </row>
     <row r="10" spans="1:62" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>194</v>
@@ -25597,418 +25766,418 @@
         <v>194</v>
       </c>
       <c r="AZ10" s="21">
-        <v>645.39208451500008</v>
+        <v>2484.04746505</v>
       </c>
       <c r="BA10" s="21">
-        <v>647.62658661249998</v>
+        <v>2519.2682652000003</v>
       </c>
       <c r="BB10" s="21">
-        <v>647.90224934499997</v>
+        <v>2539.0706758000006</v>
       </c>
       <c r="BC10" s="21">
-        <v>639.43896535249996</v>
+        <v>2559.7459359249997</v>
       </c>
       <c r="BD10" s="21">
-        <v>643.68814267499999</v>
+        <v>2582.6746922000002</v>
       </c>
       <c r="BE10" s="21">
-        <v>646.18199790749998</v>
+        <v>2613.7151206999997</v>
       </c>
       <c r="BF10" s="21">
-        <v>644.53116110500002</v>
+        <v>2653.9448788499999</v>
       </c>
       <c r="BG10" s="21">
-        <v>636.75743291750007</v>
+        <v>2682.86622175</v>
       </c>
       <c r="BH10" s="21">
-        <v>640.6441737975</v>
+        <v>2699.4045222750001</v>
       </c>
       <c r="BI10" s="21">
-        <v>641.18342100749999</v>
+        <v>2720.7254240749999</v>
       </c>
       <c r="BJ10" s="21">
-        <v>628.68002173750006</v>
+        <v>2698.0063674249996</v>
       </c>
     </row>
     <row r="11" spans="1:62" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="J11" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="K11" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="L11" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="M11" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="N11" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="O11" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="P11" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q11" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="R11" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="S11" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="T11" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="U11" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="V11" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="W11" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="X11" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="Y11" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="Z11" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA11" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AB11" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AC11" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AD11" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AE11" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AF11" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AG11" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AH11" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AI11" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AJ11" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AK11" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AL11" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AM11" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AN11" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AO11" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AP11" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AQ11" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AR11" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS11" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AT11" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AU11" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AV11" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AW11" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AX11" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AY11" s="21" t="s">
-        <v>194</v>
+      <c r="A11" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B11" s="21">
+        <v>445.3</v>
+      </c>
+      <c r="C11" s="21">
+        <v>546.5</v>
+      </c>
+      <c r="D11" s="21">
+        <v>641.4</v>
+      </c>
+      <c r="E11" s="21">
+        <v>697.7</v>
+      </c>
+      <c r="F11" s="21">
+        <v>731.8</v>
+      </c>
+      <c r="G11" s="21">
+        <v>713.5</v>
+      </c>
+      <c r="H11" s="21">
+        <v>702.1</v>
+      </c>
+      <c r="I11" s="21">
+        <v>713.8</v>
+      </c>
+      <c r="J11" s="21">
+        <v>732.1</v>
+      </c>
+      <c r="K11" s="21">
+        <v>762.9</v>
+      </c>
+      <c r="L11" s="21">
+        <v>786.7</v>
+      </c>
+      <c r="M11" s="21">
+        <v>808.7</v>
+      </c>
+      <c r="N11" s="21">
+        <v>829.9</v>
+      </c>
+      <c r="O11" s="21">
+        <v>835.4</v>
+      </c>
+      <c r="P11" s="21">
+        <v>809.6</v>
+      </c>
+      <c r="Q11" s="21">
+        <v>720.6</v>
+      </c>
+      <c r="R11" s="21">
+        <v>639.375</v>
+      </c>
+      <c r="S11" s="21">
+        <v>617.92499999999995</v>
+      </c>
+      <c r="T11" s="21">
+        <v>623.17499999999995</v>
+      </c>
+      <c r="U11" s="21">
+        <v>633.17499999999995</v>
+      </c>
+      <c r="V11" s="21">
+        <v>654.29999999999995</v>
+      </c>
+      <c r="W11" s="21">
+        <v>686.1</v>
+      </c>
+      <c r="X11" s="21">
+        <v>699.7</v>
+      </c>
+      <c r="Y11" s="21">
+        <v>684.1</v>
+      </c>
+      <c r="Z11" s="21">
+        <v>690.8</v>
+      </c>
+      <c r="AA11" s="21">
+        <v>706.44100000000003</v>
+      </c>
+      <c r="AB11" s="21">
+        <v>740.27102691135735</v>
+      </c>
+      <c r="AC11" s="21">
+        <v>783.46616947181087</v>
+      </c>
+      <c r="AD11" s="21">
+        <v>826.96560757937118</v>
+      </c>
+      <c r="AE11" s="21">
+        <v>881.76059196133315</v>
+      </c>
+      <c r="AF11" s="21">
+        <v>957.38849589775384</v>
+      </c>
+      <c r="AG11" s="21">
+        <v>1031.5938993980558</v>
+      </c>
+      <c r="AH11" s="21">
+        <v>1003.0083013392123</v>
+      </c>
+      <c r="AI11" s="21">
+        <v>969.1025835787957</v>
+      </c>
+      <c r="AJ11" s="21">
+        <v>948.90900023739709</v>
+      </c>
+      <c r="AK11" s="21">
+        <v>961.97540450287158</v>
+      </c>
+      <c r="AL11" s="21">
+        <v>945.00810181437043</v>
+      </c>
+      <c r="AM11" s="21">
+        <v>922.94431943222958</v>
+      </c>
+      <c r="AN11" s="21">
+        <v>936.29559637294903</v>
+      </c>
+      <c r="AO11" s="21">
+        <v>927.16110263415339</v>
+      </c>
+      <c r="AP11" s="21">
+        <v>948.88028887240148</v>
+      </c>
+      <c r="AQ11" s="21">
+        <v>1007.87369109162</v>
+      </c>
+      <c r="AR11" s="21">
+        <v>1014.2316733368558</v>
+      </c>
+      <c r="AS11" s="21">
+        <v>1010.0200222100977</v>
+      </c>
+      <c r="AT11" s="21">
+        <v>1019.0703592399848</v>
+      </c>
+      <c r="AU11" s="21">
+        <v>1036.5440036534014</v>
+      </c>
+      <c r="AV11" s="21">
+        <v>1073.9753932382757</v>
+      </c>
+      <c r="AW11" s="21">
+        <v>1123.8312672954362</v>
+      </c>
+      <c r="AX11" s="21">
+        <v>1175.6710230554982</v>
+      </c>
+      <c r="AY11" s="21">
+        <v>1203.8786467008963</v>
       </c>
       <c r="AZ11" s="21">
-        <v>2484.04746505</v>
+        <v>1214.4652500030497</v>
       </c>
       <c r="BA11" s="21">
-        <v>2519.2682652000003</v>
+        <v>1289.456249999575</v>
       </c>
       <c r="BB11" s="21">
-        <v>2539.0706758000006</v>
+        <v>1350.1027501620249</v>
       </c>
       <c r="BC11" s="21">
-        <v>2559.7459359249997</v>
+        <v>1394.1395000183502</v>
       </c>
       <c r="BD11" s="21">
-        <v>2582.6746922000002</v>
+        <v>1451.9894999983248</v>
       </c>
       <c r="BE11" s="21">
-        <v>2613.7151206999997</v>
+        <v>1494.7962500987999</v>
       </c>
       <c r="BF11" s="21">
-        <v>2653.9448788499999</v>
+        <v>1525.6027499987999</v>
       </c>
       <c r="BG11" s="21">
-        <v>2682.86622175</v>
+        <v>1558.763250020475</v>
       </c>
       <c r="BH11" s="21">
-        <v>2699.4045222750001</v>
+        <v>1594.6679999984001</v>
       </c>
       <c r="BI11" s="21">
-        <v>2720.7254240749999</v>
+        <v>1625.8967502676749</v>
       </c>
       <c r="BJ11" s="21">
-        <v>2698.0063674249996</v>
+        <v>1637.3395000167252</v>
       </c>
     </row>
     <row r="12" spans="1:62" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="B12" s="21">
-        <v>445.3</v>
-      </c>
-      <c r="C12" s="21">
-        <v>546.5</v>
-      </c>
-      <c r="D12" s="21">
-        <v>641.4</v>
-      </c>
-      <c r="E12" s="21">
-        <v>697.7</v>
-      </c>
-      <c r="F12" s="21">
-        <v>731.8</v>
-      </c>
-      <c r="G12" s="21">
-        <v>713.5</v>
-      </c>
-      <c r="H12" s="21">
-        <v>702.1</v>
-      </c>
-      <c r="I12" s="21">
-        <v>713.8</v>
-      </c>
-      <c r="J12" s="21">
-        <v>732.1</v>
-      </c>
-      <c r="K12" s="21">
-        <v>762.9</v>
-      </c>
-      <c r="L12" s="21">
-        <v>786.7</v>
-      </c>
-      <c r="M12" s="21">
-        <v>808.7</v>
-      </c>
-      <c r="N12" s="21">
-        <v>829.9</v>
-      </c>
-      <c r="O12" s="21">
-        <v>835.4</v>
-      </c>
-      <c r="P12" s="21">
-        <v>809.6</v>
-      </c>
-      <c r="Q12" s="21">
-        <v>720.6</v>
-      </c>
-      <c r="R12" s="21">
-        <v>639.375</v>
-      </c>
-      <c r="S12" s="21">
-        <v>617.92499999999995</v>
-      </c>
-      <c r="T12" s="21">
-        <v>623.17499999999995</v>
-      </c>
-      <c r="U12" s="21">
-        <v>633.17499999999995</v>
-      </c>
-      <c r="V12" s="21">
-        <v>654.29999999999995</v>
-      </c>
-      <c r="W12" s="21">
-        <v>686.1</v>
-      </c>
-      <c r="X12" s="21">
-        <v>699.7</v>
-      </c>
-      <c r="Y12" s="21">
-        <v>684.1</v>
-      </c>
-      <c r="Z12" s="21">
-        <v>690.8</v>
-      </c>
-      <c r="AA12" s="21">
-        <v>706.44100000000003</v>
-      </c>
-      <c r="AB12" s="21">
-        <v>740.27102691135735</v>
-      </c>
-      <c r="AC12" s="21">
-        <v>783.46616947181087</v>
-      </c>
-      <c r="AD12" s="21">
-        <v>826.96560757937118</v>
-      </c>
-      <c r="AE12" s="21">
-        <v>881.76059196133315</v>
-      </c>
-      <c r="AF12" s="21">
-        <v>957.38849589775384</v>
-      </c>
-      <c r="AG12" s="21">
-        <v>1031.5938993980558</v>
-      </c>
-      <c r="AH12" s="21">
-        <v>1003.0083013392123</v>
-      </c>
-      <c r="AI12" s="21">
-        <v>969.1025835787957</v>
-      </c>
-      <c r="AJ12" s="21">
-        <v>948.90900023739709</v>
-      </c>
-      <c r="AK12" s="21">
-        <v>961.97540450287158</v>
-      </c>
-      <c r="AL12" s="21">
-        <v>945.00810181437043</v>
-      </c>
-      <c r="AM12" s="21">
-        <v>922.94431943222958</v>
-      </c>
-      <c r="AN12" s="21">
-        <v>936.29559637294903</v>
-      </c>
-      <c r="AO12" s="21">
-        <v>927.16110263415339</v>
-      </c>
-      <c r="AP12" s="21">
-        <v>948.88028887240148</v>
-      </c>
-      <c r="AQ12" s="21">
-        <v>1007.87369109162</v>
-      </c>
-      <c r="AR12" s="21">
-        <v>1014.2316733368558</v>
-      </c>
-      <c r="AS12" s="21">
-        <v>1010.0200222100977</v>
-      </c>
-      <c r="AT12" s="21">
-        <v>1019.0703592399848</v>
-      </c>
-      <c r="AU12" s="21">
-        <v>1036.5440036534014</v>
-      </c>
-      <c r="AV12" s="21">
-        <v>1073.9753932382757</v>
-      </c>
-      <c r="AW12" s="21">
-        <v>1123.8312672954362</v>
-      </c>
-      <c r="AX12" s="21">
-        <v>1175.6710230554982</v>
-      </c>
-      <c r="AY12" s="21">
-        <v>1203.8786467008963</v>
+      <c r="A12" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="N12" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="P12" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q12" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="R12" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="S12" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="T12" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="U12" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="V12" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="W12" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="X12" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y12" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z12" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA12" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB12" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC12" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD12" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE12" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF12" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG12" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH12" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI12" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ12" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AK12" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AL12" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AM12" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AN12" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AO12" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AP12" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AQ12" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AR12" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS12" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AT12" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AU12" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AV12" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AW12" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX12" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AY12" s="21" t="s">
+        <v>194</v>
       </c>
       <c r="AZ12" s="21">
-        <v>1214.4652500030497</v>
+        <v>17.710299588049999</v>
       </c>
       <c r="BA12" s="21">
-        <v>1289.456249999575</v>
+        <v>19.299351827325001</v>
       </c>
       <c r="BB12" s="21">
-        <v>1350.1027501620249</v>
+        <v>19.744674874525003</v>
       </c>
       <c r="BC12" s="21">
-        <v>1394.1395000183502</v>
+        <v>21.583401286099999</v>
       </c>
       <c r="BD12" s="21">
-        <v>1451.9894999983248</v>
+        <v>23.033334878574998</v>
       </c>
       <c r="BE12" s="21">
-        <v>1494.7962500987999</v>
+        <v>21.436118422549995</v>
       </c>
       <c r="BF12" s="21">
-        <v>1525.6027499987999</v>
+        <v>21.293039988549999</v>
       </c>
       <c r="BG12" s="21">
-        <v>1558.763250020475</v>
+        <v>21.098154617475004</v>
       </c>
       <c r="BH12" s="21">
-        <v>1594.6679999984001</v>
+        <v>22.606196071900001</v>
       </c>
       <c r="BI12" s="21">
-        <v>1625.8967502676749</v>
+        <v>19.853344644425</v>
       </c>
       <c r="BJ12" s="21">
-        <v>1637.3395000167252</v>
+        <v>19.240889113474999</v>
       </c>
     </row>
     <row r="13" spans="1:62" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>194</v>
@@ -26161,42 +26330,42 @@
         <v>194</v>
       </c>
       <c r="AZ13" s="21">
-        <v>17.710299588049999</v>
+        <v>361.24791548249999</v>
       </c>
       <c r="BA13" s="21">
-        <v>19.299351827325001</v>
+        <v>383.30866338975</v>
       </c>
       <c r="BB13" s="21">
-        <v>19.744674874525003</v>
+        <v>390.11450103250002</v>
       </c>
       <c r="BC13" s="21">
-        <v>21.583401286099999</v>
+        <v>392.14603469475003</v>
       </c>
       <c r="BD13" s="21">
-        <v>23.033334878574998</v>
+        <v>401.37810732474998</v>
       </c>
       <c r="BE13" s="21">
-        <v>21.436118422549995</v>
+        <v>405.41475236374998</v>
       </c>
       <c r="BF13" s="21">
-        <v>21.293039988549999</v>
+        <v>400.45983889524996</v>
       </c>
       <c r="BG13" s="21">
-        <v>21.098154617475004</v>
+        <v>408.68531713300001</v>
       </c>
       <c r="BH13" s="21">
-        <v>22.606196071900001</v>
+        <v>410.36557620150006</v>
       </c>
       <c r="BI13" s="21">
-        <v>19.853344644425</v>
+        <v>416.54057962824999</v>
       </c>
       <c r="BJ13" s="21">
-        <v>19.240889113474999</v>
+        <v>421.64347830324994</v>
       </c>
     </row>
     <row r="14" spans="1:62" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>194</v>
@@ -26349,484 +26518,484 @@
         <v>194</v>
       </c>
       <c r="AZ14" s="21">
-        <v>361.24791548249999</v>
+        <v>835.50703493249989</v>
       </c>
       <c r="BA14" s="21">
-        <v>383.30866338975</v>
+        <v>886.84823478250007</v>
       </c>
       <c r="BB14" s="21">
-        <v>390.11450103250002</v>
+        <v>940.243574255</v>
       </c>
       <c r="BC14" s="21">
-        <v>392.14603469475003</v>
+        <v>980.41006403750009</v>
       </c>
       <c r="BD14" s="21">
-        <v>401.37810732474998</v>
+        <v>1027.5780577949999</v>
       </c>
       <c r="BE14" s="21">
-        <v>405.41475236374998</v>
+        <v>1067.9453793124999</v>
       </c>
       <c r="BF14" s="21">
-        <v>400.45983889524996</v>
+        <v>1103.849871115</v>
       </c>
       <c r="BG14" s="21">
-        <v>408.68531713300001</v>
+        <v>1128.9797782700002</v>
       </c>
       <c r="BH14" s="21">
-        <v>410.36557620150006</v>
+        <v>1161.696227725</v>
       </c>
       <c r="BI14" s="21">
-        <v>416.54057962824999</v>
+        <v>1189.502825995</v>
       </c>
       <c r="BJ14" s="21">
-        <v>421.64347830324994</v>
+        <v>1196.4551326000001</v>
       </c>
     </row>
     <row r="15" spans="1:62" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="I15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="J15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="K15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="L15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="M15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="N15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="O15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="P15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="R15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="S15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="T15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="U15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="V15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="W15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="X15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="Y15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="Z15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AB15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AC15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AD15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AE15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AF15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AG15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AH15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AI15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AJ15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AK15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AL15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AM15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AN15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AO15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AP15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AQ15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AR15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AT15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AU15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AV15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AW15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AX15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AY15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AZ15" s="21">
-        <v>835.50703493249989</v>
-      </c>
-      <c r="BA15" s="21">
-        <v>886.84823478250007</v>
-      </c>
-      <c r="BB15" s="21">
-        <v>940.243574255</v>
-      </c>
-      <c r="BC15" s="21">
-        <v>980.41006403750009</v>
-      </c>
-      <c r="BD15" s="21">
-        <v>1027.5780577949999</v>
-      </c>
-      <c r="BE15" s="21">
-        <v>1067.9453793124999</v>
-      </c>
-      <c r="BF15" s="21">
-        <v>1103.849871115</v>
-      </c>
-      <c r="BG15" s="21">
-        <v>1128.9797782700002</v>
-      </c>
-      <c r="BH15" s="21">
-        <v>1161.696227725</v>
-      </c>
-      <c r="BI15" s="21">
-        <v>1189.502825995</v>
-      </c>
-      <c r="BJ15" s="21">
-        <v>1196.4551326000001</v>
-      </c>
+      <c r="A15" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="19"/>
+      <c r="AE15" s="19"/>
+      <c r="AF15" s="19"/>
+      <c r="AG15" s="19"/>
+      <c r="AH15" s="19"/>
+      <c r="AI15" s="19"/>
+      <c r="AJ15" s="19"/>
+      <c r="AK15" s="19"/>
+      <c r="AL15" s="19"/>
+      <c r="AM15" s="19"/>
+      <c r="AN15" s="19"/>
+      <c r="AO15" s="19"/>
+      <c r="AP15" s="19"/>
+      <c r="AQ15" s="19"/>
+      <c r="AR15" s="19"/>
+      <c r="AS15" s="19"/>
+      <c r="AT15" s="19"/>
+      <c r="AU15" s="19"/>
+      <c r="AV15" s="19"/>
+      <c r="AW15" s="19"/>
+      <c r="AX15" s="19"/>
+      <c r="AY15" s="19"/>
+      <c r="AZ15" s="19"/>
+      <c r="BA15" s="19"/>
+      <c r="BB15" s="19"/>
+      <c r="BC15" s="19"/>
+      <c r="BD15" s="19"/>
+      <c r="BE15" s="19"/>
+      <c r="BF15" s="19"/>
+      <c r="BG15" s="19"/>
+      <c r="BH15" s="19"/>
+      <c r="BI15" s="19"/>
+      <c r="BJ15" s="19"/>
     </row>
     <row r="16" spans="1:62" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="19"/>
-      <c r="Z16" s="19"/>
-      <c r="AA16" s="19"/>
-      <c r="AB16" s="19"/>
-      <c r="AC16" s="19"/>
-      <c r="AD16" s="19"/>
-      <c r="AE16" s="19"/>
-      <c r="AF16" s="19"/>
-      <c r="AG16" s="19"/>
-      <c r="AH16" s="19"/>
-      <c r="AI16" s="19"/>
-      <c r="AJ16" s="19"/>
-      <c r="AK16" s="19"/>
-      <c r="AL16" s="19"/>
-      <c r="AM16" s="19"/>
-      <c r="AN16" s="19"/>
-      <c r="AO16" s="19"/>
-      <c r="AP16" s="19"/>
-      <c r="AQ16" s="19"/>
-      <c r="AR16" s="19"/>
-      <c r="AS16" s="19"/>
-      <c r="AT16" s="19"/>
-      <c r="AU16" s="19"/>
-      <c r="AV16" s="19"/>
-      <c r="AW16" s="19"/>
-      <c r="AX16" s="19"/>
-      <c r="AY16" s="19"/>
-      <c r="AZ16" s="19"/>
-      <c r="BA16" s="19"/>
-      <c r="BB16" s="19"/>
-      <c r="BC16" s="19"/>
-      <c r="BD16" s="19"/>
-      <c r="BE16" s="19"/>
-      <c r="BF16" s="19"/>
-      <c r="BG16" s="19"/>
-      <c r="BH16" s="19"/>
-      <c r="BI16" s="19"/>
-      <c r="BJ16" s="19"/>
+      <c r="A16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B16" s="21">
+        <v>1789.8</v>
+      </c>
+      <c r="C16" s="21">
+        <v>1879.6</v>
+      </c>
+      <c r="D16" s="21">
+        <v>1958.5</v>
+      </c>
+      <c r="E16" s="21">
+        <v>1990.2</v>
+      </c>
+      <c r="F16" s="21">
+        <v>2026.9</v>
+      </c>
+      <c r="G16" s="21">
+        <v>2017.1</v>
+      </c>
+      <c r="H16" s="21">
+        <v>2005.8</v>
+      </c>
+      <c r="I16" s="21">
+        <v>2018.8</v>
+      </c>
+      <c r="J16" s="21">
+        <v>2030.5</v>
+      </c>
+      <c r="K16" s="21">
+        <v>2059.1999999999998</v>
+      </c>
+      <c r="L16" s="21">
+        <v>2075.1999999999998</v>
+      </c>
+      <c r="M16" s="21">
+        <v>2112.4</v>
+      </c>
+      <c r="N16" s="21">
+        <v>2141.1999999999998</v>
+      </c>
+      <c r="O16" s="21">
+        <v>2151.6999999999998</v>
+      </c>
+      <c r="P16" s="21">
+        <v>2142.8000000000002</v>
+      </c>
+      <c r="Q16" s="21">
+        <v>2025.75</v>
+      </c>
+      <c r="R16" s="21">
+        <v>1964</v>
+      </c>
+      <c r="S16" s="21">
+        <v>1962</v>
+      </c>
+      <c r="T16" s="21">
+        <v>1973.5</v>
+      </c>
+      <c r="U16" s="21">
+        <v>1985.25</v>
+      </c>
+      <c r="V16" s="21">
+        <v>2021.1411202939303</v>
+      </c>
+      <c r="W16" s="21">
+        <v>2052.8603243403036</v>
+      </c>
+      <c r="X16" s="21">
+        <v>2058.4929222354594</v>
+      </c>
+      <c r="Y16" s="21">
+        <v>2056.1657630938607</v>
+      </c>
+      <c r="Z16" s="21">
+        <v>2072.5541240982607</v>
+      </c>
+      <c r="AA16" s="21">
+        <v>2115.4216535305895</v>
+      </c>
+      <c r="AB16" s="21">
+        <v>2156.9988873928778</v>
+      </c>
+      <c r="AC16" s="21">
+        <v>2194.4847507893319</v>
+      </c>
+      <c r="AD16" s="21">
+        <v>2233.826831283377</v>
+      </c>
+      <c r="AE16" s="21">
+        <v>2276.01445092224</v>
+      </c>
+      <c r="AF16" s="21">
+        <v>2327.0802422460165</v>
+      </c>
+      <c r="AG16" s="21">
+        <v>2359.9234412916458</v>
+      </c>
+      <c r="AH16" s="21">
+        <v>2308.7662179244226</v>
+      </c>
+      <c r="AI16" s="21">
+        <v>2279.9935628079661</v>
+      </c>
+      <c r="AJ16" s="21">
+        <v>2256.6991941009501</v>
+      </c>
+      <c r="AK16" s="21">
+        <v>2253.6758511097109</v>
+      </c>
+      <c r="AL16" s="21">
+        <v>2236.1963711038543</v>
+      </c>
+      <c r="AM16" s="21">
+        <v>2210.9983581498918</v>
+      </c>
+      <c r="AN16" s="21">
+        <v>2228.4108653709832</v>
+      </c>
+      <c r="AO16" s="21">
+        <v>2244.5368818053521</v>
+      </c>
+      <c r="AP16" s="21">
+        <v>2265.9341787994244</v>
+      </c>
+      <c r="AQ16" s="21">
+        <v>2293.2164607835211</v>
+      </c>
+      <c r="AR16" s="21">
+        <v>2290.1066867176046</v>
+      </c>
+      <c r="AS16" s="21">
+        <v>2276.2360072311603</v>
+      </c>
+      <c r="AT16" s="21">
+        <v>2282.0595222909196</v>
+      </c>
+      <c r="AU16" s="21">
+        <v>2294.1386583459989</v>
+      </c>
+      <c r="AV16" s="21">
+        <v>2343.6897240452226</v>
+      </c>
+      <c r="AW16" s="21">
+        <v>2407.3363077532599</v>
+      </c>
+      <c r="AX16" s="21">
+        <v>2442.8546486303658</v>
+      </c>
+      <c r="AY16" s="21">
+        <v>2441.5781594589503</v>
+      </c>
+      <c r="AZ16" s="21">
+        <v>2468.1042499823748</v>
+      </c>
+      <c r="BA16" s="21">
+        <v>2531.5062499975002</v>
+      </c>
+      <c r="BB16" s="21">
+        <v>2569.7667504350002</v>
+      </c>
+      <c r="BC16" s="21">
+        <v>2593.3199999859999</v>
+      </c>
+      <c r="BD16" s="21">
+        <v>2631.5469999974998</v>
+      </c>
+      <c r="BE16" s="21">
+        <v>2666.4387500550752</v>
+      </c>
+      <c r="BF16" s="21">
+        <v>2694.5599999774995</v>
+      </c>
+      <c r="BG16" s="21">
+        <v>2731.4005000248999</v>
+      </c>
+      <c r="BH16" s="21">
+        <v>2757.2464999899498</v>
+      </c>
+      <c r="BI16" s="21">
+        <v>2769.4922506724997</v>
+      </c>
+      <c r="BJ16" s="21">
+        <v>2758.9732499849997</v>
+      </c>
     </row>
     <row r="17" spans="1:62" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="B17" s="21">
-        <v>1789.8</v>
-      </c>
-      <c r="C17" s="21">
-        <v>1879.6</v>
-      </c>
-      <c r="D17" s="21">
-        <v>1958.5</v>
-      </c>
-      <c r="E17" s="21">
-        <v>1990.2</v>
-      </c>
-      <c r="F17" s="21">
-        <v>2026.9</v>
-      </c>
-      <c r="G17" s="21">
-        <v>2017.1</v>
-      </c>
-      <c r="H17" s="21">
-        <v>2005.8</v>
-      </c>
-      <c r="I17" s="21">
-        <v>2018.8</v>
-      </c>
-      <c r="J17" s="21">
-        <v>2030.5</v>
+      <c r="A17" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>194</v>
       </c>
       <c r="K17" s="21">
-        <v>2059.1999999999998</v>
+        <v>214.7</v>
       </c>
       <c r="L17" s="21">
-        <v>2075.1999999999998</v>
+        <v>207.3</v>
       </c>
       <c r="M17" s="21">
-        <v>2112.4</v>
+        <v>201.8</v>
       </c>
       <c r="N17" s="21">
-        <v>2141.1999999999998</v>
+        <v>194.9</v>
       </c>
       <c r="O17" s="21">
-        <v>2151.6999999999998</v>
+        <v>188.1</v>
       </c>
       <c r="P17" s="21">
-        <v>2142.8000000000002</v>
+        <v>184.5</v>
       </c>
       <c r="Q17" s="21">
-        <v>2025.75</v>
+        <v>177</v>
       </c>
       <c r="R17" s="21">
-        <v>1964</v>
+        <v>174.25</v>
       </c>
       <c r="S17" s="21">
-        <v>1962</v>
+        <v>169.25</v>
       </c>
       <c r="T17" s="21">
-        <v>1973.5</v>
+        <v>165.25</v>
       </c>
       <c r="U17" s="21">
-        <v>1985.25</v>
+        <v>162.75</v>
       </c>
       <c r="V17" s="21">
-        <v>2021.1411202939303</v>
+        <v>159.75</v>
       </c>
       <c r="W17" s="21">
-        <v>2052.8603243403036</v>
+        <v>150.03450000000001</v>
       </c>
       <c r="X17" s="21">
-        <v>2058.4929222354594</v>
+        <v>148.22</v>
       </c>
       <c r="Y17" s="21">
-        <v>2056.1657630938607</v>
+        <v>145.92375000000001</v>
       </c>
       <c r="Z17" s="21">
-        <v>2072.5541240982607</v>
+        <v>142.96324999999999</v>
       </c>
       <c r="AA17" s="21">
-        <v>2115.4216535305895</v>
+        <v>142.80947250159298</v>
       </c>
       <c r="AB17" s="21">
-        <v>2156.9988873928778</v>
+        <v>137.13062642209991</v>
       </c>
       <c r="AC17" s="21">
-        <v>2194.4847507893319</v>
+        <v>129.9421523872808</v>
       </c>
       <c r="AD17" s="21">
-        <v>2233.826831283377</v>
+        <v>122.67059333120679</v>
       </c>
       <c r="AE17" s="21">
-        <v>2276.01445092224</v>
+        <v>115.52927650334112</v>
       </c>
       <c r="AF17" s="21">
-        <v>2327.0802422460165</v>
+        <v>110.68876225479561</v>
       </c>
       <c r="AG17" s="21">
-        <v>2359.9234412916458</v>
+        <v>102.97676195871978</v>
       </c>
       <c r="AH17" s="21">
-        <v>2308.7662179244226</v>
+        <v>101.59681817782689</v>
       </c>
       <c r="AI17" s="21">
-        <v>2279.9935628079661</v>
+        <v>106.34419408603598</v>
       </c>
       <c r="AJ17" s="21">
-        <v>2256.6991941009501</v>
+        <v>104.41807770175413</v>
       </c>
       <c r="AK17" s="21">
-        <v>2253.6758511097109</v>
+        <v>106.72421109219232</v>
       </c>
       <c r="AL17" s="21">
-        <v>2236.1963711038543</v>
+        <v>114.94100956065688</v>
       </c>
       <c r="AM17" s="21">
-        <v>2210.9983581498918</v>
+        <v>114.3291686064409</v>
       </c>
       <c r="AN17" s="21">
-        <v>2228.4108653709832</v>
+        <v>114.23909785609283</v>
       </c>
       <c r="AO17" s="21">
-        <v>2244.5368818053521</v>
+        <v>115.49183942518263</v>
       </c>
       <c r="AP17" s="21">
-        <v>2265.9341787994244</v>
+        <v>107.20714289777749</v>
       </c>
       <c r="AQ17" s="21">
-        <v>2293.2164607835211</v>
+        <v>101.3204083388066</v>
       </c>
       <c r="AR17" s="21">
-        <v>2290.1066867176046</v>
+        <v>102.76300062020971</v>
       </c>
       <c r="AS17" s="21">
-        <v>2276.2360072311603</v>
+        <v>102.25670886126564</v>
       </c>
       <c r="AT17" s="21">
-        <v>2282.0595222909196</v>
+        <v>99.133937099552341</v>
       </c>
       <c r="AU17" s="21">
-        <v>2294.1386583459989</v>
+        <v>100.67467708494891</v>
       </c>
       <c r="AV17" s="21">
-        <v>2343.6897240452226</v>
+        <v>101.55237212591803</v>
       </c>
       <c r="AW17" s="21">
-        <v>2407.3363077532599</v>
+        <v>104.72593733407052</v>
       </c>
       <c r="AX17" s="21">
-        <v>2442.8546486303658</v>
+        <v>104.63395152272413</v>
       </c>
       <c r="AY17" s="21">
-        <v>2441.5781594589503</v>
+        <v>99.604653029495125</v>
       </c>
       <c r="AZ17" s="21">
-        <v>2468.1042499823748</v>
+        <v>102.63624999987501</v>
       </c>
       <c r="BA17" s="21">
-        <v>2531.5062499975002</v>
+        <v>103.068</v>
       </c>
       <c r="BB17" s="21">
-        <v>2569.7667504350002</v>
+        <v>101.441</v>
       </c>
       <c r="BC17" s="21">
-        <v>2593.3199999859999</v>
+        <v>106.45225000100001</v>
       </c>
       <c r="BD17" s="21">
-        <v>2631.5469999974998</v>
+        <v>111.58124999999998</v>
       </c>
       <c r="BE17" s="21">
-        <v>2666.4387500550752</v>
+        <v>103.23950000007501</v>
       </c>
       <c r="BF17" s="21">
-        <v>2694.5599999774995</v>
+        <v>101.426</v>
       </c>
       <c r="BG17" s="21">
-        <v>2731.4005000248999</v>
+        <v>96.484999999899998</v>
       </c>
       <c r="BH17" s="21">
-        <v>2757.2464999899498</v>
+        <v>94.289999999949998</v>
       </c>
       <c r="BI17" s="21">
-        <v>2769.4922506724997</v>
+        <v>86.167000000000002</v>
       </c>
       <c r="BJ17" s="21">
-        <v>2758.9732499849997</v>
+        <v>85.724999999999994</v>
       </c>
     </row>
     <row r="18" spans="1:62" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>194</v>
@@ -26856,165 +27025,165 @@
         <v>194</v>
       </c>
       <c r="K18" s="21">
-        <v>214.7</v>
+        <v>1099.2</v>
       </c>
       <c r="L18" s="21">
-        <v>207.3</v>
+        <v>1101.5999999999999</v>
       </c>
       <c r="M18" s="21">
-        <v>201.8</v>
+        <v>1122.5</v>
       </c>
       <c r="N18" s="21">
-        <v>194.9</v>
+        <v>1134.5999999999999</v>
       </c>
       <c r="O18" s="21">
-        <v>188.1</v>
+        <v>1133.9000000000001</v>
       </c>
       <c r="P18" s="21">
-        <v>184.5</v>
+        <v>1118.7</v>
       </c>
       <c r="Q18" s="21">
-        <v>177</v>
+        <v>983.19500000000005</v>
       </c>
       <c r="R18" s="21">
-        <v>174.25</v>
+        <v>926.29100000000005</v>
       </c>
       <c r="S18" s="21">
-        <v>169.25</v>
+        <v>920.31299999999999</v>
       </c>
       <c r="T18" s="21">
-        <v>165.25</v>
+        <v>920.85699999999997</v>
       </c>
       <c r="U18" s="21">
-        <v>162.75</v>
+        <v>921.15800000000002</v>
       </c>
       <c r="V18" s="21">
-        <v>159.75</v>
+        <v>942.84543710749881</v>
       </c>
       <c r="W18" s="21">
-        <v>150.03450000000001</v>
+        <v>957.35710052542106</v>
       </c>
       <c r="X18" s="21">
-        <v>148.22</v>
+        <v>940.90648560967247</v>
       </c>
       <c r="Y18" s="21">
-        <v>145.92375000000001</v>
+        <v>923.29461339059276</v>
       </c>
       <c r="Z18" s="21">
-        <v>142.96324999999999</v>
+        <v>926.19104770634476</v>
       </c>
       <c r="AA18" s="21">
-        <v>142.80947250159298</v>
+        <v>937.20212686752473</v>
       </c>
       <c r="AB18" s="21">
-        <v>137.13062642209991</v>
+        <v>949.38001883228458</v>
       </c>
       <c r="AC18" s="21">
-        <v>129.9421523872808</v>
+        <v>948.66227907380414</v>
       </c>
       <c r="AD18" s="21">
-        <v>122.67059333120679</v>
+        <v>948.52354922141444</v>
       </c>
       <c r="AE18" s="21">
-        <v>115.52927650334112</v>
+        <v>953.01323540477313</v>
       </c>
       <c r="AF18" s="21">
-        <v>110.68876225479561</v>
+        <v>955.3596151976368</v>
       </c>
       <c r="AG18" s="21">
-        <v>102.97676195871978</v>
+        <v>912.75182641150252</v>
       </c>
       <c r="AH18" s="21">
-        <v>101.59681817782689</v>
+        <v>876.08945621275973</v>
       </c>
       <c r="AI18" s="21">
-        <v>106.34419408603598</v>
+        <v>845.6902968522154</v>
       </c>
       <c r="AJ18" s="21">
-        <v>104.41807770175413</v>
+        <v>826.82692704915826</v>
       </c>
       <c r="AK18" s="21">
-        <v>106.72421109219232</v>
+        <v>817.85962566037824</v>
       </c>
       <c r="AL18" s="21">
-        <v>114.94100956065688</v>
+        <v>789.00888808388106</v>
       </c>
       <c r="AM18" s="21">
-        <v>114.3291686064409</v>
+        <v>763.36243502901016</v>
       </c>
       <c r="AN18" s="21">
-        <v>114.23909785609283</v>
+        <v>754.44697926915887</v>
       </c>
       <c r="AO18" s="21">
-        <v>115.49183942518263</v>
+        <v>744.86847198683779</v>
       </c>
       <c r="AP18" s="21">
-        <v>107.20714289777749</v>
+        <v>746.31115515947045</v>
       </c>
       <c r="AQ18" s="21">
-        <v>101.3204083388066</v>
+        <v>752.73324233454173</v>
       </c>
       <c r="AR18" s="21">
-        <v>102.76300062020971</v>
+        <v>739.19546938944939</v>
       </c>
       <c r="AS18" s="21">
-        <v>102.25670886126564</v>
+        <v>731.68676801181005</v>
       </c>
       <c r="AT18" s="21">
-        <v>99.133937099552341</v>
+        <v>730.11825710759615</v>
       </c>
       <c r="AU18" s="21">
-        <v>100.67467708494891</v>
+        <v>731.73198952082419</v>
       </c>
       <c r="AV18" s="21">
-        <v>101.55237212591803</v>
+        <v>750.96009998061959</v>
       </c>
       <c r="AW18" s="21">
-        <v>104.72593733407052</v>
+        <v>772.9705158147342</v>
       </c>
       <c r="AX18" s="21">
-        <v>104.63395152272413</v>
+        <v>780.38474743877873</v>
       </c>
       <c r="AY18" s="21">
-        <v>99.604653029495125</v>
+        <v>774.60827751672173</v>
       </c>
       <c r="AZ18" s="21">
-        <v>102.63624999987501</v>
+        <v>775.47800000000007</v>
       </c>
       <c r="BA18" s="21">
-        <v>103.068</v>
+        <v>791.70925</v>
       </c>
       <c r="BB18" s="21">
-        <v>101.441</v>
+        <v>796.77350037750011</v>
       </c>
       <c r="BC18" s="21">
-        <v>106.45225000100001</v>
+        <v>791.15525000000002</v>
       </c>
       <c r="BD18" s="21">
-        <v>111.58124999999998</v>
+        <v>799.13824999999997</v>
       </c>
       <c r="BE18" s="21">
-        <v>103.23950000007501</v>
+        <v>806.1372500299999</v>
       </c>
       <c r="BF18" s="21">
-        <v>101.426</v>
+        <v>801.75200000000007</v>
       </c>
       <c r="BG18" s="21">
-        <v>96.484999999899998</v>
+        <v>805.06275000000005</v>
       </c>
       <c r="BH18" s="21">
-        <v>94.289999999949998</v>
+        <v>807.38875000000007</v>
       </c>
       <c r="BI18" s="21">
-        <v>86.167000000000002</v>
+        <v>811.77650060749988</v>
       </c>
       <c r="BJ18" s="21">
-        <v>85.724999999999994</v>
+        <v>807.5809999999999</v>
       </c>
     </row>
     <row r="19" spans="1:62" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B19" s="21" t="s">
         <v>194</v>
@@ -27044,541 +27213,541 @@
         <v>194</v>
       </c>
       <c r="K19" s="21">
-        <v>1099.2</v>
+        <v>745.3</v>
       </c>
       <c r="L19" s="21">
-        <v>1101.5999999999999</v>
+        <v>766.3</v>
       </c>
       <c r="M19" s="21">
-        <v>1122.5</v>
+        <v>788.1</v>
       </c>
       <c r="N19" s="21">
-        <v>1134.5999999999999</v>
+        <v>811.7</v>
       </c>
       <c r="O19" s="21">
-        <v>1133.9000000000001</v>
+        <v>829.7</v>
       </c>
       <c r="P19" s="21">
-        <v>1118.7</v>
+        <v>839.6</v>
       </c>
       <c r="Q19" s="21">
-        <v>983.19500000000005</v>
+        <v>865.55499999999995</v>
       </c>
       <c r="R19" s="21">
-        <v>926.29100000000005</v>
+        <v>863.45899999999995</v>
       </c>
       <c r="S19" s="21">
-        <v>920.31299999999999</v>
+        <v>872.43700000000001</v>
       </c>
       <c r="T19" s="21">
-        <v>920.85699999999997</v>
+        <v>887.39300000000003</v>
       </c>
       <c r="U19" s="21">
-        <v>921.15800000000002</v>
+        <v>901.34199999999998</v>
       </c>
       <c r="V19" s="21">
-        <v>942.84543710749881</v>
+        <v>918.54568318643135</v>
       </c>
       <c r="W19" s="21">
-        <v>957.35710052542106</v>
+        <v>945.46872381488231</v>
       </c>
       <c r="X19" s="21">
-        <v>940.90648560967247</v>
+        <v>969.36643662578717</v>
       </c>
       <c r="Y19" s="21">
-        <v>923.29461339059276</v>
+        <v>986.94739970326816</v>
       </c>
       <c r="Z19" s="21">
-        <v>926.19104770634476</v>
+        <v>1003.3998263919157</v>
       </c>
       <c r="AA19" s="21">
-        <v>937.20212686752473</v>
+        <v>1035.4100541614721</v>
       </c>
       <c r="AB19" s="21">
-        <v>949.38001883228458</v>
+        <v>1070.488242138493</v>
       </c>
       <c r="AC19" s="21">
-        <v>948.66227907380414</v>
+        <v>1115.8803193282467</v>
       </c>
       <c r="AD19" s="21">
-        <v>948.52354922141444</v>
+        <v>1162.6326887307555</v>
       </c>
       <c r="AE19" s="21">
-        <v>953.01323540477313</v>
+        <v>1207.4719390141261</v>
       </c>
       <c r="AF19" s="21">
-        <v>955.3596151976368</v>
+        <v>1261.0318647935842</v>
       </c>
       <c r="AG19" s="21">
-        <v>912.75182641150252</v>
+        <v>1344.1948529214233</v>
       </c>
       <c r="AH19" s="21">
-        <v>876.08945621275973</v>
+        <v>1331.0799435338356</v>
       </c>
       <c r="AI19" s="21">
-        <v>845.6902968522154</v>
+        <v>1327.9590718697143</v>
       </c>
       <c r="AJ19" s="21">
-        <v>826.82692704915826</v>
+        <v>1325.454189350037</v>
       </c>
       <c r="AK19" s="21">
-        <v>817.85962566037824</v>
+        <v>1329.0920143571407</v>
       </c>
       <c r="AL19" s="21">
-        <v>789.00888808388106</v>
+        <v>1332.2464734593157</v>
       </c>
       <c r="AM19" s="21">
-        <v>763.36243502901016</v>
+        <v>1333.3067545144409</v>
       </c>
       <c r="AN19" s="21">
-        <v>754.44697926915887</v>
+        <v>1359.7247882457311</v>
       </c>
       <c r="AO19" s="21">
-        <v>744.86847198683779</v>
+        <v>1384.1765703933315</v>
       </c>
       <c r="AP19" s="21">
-        <v>746.31115515947045</v>
+        <v>1412.4158807421768</v>
       </c>
       <c r="AQ19" s="21">
-        <v>752.73324233454173</v>
+        <v>1439.1628101101724</v>
       </c>
       <c r="AR19" s="21">
-        <v>739.19546938944939</v>
+        <v>1448.1482167079453</v>
       </c>
       <c r="AS19" s="21">
-        <v>731.68676801181005</v>
+        <v>1442.2925303580851</v>
       </c>
       <c r="AT19" s="21">
-        <v>730.11825710759615</v>
+        <v>1452.8073280837716</v>
       </c>
       <c r="AU19" s="21">
-        <v>731.73198952082419</v>
+        <v>1461.731991740226</v>
       </c>
       <c r="AV19" s="21">
-        <v>750.96009998061959</v>
+        <v>1491.177251938685</v>
       </c>
       <c r="AW19" s="21">
-        <v>772.9705158147342</v>
+        <v>1529.6398546044554</v>
       </c>
       <c r="AX19" s="21">
-        <v>780.38474743877873</v>
+        <v>1557.8359496688631</v>
       </c>
       <c r="AY19" s="21">
-        <v>774.60827751672173</v>
+        <v>1567.3652289127333</v>
       </c>
       <c r="AZ19" s="21">
-        <v>775.47800000000007</v>
+        <v>1589.9899999825</v>
       </c>
       <c r="BA19" s="21">
-        <v>791.70925</v>
+        <v>1636.7289999975001</v>
       </c>
       <c r="BB19" s="21">
-        <v>796.77350037750011</v>
+        <v>1671.5522500575</v>
       </c>
       <c r="BC19" s="21">
-        <v>791.15525000000002</v>
+        <v>1695.7124999849998</v>
       </c>
       <c r="BD19" s="21">
-        <v>799.13824999999997</v>
+        <v>1720.8274999974999</v>
       </c>
       <c r="BE19" s="21">
-        <v>806.1372500299999</v>
+        <v>1757.0620000250001</v>
       </c>
       <c r="BF19" s="21">
-        <v>801.75200000000007</v>
+        <v>1791.3819999774998</v>
       </c>
       <c r="BG19" s="21">
-        <v>805.06275000000005</v>
+        <v>1829.8527500250002</v>
       </c>
       <c r="BH19" s="21">
-        <v>807.38875000000007</v>
+        <v>1855.56774999</v>
       </c>
       <c r="BI19" s="21">
-        <v>811.77650060749988</v>
+        <v>1871.5487500650001</v>
       </c>
       <c r="BJ19" s="21">
-        <v>807.5809999999999</v>
+        <v>1865.6672499850001</v>
       </c>
     </row>
     <row r="20" spans="1:62" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="I20" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="J20" s="21" t="s">
-        <v>194</v>
+      <c r="A20" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B20" s="21">
+        <v>1513.2</v>
+      </c>
+      <c r="C20" s="21">
+        <v>1527.1</v>
+      </c>
+      <c r="D20" s="21">
+        <v>1538</v>
+      </c>
+      <c r="E20" s="21">
+        <v>1525.7</v>
+      </c>
+      <c r="F20" s="21">
+        <v>1536.8</v>
+      </c>
+      <c r="G20" s="21">
+        <v>1536.9</v>
+      </c>
+      <c r="H20" s="21">
+        <v>1535.1</v>
+      </c>
+      <c r="I20" s="21">
+        <v>1542.5</v>
+      </c>
+      <c r="J20" s="21">
+        <v>1546.6</v>
       </c>
       <c r="K20" s="21">
-        <v>745.3</v>
+        <v>1557</v>
       </c>
       <c r="L20" s="21">
-        <v>766.3</v>
+        <v>1553.8</v>
       </c>
       <c r="M20" s="21">
-        <v>788.1</v>
+        <v>1571.7</v>
       </c>
       <c r="N20" s="21">
-        <v>811.7</v>
+        <v>1581.3</v>
       </c>
       <c r="O20" s="21">
-        <v>829.7</v>
+        <v>1586.6</v>
       </c>
       <c r="P20" s="21">
-        <v>839.6</v>
+        <v>1602.9</v>
       </c>
       <c r="Q20" s="21">
-        <v>865.55499999999995</v>
+        <v>1558.0809999999999</v>
       </c>
       <c r="R20" s="21">
-        <v>863.45899999999995</v>
+        <v>1546.4880000000001</v>
       </c>
       <c r="S20" s="21">
-        <v>872.43700000000001</v>
+        <v>1554.787</v>
       </c>
       <c r="T20" s="21">
-        <v>887.39300000000003</v>
+        <v>1559.712</v>
       </c>
       <c r="U20" s="21">
-        <v>901.34199999999998</v>
+        <v>1561.0229999999999</v>
       </c>
       <c r="V20" s="21">
-        <v>918.54568318643135</v>
+        <v>1581.4511202939302</v>
       </c>
       <c r="W20" s="21">
-        <v>945.46872381488231</v>
+        <v>1591.8013243403034</v>
       </c>
       <c r="X20" s="21">
-        <v>969.36643662578717</v>
+        <v>1588.2949222354596</v>
       </c>
       <c r="Y20" s="21">
-        <v>986.94739970326816</v>
+        <v>1596.4507630938608</v>
       </c>
       <c r="Z20" s="21">
-        <v>1003.3998263919157</v>
+        <v>1606.2641240982605</v>
       </c>
       <c r="AA20" s="21">
-        <v>1035.4100541614721</v>
+        <v>1638.0136535305896</v>
       </c>
       <c r="AB20" s="21">
-        <v>1070.488242138493</v>
+        <v>1659.6785928852007</v>
       </c>
       <c r="AC20" s="21">
-        <v>1115.8803193282467</v>
+        <v>1668.8371986387315</v>
       </c>
       <c r="AD20" s="21">
-        <v>1162.6326887307555</v>
+        <v>1682.108573432296</v>
       </c>
       <c r="AE20" s="21">
-        <v>1207.4719390141261</v>
+        <v>1688.4300145462894</v>
       </c>
       <c r="AF20" s="21">
-        <v>1261.0318647935842</v>
+        <v>1692.687571166688</v>
       </c>
       <c r="AG20" s="21">
-        <v>1344.1948529214233</v>
+        <v>1682.3467222804948</v>
       </c>
       <c r="AH20" s="21">
-        <v>1331.0799435338356</v>
+        <v>1659.4330143610775</v>
       </c>
       <c r="AI20" s="21">
-        <v>1327.9590718697143</v>
+        <v>1653.808676502078</v>
       </c>
       <c r="AJ20" s="21">
-        <v>1325.454189350037</v>
+        <v>1644.6609905503965</v>
       </c>
       <c r="AK20" s="21">
-        <v>1329.0920143571407</v>
+        <v>1640.0780972892821</v>
       </c>
       <c r="AL20" s="21">
-        <v>1332.2464734593157</v>
+        <v>1644.7819211915237</v>
       </c>
       <c r="AM20" s="21">
-        <v>1333.3067545144409</v>
+        <v>1645.6060840309287</v>
       </c>
       <c r="AN20" s="21">
-        <v>1359.7247882457311</v>
+        <v>1656.9860417639034</v>
       </c>
       <c r="AO20" s="21">
-        <v>1384.1765703933315</v>
+        <v>1671.5902732440622</v>
       </c>
       <c r="AP20" s="21">
-        <v>1412.4158807421768</v>
+        <v>1672.2536238240957</v>
       </c>
       <c r="AQ20" s="21">
-        <v>1439.1628101101724</v>
+        <v>1669.4113350279358</v>
       </c>
       <c r="AR20" s="21">
-        <v>1448.1482167079453</v>
+        <v>1670.2247883651423</v>
       </c>
       <c r="AS20" s="21">
-        <v>1442.2925303580851</v>
+        <v>1657.6642029888794</v>
       </c>
       <c r="AT20" s="21">
-        <v>1452.8073280837716</v>
+        <v>1657.4399514112347</v>
       </c>
       <c r="AU20" s="21">
-        <v>1461.731991740226</v>
+        <v>1658.7805696074317</v>
       </c>
       <c r="AV20" s="21">
-        <v>1491.177251938685</v>
+        <v>1684.3079964462427</v>
       </c>
       <c r="AW20" s="21">
-        <v>1529.6398546044554</v>
+        <v>1716.442226053942</v>
       </c>
       <c r="AX20" s="21">
-        <v>1557.8359496688631</v>
+        <v>1726.9215996820465</v>
       </c>
       <c r="AY20" s="21">
-        <v>1567.3652289127333</v>
+        <v>1710.4636813205593</v>
       </c>
       <c r="AZ20" s="21">
-        <v>1589.9899999825</v>
+        <v>1726.3894999797499</v>
       </c>
       <c r="BA20" s="21">
-        <v>1636.7289999975001</v>
+        <v>1746.172999997</v>
       </c>
       <c r="BB20" s="21">
-        <v>1671.5522500575</v>
+        <v>1755.176000274</v>
       </c>
       <c r="BC20" s="21">
-        <v>1695.7124999849998</v>
+        <v>1751.8632499857499</v>
       </c>
       <c r="BD20" s="21">
-        <v>1720.8274999974999</v>
+        <v>1755.0352499994999</v>
       </c>
       <c r="BE20" s="21">
-        <v>1757.0620000250001</v>
+        <v>1767.67800004175</v>
       </c>
       <c r="BF20" s="21">
-        <v>1791.3819999774998</v>
+        <v>1786.1634999780001</v>
       </c>
       <c r="BG20" s="21">
-        <v>1829.8527500250002</v>
+        <v>1790.3665000225001</v>
       </c>
       <c r="BH20" s="21">
-        <v>1855.56774999</v>
+        <v>1801.0067499935001</v>
       </c>
       <c r="BI20" s="21">
-        <v>1871.5487500650001</v>
+        <v>1798.9470004162501</v>
       </c>
       <c r="BJ20" s="21">
-        <v>1865.6672499850001</v>
+        <v>1780.9052499852501</v>
       </c>
     </row>
     <row r="21" spans="1:62" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="B21" s="21">
-        <v>1513.2</v>
-      </c>
-      <c r="C21" s="21">
-        <v>1527.1</v>
-      </c>
-      <c r="D21" s="21">
-        <v>1538</v>
-      </c>
-      <c r="E21" s="21">
-        <v>1525.7</v>
-      </c>
-      <c r="F21" s="21">
-        <v>1536.8</v>
-      </c>
-      <c r="G21" s="21">
-        <v>1536.9</v>
-      </c>
-      <c r="H21" s="21">
-        <v>1535.1</v>
-      </c>
-      <c r="I21" s="21">
-        <v>1542.5</v>
-      </c>
-      <c r="J21" s="21">
-        <v>1546.6</v>
-      </c>
-      <c r="K21" s="21">
-        <v>1557</v>
-      </c>
-      <c r="L21" s="21">
-        <v>1553.8</v>
-      </c>
-      <c r="M21" s="21">
-        <v>1571.7</v>
-      </c>
-      <c r="N21" s="21">
-        <v>1581.3</v>
-      </c>
-      <c r="O21" s="21">
-        <v>1586.6</v>
-      </c>
-      <c r="P21" s="21">
-        <v>1602.9</v>
-      </c>
-      <c r="Q21" s="21">
-        <v>1558.0809999999999</v>
-      </c>
-      <c r="R21" s="21">
-        <v>1546.4880000000001</v>
-      </c>
-      <c r="S21" s="21">
-        <v>1554.787</v>
-      </c>
-      <c r="T21" s="21">
-        <v>1559.712</v>
-      </c>
-      <c r="U21" s="21">
-        <v>1561.0229999999999</v>
-      </c>
-      <c r="V21" s="21">
-        <v>1581.4511202939302</v>
-      </c>
-      <c r="W21" s="21">
-        <v>1591.8013243403034</v>
-      </c>
-      <c r="X21" s="21">
-        <v>1588.2949222354596</v>
-      </c>
-      <c r="Y21" s="21">
-        <v>1596.4507630938608</v>
-      </c>
-      <c r="Z21" s="21">
-        <v>1606.2641240982605</v>
-      </c>
-      <c r="AA21" s="21">
-        <v>1638.0136535305896</v>
-      </c>
-      <c r="AB21" s="21">
-        <v>1659.6785928852007</v>
-      </c>
-      <c r="AC21" s="21">
-        <v>1668.8371986387315</v>
-      </c>
-      <c r="AD21" s="21">
-        <v>1682.108573432296</v>
-      </c>
-      <c r="AE21" s="21">
-        <v>1688.4300145462894</v>
-      </c>
-      <c r="AF21" s="21">
-        <v>1692.687571166688</v>
-      </c>
-      <c r="AG21" s="21">
-        <v>1682.3467222804948</v>
-      </c>
-      <c r="AH21" s="21">
-        <v>1659.4330143610775</v>
-      </c>
-      <c r="AI21" s="21">
-        <v>1653.808676502078</v>
-      </c>
-      <c r="AJ21" s="21">
-        <v>1644.6609905503965</v>
-      </c>
-      <c r="AK21" s="21">
-        <v>1640.0780972892821</v>
-      </c>
-      <c r="AL21" s="21">
-        <v>1644.7819211915237</v>
-      </c>
-      <c r="AM21" s="21">
-        <v>1645.6060840309287</v>
-      </c>
-      <c r="AN21" s="21">
-        <v>1656.9860417639034</v>
-      </c>
-      <c r="AO21" s="21">
-        <v>1671.5902732440622</v>
-      </c>
-      <c r="AP21" s="21">
-        <v>1672.2536238240957</v>
-      </c>
-      <c r="AQ21" s="21">
-        <v>1669.4113350279358</v>
-      </c>
-      <c r="AR21" s="21">
-        <v>1670.2247883651423</v>
-      </c>
-      <c r="AS21" s="21">
-        <v>1657.6642029888794</v>
-      </c>
-      <c r="AT21" s="21">
-        <v>1657.4399514112347</v>
-      </c>
-      <c r="AU21" s="21">
-        <v>1658.7805696074317</v>
-      </c>
-      <c r="AV21" s="21">
-        <v>1684.3079964462427</v>
-      </c>
-      <c r="AW21" s="21">
-        <v>1716.442226053942</v>
-      </c>
-      <c r="AX21" s="21">
-        <v>1726.9215996820465</v>
-      </c>
-      <c r="AY21" s="21">
-        <v>1710.4636813205593</v>
+      <c r="A21" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="K21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="L21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="M21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="N21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="O21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="P21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="R21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="S21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="T21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="U21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="V21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="W21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="X21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AK21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AL21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AM21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AN21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AO21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AP21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AQ21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AR21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AT21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AU21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AV21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AW21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AY21" s="21" t="s">
+        <v>194</v>
       </c>
       <c r="AZ21" s="21">
-        <v>1726.3894999797499</v>
+        <v>90.827631972250003</v>
       </c>
       <c r="BA21" s="21">
-        <v>1746.172999997</v>
+        <v>90.177721302000009</v>
       </c>
       <c r="BB21" s="21">
-        <v>1755.176000274</v>
+        <v>88.328131866499987</v>
       </c>
       <c r="BC21" s="21">
-        <v>1751.8632499857499</v>
+        <v>91.316281230750008</v>
       </c>
       <c r="BD21" s="21">
-        <v>1755.0352499994999</v>
+        <v>96.025254374500008</v>
       </c>
       <c r="BE21" s="21">
-        <v>1767.67800004175</v>
+        <v>89.457329909250006</v>
       </c>
       <c r="BF21" s="21">
-        <v>1786.1634999780001</v>
+        <v>87.748636622999996</v>
       </c>
       <c r="BG21" s="21">
-        <v>1790.3665000225001</v>
+        <v>83.612032462499997</v>
       </c>
       <c r="BH21" s="21">
-        <v>1801.0067499935001</v>
+        <v>80.53221235849999</v>
       </c>
       <c r="BI21" s="21">
-        <v>1798.9470004162501</v>
+        <v>71.721693348749994</v>
       </c>
       <c r="BJ21" s="21">
-        <v>1780.9052499852501</v>
+        <v>72.155695310249996</v>
       </c>
     </row>
     <row r="22" spans="1:62" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>194</v>
@@ -27731,42 +27900,42 @@
         <v>194</v>
       </c>
       <c r="AZ22" s="21">
-        <v>90.827631972250003</v>
+        <v>491.17185933250005</v>
       </c>
       <c r="BA22" s="21">
-        <v>90.177721302000009</v>
+        <v>490.73431122000005</v>
       </c>
       <c r="BB22" s="21">
-        <v>88.328131866499987</v>
+        <v>490.34400980750002</v>
       </c>
       <c r="BC22" s="21">
-        <v>91.316281230750008</v>
+        <v>482.28210158000002</v>
       </c>
       <c r="BD22" s="21">
-        <v>96.025254374500008</v>
+        <v>484.79261480000002</v>
       </c>
       <c r="BE22" s="21">
-        <v>89.457329909250006</v>
+        <v>489.23684808250005</v>
       </c>
       <c r="BF22" s="21">
-        <v>87.748636622999996</v>
+        <v>488.31548100499998</v>
       </c>
       <c r="BG22" s="21">
-        <v>83.612032462499997</v>
+        <v>482.21894178499997</v>
       </c>
       <c r="BH22" s="21">
-        <v>80.53221235849999</v>
+        <v>482.06680123499996</v>
       </c>
       <c r="BI22" s="21">
-        <v>71.721693348749994</v>
+        <v>486.21885011749998</v>
       </c>
       <c r="BJ22" s="21">
-        <v>72.155695310249996</v>
+        <v>480.72226127499994</v>
       </c>
     </row>
     <row r="23" spans="1:62" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B23" s="21" t="s">
         <v>194</v>
@@ -27919,418 +28088,418 @@
         <v>194</v>
       </c>
       <c r="AZ23" s="21">
-        <v>491.17185933250005</v>
+        <v>1144.390008675</v>
       </c>
       <c r="BA23" s="21">
-        <v>490.73431122000005</v>
+        <v>1165.2609674749999</v>
       </c>
       <c r="BB23" s="21">
-        <v>490.34400980750002</v>
+        <v>1176.5038586000001</v>
       </c>
       <c r="BC23" s="21">
-        <v>482.28210158000002</v>
+        <v>1178.2648671749998</v>
       </c>
       <c r="BD23" s="21">
-        <v>484.79261480000002</v>
+        <v>1174.217380825</v>
       </c>
       <c r="BE23" s="21">
-        <v>489.23684808250005</v>
+        <v>1188.9838220500001</v>
       </c>
       <c r="BF23" s="21">
-        <v>488.31548100499998</v>
+        <v>1210.0993823499998</v>
       </c>
       <c r="BG23" s="21">
-        <v>482.21894178499997</v>
+        <v>1224.535525775</v>
       </c>
       <c r="BH23" s="21">
-        <v>482.06680123499996</v>
+        <v>1238.4077364</v>
       </c>
       <c r="BI23" s="21">
-        <v>486.21885011749998</v>
+        <v>1241.00645695</v>
       </c>
       <c r="BJ23" s="21">
-        <v>480.72226127499994</v>
+        <v>1228.0272934</v>
       </c>
     </row>
     <row r="24" spans="1:62" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="I24" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="J24" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="K24" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="L24" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="M24" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="N24" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="O24" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="P24" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q24" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="R24" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="S24" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="T24" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="U24" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="V24" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="W24" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="X24" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="Y24" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="Z24" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA24" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AB24" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AC24" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AD24" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AE24" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AF24" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AG24" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AH24" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AI24" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AJ24" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AK24" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AL24" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AM24" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AN24" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AO24" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AP24" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AQ24" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AR24" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS24" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AT24" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AU24" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AV24" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AW24" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AX24" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AY24" s="21" t="s">
-        <v>194</v>
+      <c r="A24" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B24" s="21">
+        <v>276.60000000000002</v>
+      </c>
+      <c r="C24" s="21">
+        <v>352.5</v>
+      </c>
+      <c r="D24" s="21">
+        <v>420.5</v>
+      </c>
+      <c r="E24" s="21">
+        <v>464.5</v>
+      </c>
+      <c r="F24" s="21">
+        <v>490.1</v>
+      </c>
+      <c r="G24" s="21">
+        <v>480.2</v>
+      </c>
+      <c r="H24" s="21">
+        <v>470.7</v>
+      </c>
+      <c r="I24" s="21">
+        <v>476.3</v>
+      </c>
+      <c r="J24" s="21">
+        <v>483.9</v>
+      </c>
+      <c r="K24" s="21">
+        <v>502.2</v>
+      </c>
+      <c r="L24" s="21">
+        <v>521.4</v>
+      </c>
+      <c r="M24" s="21">
+        <v>540.70000000000005</v>
+      </c>
+      <c r="N24" s="21">
+        <v>559.9</v>
+      </c>
+      <c r="O24" s="21">
+        <v>565.1</v>
+      </c>
+      <c r="P24" s="21">
+        <v>539.9</v>
+      </c>
+      <c r="Q24" s="21">
+        <v>467.66899999999998</v>
+      </c>
+      <c r="R24" s="21">
+        <v>417.512</v>
+      </c>
+      <c r="S24" s="21">
+        <v>407.21300000000002</v>
+      </c>
+      <c r="T24" s="21">
+        <v>413.78800000000001</v>
+      </c>
+      <c r="U24" s="21">
+        <v>424.22699999999998</v>
+      </c>
+      <c r="V24" s="21">
+        <v>439.69</v>
+      </c>
+      <c r="W24" s="21">
+        <v>461.05900000000003</v>
+      </c>
+      <c r="X24" s="21">
+        <v>470.19799999999998</v>
+      </c>
+      <c r="Y24" s="21">
+        <v>459.71499999999997</v>
+      </c>
+      <c r="Z24" s="21">
+        <v>466.29</v>
+      </c>
+      <c r="AA24" s="21">
+        <v>477.40800000000002</v>
+      </c>
+      <c r="AB24" s="21">
+        <v>497.32029450767715</v>
+      </c>
+      <c r="AC24" s="21">
+        <v>525.6475521506004</v>
+      </c>
+      <c r="AD24" s="21">
+        <v>551.71825785108115</v>
+      </c>
+      <c r="AE24" s="21">
+        <v>587.58443637595053</v>
+      </c>
+      <c r="AF24" s="21">
+        <v>634.39267107932835</v>
+      </c>
+      <c r="AG24" s="21">
+        <v>677.57671901115089</v>
+      </c>
+      <c r="AH24" s="21">
+        <v>649.33320356334502</v>
+      </c>
+      <c r="AI24" s="21">
+        <v>626.18488630588809</v>
+      </c>
+      <c r="AJ24" s="21">
+        <v>612.03820355055359</v>
+      </c>
+      <c r="AK24" s="21">
+        <v>613.59775382042881</v>
+      </c>
+      <c r="AL24" s="21">
+        <v>591.41444991233061</v>
+      </c>
+      <c r="AM24" s="21">
+        <v>565.39227411896309</v>
+      </c>
+      <c r="AN24" s="21">
+        <v>571.42482360707993</v>
+      </c>
+      <c r="AO24" s="21">
+        <v>572.94660856128974</v>
+      </c>
+      <c r="AP24" s="21">
+        <v>593.68055497532873</v>
+      </c>
+      <c r="AQ24" s="21">
+        <v>623.80512575558544</v>
+      </c>
+      <c r="AR24" s="21">
+        <v>619.88189835246226</v>
+      </c>
+      <c r="AS24" s="21">
+        <v>618.5718042422809</v>
+      </c>
+      <c r="AT24" s="21">
+        <v>624.61957087968506</v>
+      </c>
+      <c r="AU24" s="21">
+        <v>635.35808873856718</v>
+      </c>
+      <c r="AV24" s="21">
+        <v>659.38172759897998</v>
+      </c>
+      <c r="AW24" s="21">
+        <v>690.89408169931789</v>
+      </c>
+      <c r="AX24" s="21">
+        <v>715.93304894831931</v>
+      </c>
+      <c r="AY24" s="21">
+        <v>731.11447813839084</v>
       </c>
       <c r="AZ24" s="21">
-        <v>1144.390008675</v>
+        <v>741.71475000262501</v>
       </c>
       <c r="BA24" s="21">
-        <v>1165.2609674749999</v>
+        <v>785.33325000050002</v>
       </c>
       <c r="BB24" s="21">
-        <v>1176.5038586000001</v>
+        <v>814.59075016099996</v>
       </c>
       <c r="BC24" s="21">
-        <v>1178.2648671749998</v>
+        <v>841.45675000024994</v>
       </c>
       <c r="BD24" s="21">
-        <v>1174.217380825</v>
+        <v>876.51174999799991</v>
       </c>
       <c r="BE24" s="21">
-        <v>1188.9838220500001</v>
+        <v>898.76075001332515</v>
       </c>
       <c r="BF24" s="21">
-        <v>1210.0993823499998</v>
+        <v>908.39649999949995</v>
       </c>
       <c r="BG24" s="21">
-        <v>1224.535525775</v>
+        <v>941.03400000240003</v>
       </c>
       <c r="BH24" s="21">
-        <v>1238.4077364</v>
+        <v>956.23974999644997</v>
       </c>
       <c r="BI24" s="21">
-        <v>1241.00645695</v>
+        <v>970.54525025625003</v>
       </c>
       <c r="BJ24" s="21">
-        <v>1228.0272934</v>
+        <v>978.06799999974999</v>
       </c>
     </row>
     <row r="25" spans="1:62" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="B25" s="21">
-        <v>276.60000000000002</v>
-      </c>
-      <c r="C25" s="21">
-        <v>352.5</v>
-      </c>
-      <c r="D25" s="21">
-        <v>420.5</v>
-      </c>
-      <c r="E25" s="21">
-        <v>464.5</v>
-      </c>
-      <c r="F25" s="21">
-        <v>490.1</v>
-      </c>
-      <c r="G25" s="21">
-        <v>480.2</v>
-      </c>
-      <c r="H25" s="21">
-        <v>470.7</v>
-      </c>
-      <c r="I25" s="21">
-        <v>476.3</v>
-      </c>
-      <c r="J25" s="21">
-        <v>483.9</v>
-      </c>
-      <c r="K25" s="21">
-        <v>502.2</v>
-      </c>
-      <c r="L25" s="21">
-        <v>521.4</v>
-      </c>
-      <c r="M25" s="21">
-        <v>540.70000000000005</v>
-      </c>
-      <c r="N25" s="21">
-        <v>559.9</v>
-      </c>
-      <c r="O25" s="21">
-        <v>565.1</v>
-      </c>
-      <c r="P25" s="21">
-        <v>539.9</v>
-      </c>
-      <c r="Q25" s="21">
-        <v>467.66899999999998</v>
-      </c>
-      <c r="R25" s="21">
-        <v>417.512</v>
-      </c>
-      <c r="S25" s="21">
-        <v>407.21300000000002</v>
-      </c>
-      <c r="T25" s="21">
-        <v>413.78800000000001</v>
-      </c>
-      <c r="U25" s="21">
-        <v>424.22699999999998</v>
-      </c>
-      <c r="V25" s="21">
-        <v>439.69</v>
-      </c>
-      <c r="W25" s="21">
-        <v>461.05900000000003</v>
-      </c>
-      <c r="X25" s="21">
-        <v>470.19799999999998</v>
-      </c>
-      <c r="Y25" s="21">
-        <v>459.71499999999997</v>
-      </c>
-      <c r="Z25" s="21">
-        <v>466.29</v>
-      </c>
-      <c r="AA25" s="21">
-        <v>477.40800000000002</v>
-      </c>
-      <c r="AB25" s="21">
-        <v>497.32029450767715</v>
-      </c>
-      <c r="AC25" s="21">
-        <v>525.6475521506004</v>
-      </c>
-      <c r="AD25" s="21">
-        <v>551.71825785108115</v>
-      </c>
-      <c r="AE25" s="21">
-        <v>587.58443637595053</v>
-      </c>
-      <c r="AF25" s="21">
-        <v>634.39267107932835</v>
-      </c>
-      <c r="AG25" s="21">
-        <v>677.57671901115089</v>
-      </c>
-      <c r="AH25" s="21">
-        <v>649.33320356334502</v>
-      </c>
-      <c r="AI25" s="21">
-        <v>626.18488630588809</v>
-      </c>
-      <c r="AJ25" s="21">
-        <v>612.03820355055359</v>
-      </c>
-      <c r="AK25" s="21">
-        <v>613.59775382042881</v>
-      </c>
-      <c r="AL25" s="21">
-        <v>591.41444991233061</v>
-      </c>
-      <c r="AM25" s="21">
-        <v>565.39227411896309</v>
-      </c>
-      <c r="AN25" s="21">
-        <v>571.42482360707993</v>
-      </c>
-      <c r="AO25" s="21">
-        <v>572.94660856128974</v>
-      </c>
-      <c r="AP25" s="21">
-        <v>593.68055497532873</v>
-      </c>
-      <c r="AQ25" s="21">
-        <v>623.80512575558544</v>
-      </c>
-      <c r="AR25" s="21">
-        <v>619.88189835246226</v>
-      </c>
-      <c r="AS25" s="21">
-        <v>618.5718042422809</v>
-      </c>
-      <c r="AT25" s="21">
-        <v>624.61957087968506</v>
-      </c>
-      <c r="AU25" s="21">
-        <v>635.35808873856718</v>
-      </c>
-      <c r="AV25" s="21">
-        <v>659.38172759897998</v>
-      </c>
-      <c r="AW25" s="21">
-        <v>690.89408169931789</v>
-      </c>
-      <c r="AX25" s="21">
-        <v>715.93304894831931</v>
-      </c>
-      <c r="AY25" s="21">
-        <v>731.11447813839084</v>
-      </c>
-      <c r="AZ25" s="21">
-        <v>741.71475000262501</v>
-      </c>
-      <c r="BA25" s="21">
-        <v>785.33325000050002</v>
-      </c>
-      <c r="BB25" s="21">
-        <v>814.59075016099996</v>
-      </c>
-      <c r="BC25" s="21">
-        <v>841.45675000024994</v>
-      </c>
-      <c r="BD25" s="21">
-        <v>876.51174999799991</v>
-      </c>
-      <c r="BE25" s="21">
-        <v>898.76075001332515</v>
-      </c>
-      <c r="BF25" s="21">
-        <v>908.39649999949995</v>
-      </c>
-      <c r="BG25" s="21">
-        <v>941.03400000240003</v>
-      </c>
-      <c r="BH25" s="21">
-        <v>956.23974999644997</v>
-      </c>
-      <c r="BI25" s="21">
-        <v>970.54525025625003</v>
-      </c>
-      <c r="BJ25" s="21">
-        <v>978.06799999974999</v>
+      <c r="A25" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="L25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="M25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="N25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="O25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="P25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="R25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="S25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="T25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="U25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="V25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="W25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="X25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AK25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AL25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AM25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AN25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AO25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AP25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AQ25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AR25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AT25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AU25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AV25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AW25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AY25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AZ25" s="13">
+        <v>11.808618027625</v>
+      </c>
+      <c r="BA25" s="13">
+        <v>12.890278697999999</v>
+      </c>
+      <c r="BB25" s="13">
+        <v>13.112868133499999</v>
+      </c>
+      <c r="BC25" s="13">
+        <v>15.135968770249999</v>
+      </c>
+      <c r="BD25" s="13">
+        <v>15.555995625500001</v>
+      </c>
+      <c r="BE25" s="13">
+        <v>13.782170090825</v>
+      </c>
+      <c r="BF25" s="13">
+        <v>13.677363376999999</v>
+      </c>
+      <c r="BG25" s="13">
+        <v>12.872967537400001</v>
+      </c>
+      <c r="BH25" s="13">
+        <v>13.757787641449999</v>
+      </c>
+      <c r="BI25" s="13">
+        <v>14.44530665125</v>
+      </c>
+      <c r="BJ25" s="13">
+        <v>13.56930468975</v>
       </c>
     </row>
     <row r="26" spans="1:62" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B26" s="21" t="s">
         <v>194</v>
@@ -28482,43 +28651,43 @@
       <c r="AY26" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="AZ26" s="13">
-        <v>11.808618027625</v>
-      </c>
-      <c r="BA26" s="13">
-        <v>12.890278697999999</v>
-      </c>
-      <c r="BB26" s="13">
-        <v>13.112868133499999</v>
-      </c>
-      <c r="BC26" s="13">
-        <v>15.135968770249999</v>
-      </c>
-      <c r="BD26" s="13">
-        <v>15.555995625500001</v>
-      </c>
-      <c r="BE26" s="13">
-        <v>13.782170090825</v>
-      </c>
-      <c r="BF26" s="13">
-        <v>13.677363376999999</v>
-      </c>
-      <c r="BG26" s="13">
-        <v>12.872967537400001</v>
-      </c>
-      <c r="BH26" s="13">
-        <v>13.757787641449999</v>
-      </c>
-      <c r="BI26" s="13">
-        <v>14.44530665125</v>
-      </c>
-      <c r="BJ26" s="13">
-        <v>13.56930468975</v>
+      <c r="AZ26" s="21">
+        <v>284.30614066750002</v>
+      </c>
+      <c r="BA26" s="21">
+        <v>300.97493878</v>
+      </c>
+      <c r="BB26" s="21">
+        <v>306.42949056999998</v>
+      </c>
+      <c r="BC26" s="21">
+        <v>308.87314842000001</v>
+      </c>
+      <c r="BD26" s="21">
+        <v>314.34563519999995</v>
+      </c>
+      <c r="BE26" s="21">
+        <v>316.90040194749997</v>
+      </c>
+      <c r="BF26" s="21">
+        <v>313.43651899500003</v>
+      </c>
+      <c r="BG26" s="21">
+        <v>322.84380821499997</v>
+      </c>
+      <c r="BH26" s="21">
+        <v>325.321948765</v>
+      </c>
+      <c r="BI26" s="21">
+        <v>325.55765049000001</v>
+      </c>
+      <c r="BJ26" s="21">
+        <v>326.85873872499997</v>
       </c>
     </row>
     <row r="27" spans="1:62" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B27" s="21" t="s">
         <v>194</v>
@@ -28671,418 +28840,418 @@
         <v>194</v>
       </c>
       <c r="AZ27" s="21">
-        <v>284.30614066750002</v>
+        <v>445.59999130749998</v>
       </c>
       <c r="BA27" s="21">
-        <v>300.97493878</v>
+        <v>471.46803252249998</v>
       </c>
       <c r="BB27" s="21">
-        <v>306.42949056999998</v>
+        <v>495.04839145749997</v>
       </c>
       <c r="BC27" s="21">
-        <v>308.87314842000001</v>
+        <v>517.44763280999996</v>
       </c>
       <c r="BD27" s="21">
-        <v>314.34563519999995</v>
+        <v>546.61011917249994</v>
       </c>
       <c r="BE27" s="21">
-        <v>316.90040194749997</v>
+        <v>568.07817797500002</v>
       </c>
       <c r="BF27" s="21">
-        <v>313.43651899500003</v>
+        <v>581.28261762750003</v>
       </c>
       <c r="BG27" s="21">
-        <v>322.84380821499997</v>
+        <v>605.31722424999998</v>
       </c>
       <c r="BH27" s="21">
-        <v>325.321948765</v>
+        <v>617.16001358999995</v>
       </c>
       <c r="BI27" s="21">
-        <v>325.55765049000001</v>
+        <v>630.54229311500001</v>
       </c>
       <c r="BJ27" s="21">
-        <v>326.85873872499997</v>
+        <v>637.63995658499994</v>
       </c>
     </row>
     <row r="28" spans="1:62" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="I28" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="J28" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="K28" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="L28" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="M28" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="N28" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="O28" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="P28" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q28" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="R28" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="S28" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="T28" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="U28" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="V28" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="W28" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="X28" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="Y28" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="Z28" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA28" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AB28" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AC28" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AD28" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AE28" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AF28" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AG28" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AH28" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AI28" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AJ28" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AK28" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AL28" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AM28" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AN28" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AO28" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AP28" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AQ28" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AR28" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS28" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AT28" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AU28" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AV28" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AW28" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AX28" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AY28" s="21" t="s">
-        <v>194</v>
+      <c r="A28" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B28" s="21">
+        <v>927.3</v>
+      </c>
+      <c r="C28" s="21">
+        <v>964.5</v>
+      </c>
+      <c r="D28" s="21">
+        <v>995.2</v>
+      </c>
+      <c r="E28" s="21">
+        <v>1008.9</v>
+      </c>
+      <c r="F28" s="21">
+        <v>1019.1</v>
+      </c>
+      <c r="G28" s="21">
+        <v>1008.2</v>
+      </c>
+      <c r="H28" s="21">
+        <v>1007.9</v>
+      </c>
+      <c r="I28" s="21">
+        <v>1010.9</v>
+      </c>
+      <c r="J28" s="21">
+        <v>1017.5</v>
+      </c>
+      <c r="K28" s="21">
+        <v>1039.2</v>
+      </c>
+      <c r="L28" s="21">
+        <v>1067.3</v>
+      </c>
+      <c r="M28" s="21">
+        <v>1086.2</v>
+      </c>
+      <c r="N28" s="21">
+        <v>1101.5999999999999</v>
+      </c>
+      <c r="O28" s="21">
+        <v>1124.8</v>
+      </c>
+      <c r="P28" s="21">
+        <v>1130.5999999999999</v>
+      </c>
+      <c r="Q28" s="21">
+        <v>1082</v>
+      </c>
+      <c r="R28" s="21">
+        <v>1054.75</v>
+      </c>
+      <c r="S28" s="21">
+        <v>1069.75</v>
+      </c>
+      <c r="T28" s="21">
+        <v>1088.5</v>
+      </c>
+      <c r="U28" s="21">
+        <v>1109.5</v>
+      </c>
+      <c r="V28" s="21">
+        <v>1144.7804648789893</v>
+      </c>
+      <c r="W28" s="21">
+        <v>1187.1416878631526</v>
+      </c>
+      <c r="X28" s="21">
+        <v>1197.8247306171866</v>
+      </c>
+      <c r="Y28" s="21">
+        <v>1200.3806115047623</v>
+      </c>
+      <c r="Z28" s="21">
+        <v>1215.6218008981441</v>
+      </c>
+      <c r="AA28" s="21">
+        <v>1238.8956673718246</v>
+      </c>
+      <c r="AB28" s="21">
+        <v>1273.4146086234912</v>
+      </c>
+      <c r="AC28" s="21">
+        <v>1320.6076930950039</v>
+      </c>
+      <c r="AD28" s="21">
+        <v>1372.7647035974401</v>
+      </c>
+      <c r="AE28" s="21">
+        <v>1427.4923898498828</v>
+      </c>
+      <c r="AF28" s="21">
+        <v>1493.5805882227869</v>
+      </c>
+      <c r="AG28" s="21">
+        <v>1667.3712780810647</v>
+      </c>
+      <c r="AH28" s="21">
+        <v>1664.4669481802025</v>
+      </c>
+      <c r="AI28" s="21">
+        <v>1663.7901112550596</v>
+      </c>
+      <c r="AJ28" s="21">
+        <v>1665.2750848101809</v>
+      </c>
+      <c r="AK28" s="21">
+        <v>1661.9083012251658</v>
+      </c>
+      <c r="AL28" s="21">
+        <v>1668.4614209528127</v>
+      </c>
+      <c r="AM28" s="21">
+        <v>1687.9677733030339</v>
+      </c>
+      <c r="AN28" s="21">
+        <v>1722.3100275233605</v>
+      </c>
+      <c r="AO28" s="21">
+        <v>1738.3471898689554</v>
+      </c>
+      <c r="AP28" s="21">
+        <v>1755.8537478201747</v>
+      </c>
+      <c r="AQ28" s="21">
+        <v>1795.4771129847102</v>
+      </c>
+      <c r="AR28" s="21">
+        <v>1827.8023015165636</v>
+      </c>
+      <c r="AS28" s="21">
+        <v>1826.9814518990281</v>
+      </c>
+      <c r="AT28" s="21">
+        <v>1832.504830681009</v>
+      </c>
+      <c r="AU28" s="21">
+        <v>1850.5249508267316</v>
+      </c>
+      <c r="AV28" s="21">
+        <v>1891.2423820720469</v>
+      </c>
+      <c r="AW28" s="21">
+        <v>1936.9381085256425</v>
+      </c>
+      <c r="AX28" s="21">
+        <v>2005.4083732784031</v>
+      </c>
+      <c r="AY28" s="21">
+        <v>2027.5368254761215</v>
       </c>
       <c r="AZ28" s="21">
-        <v>445.59999130749998</v>
+        <v>2013.6074999974248</v>
       </c>
       <c r="BA28" s="21">
-        <v>471.46803252249998</v>
+        <v>2066.0752499873247</v>
       </c>
       <c r="BB28" s="21">
-        <v>495.04839145749997</v>
+        <v>2109.7009999975253</v>
       </c>
       <c r="BC28" s="21">
-        <v>517.44763280999996</v>
+        <v>2142.7297500246</v>
       </c>
       <c r="BD28" s="21">
-        <v>546.61011917249994</v>
+        <v>2193.7027499973246</v>
       </c>
       <c r="BE28" s="21">
-        <v>568.07817797500002</v>
+        <v>2232.7167502287252</v>
       </c>
       <c r="BF28" s="21">
-        <v>581.28261762750003</v>
+        <v>2272.7087499877998</v>
       </c>
       <c r="BG28" s="21">
-        <v>605.31722424999998</v>
+        <v>2281.149000045325</v>
       </c>
       <c r="BH28" s="21">
-        <v>617.16001358999995</v>
+        <v>2307.3012500092</v>
       </c>
       <c r="BI28" s="21">
-        <v>630.54229311500001</v>
+        <v>2331.1465000331755</v>
       </c>
       <c r="BJ28" s="21">
-        <v>637.63995658499994</v>
+        <v>2318.1420000807248</v>
       </c>
     </row>
     <row r="29" spans="1:62" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="B29" s="21">
-        <v>927.3</v>
-      </c>
-      <c r="C29" s="21">
-        <v>964.5</v>
-      </c>
-      <c r="D29" s="21">
-        <v>995.2</v>
-      </c>
-      <c r="E29" s="21">
-        <v>1008.9</v>
-      </c>
-      <c r="F29" s="21">
-        <v>1019.1</v>
-      </c>
-      <c r="G29" s="21">
-        <v>1008.2</v>
-      </c>
-      <c r="H29" s="21">
-        <v>1007.9</v>
-      </c>
-      <c r="I29" s="21">
-        <v>1010.9</v>
-      </c>
-      <c r="J29" s="21">
-        <v>1017.5</v>
+      <c r="A29" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="J29" s="21" t="s">
+        <v>194</v>
       </c>
       <c r="K29" s="21">
-        <v>1039.2</v>
+        <v>61.2</v>
       </c>
       <c r="L29" s="21">
-        <v>1067.3</v>
+        <v>61.2</v>
       </c>
       <c r="M29" s="21">
-        <v>1086.2</v>
+        <v>60.5</v>
       </c>
       <c r="N29" s="21">
-        <v>1101.5999999999999</v>
+        <v>59.7</v>
       </c>
       <c r="O29" s="21">
-        <v>1124.8</v>
+        <v>59.2</v>
       </c>
       <c r="P29" s="21">
-        <v>1130.5999999999999</v>
+        <v>59</v>
       </c>
       <c r="Q29" s="21">
-        <v>1082</v>
+        <v>57.75</v>
       </c>
       <c r="R29" s="21">
-        <v>1054.75</v>
+        <v>58.25</v>
       </c>
       <c r="S29" s="21">
-        <v>1069.75</v>
+        <v>58.25</v>
       </c>
       <c r="T29" s="21">
-        <v>1088.5</v>
+        <v>57.25</v>
       </c>
       <c r="U29" s="21">
-        <v>1109.5</v>
+        <v>57.25</v>
       </c>
       <c r="V29" s="21">
-        <v>1144.7804648789893</v>
+        <v>58</v>
       </c>
       <c r="W29" s="21">
-        <v>1187.1416878631526</v>
+        <v>62.582749999999997</v>
       </c>
       <c r="X29" s="21">
-        <v>1197.8247306171866</v>
+        <v>61.919750000000001</v>
       </c>
       <c r="Y29" s="21">
-        <v>1200.3806115047623</v>
+        <v>61.717750000000002</v>
       </c>
       <c r="Z29" s="21">
-        <v>1215.6218008981441</v>
+        <v>60.704999999999998</v>
       </c>
       <c r="AA29" s="21">
-        <v>1238.8956673718246</v>
+        <v>59.694113833885361</v>
       </c>
       <c r="AB29" s="21">
-        <v>1273.4146086234912</v>
+        <v>57.393846267909282</v>
       </c>
       <c r="AC29" s="21">
-        <v>1320.6076930950039</v>
+        <v>56.931300470168381</v>
       </c>
       <c r="AD29" s="21">
-        <v>1372.7647035974401</v>
+        <v>54.556785062415713</v>
       </c>
       <c r="AE29" s="21">
-        <v>1427.4923898498828</v>
+        <v>52.795723114977278</v>
       </c>
       <c r="AF29" s="21">
-        <v>1493.5805882227869</v>
+        <v>51.566095199120248</v>
       </c>
       <c r="AG29" s="21">
-        <v>1667.3712780810647</v>
+        <v>60.728638505129076</v>
       </c>
       <c r="AH29" s="21">
-        <v>1664.4669481802025</v>
+        <v>58.442071940718456</v>
       </c>
       <c r="AI29" s="21">
-        <v>1663.7901112550596</v>
+        <v>60.759675608645679</v>
       </c>
       <c r="AJ29" s="21">
-        <v>1665.2750848101809</v>
+        <v>58.62180009534152</v>
       </c>
       <c r="AK29" s="21">
-        <v>1661.9083012251658</v>
+        <v>54.915965384991942</v>
       </c>
       <c r="AL29" s="21">
-        <v>1668.4614209528127</v>
+        <v>56.607447163510486</v>
       </c>
       <c r="AM29" s="21">
-        <v>1687.9677733030339</v>
+        <v>57.121776801718042</v>
       </c>
       <c r="AN29" s="21">
-        <v>1722.3100275233605</v>
+        <v>58.647689736451113</v>
       </c>
       <c r="AO29" s="21">
-        <v>1738.3471898689554</v>
+        <v>60.574998708229955</v>
       </c>
       <c r="AP29" s="21">
-        <v>1755.8537478201747</v>
+        <v>60.048454225303004</v>
       </c>
       <c r="AQ29" s="21">
-        <v>1795.4771129847102</v>
+        <v>55.837071435541176</v>
       </c>
       <c r="AR29" s="21">
-        <v>1827.8023015165636</v>
+        <v>55.307726996070123</v>
       </c>
       <c r="AS29" s="21">
-        <v>1826.9814518990281</v>
+        <v>53.336474102126822</v>
       </c>
       <c r="AT29" s="21">
-        <v>1832.504830681009</v>
+        <v>48.805769475556751</v>
       </c>
       <c r="AU29" s="21">
-        <v>1850.5249508267316</v>
+        <v>46.859181984743188</v>
       </c>
       <c r="AV29" s="21">
-        <v>1891.2423820720469</v>
+        <v>46.825625671251721</v>
       </c>
       <c r="AW29" s="21">
-        <v>1936.9381085256425</v>
+        <v>49.307671237361404</v>
       </c>
       <c r="AX29" s="21">
-        <v>2005.4083732784031</v>
+        <v>51.225466322111487</v>
       </c>
       <c r="AY29" s="21">
-        <v>2027.5368254761215</v>
+        <v>49.365259696944065</v>
       </c>
       <c r="AZ29" s="21">
-        <v>2013.6074999974248</v>
+        <v>52.880999999925002</v>
       </c>
       <c r="BA29" s="21">
-        <v>2066.0752499873247</v>
+        <v>57.461750000075</v>
       </c>
       <c r="BB29" s="21">
-        <v>2109.7009999975253</v>
+        <v>60.695750000025001</v>
       </c>
       <c r="BC29" s="21">
-        <v>2142.7297500246</v>
+        <v>57.856499999850001</v>
       </c>
       <c r="BD29" s="21">
-        <v>2193.7027499973246</v>
+        <v>58.349500000075004</v>
       </c>
       <c r="BE29" s="21">
-        <v>2232.7167502287252</v>
+        <v>62.658749999975001</v>
       </c>
       <c r="BF29" s="21">
-        <v>2272.7087499877998</v>
+        <v>63.057000000049996</v>
       </c>
       <c r="BG29" s="21">
-        <v>2281.149000045325</v>
+        <v>58.775749999825003</v>
       </c>
       <c r="BH29" s="21">
-        <v>2307.3012500092</v>
+        <v>58.147250000200003</v>
       </c>
       <c r="BI29" s="21">
-        <v>2331.1465000331755</v>
+        <v>46.519499999925003</v>
       </c>
       <c r="BJ29" s="21">
-        <v>2318.1420000807248</v>
+        <v>46.605249999975001</v>
       </c>
     </row>
     <row r="30" spans="1:62" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B30" s="21" t="s">
         <v>194</v>
@@ -29112,165 +29281,165 @@
         <v>194</v>
       </c>
       <c r="K30" s="21">
-        <v>61.2</v>
+        <v>344.3</v>
       </c>
       <c r="L30" s="21">
-        <v>61.2</v>
+        <v>349</v>
       </c>
       <c r="M30" s="21">
-        <v>60.5</v>
+        <v>348.7</v>
       </c>
       <c r="N30" s="21">
-        <v>59.7</v>
+        <v>343</v>
       </c>
       <c r="O30" s="21">
-        <v>59.2</v>
+        <v>341.2</v>
       </c>
       <c r="P30" s="21">
-        <v>59</v>
+        <v>338</v>
       </c>
       <c r="Q30" s="21">
-        <v>57.75</v>
+        <v>274.64600000000002</v>
       </c>
       <c r="R30" s="21">
-        <v>58.25</v>
+        <v>258.57900000000001</v>
       </c>
       <c r="S30" s="21">
-        <v>58.25</v>
+        <v>258.654</v>
       </c>
       <c r="T30" s="21">
-        <v>57.25</v>
+        <v>259.88299999999998</v>
       </c>
       <c r="U30" s="21">
-        <v>57.25</v>
+        <v>259.95800000000003</v>
       </c>
       <c r="V30" s="21">
-        <v>58</v>
+        <v>264.01978745576741</v>
       </c>
       <c r="W30" s="21">
-        <v>62.582749999999997</v>
+        <v>269.17895893631402</v>
       </c>
       <c r="X30" s="21">
-        <v>61.919750000000001</v>
+        <v>261.27960790490931</v>
       </c>
       <c r="Y30" s="21">
-        <v>61.717750000000002</v>
+        <v>249.39436584020797</v>
       </c>
       <c r="Z30" s="21">
-        <v>60.704999999999998</v>
+        <v>248.108358178873</v>
       </c>
       <c r="AA30" s="21">
-        <v>59.694113833885361</v>
+        <v>256.2589845410742</v>
       </c>
       <c r="AB30" s="21">
-        <v>57.393846267909282</v>
+        <v>260.69725679904388</v>
       </c>
       <c r="AC30" s="21">
-        <v>56.931300470168381</v>
+        <v>260.48081973868915</v>
       </c>
       <c r="AD30" s="21">
-        <v>54.556785062415713</v>
+        <v>262.24264172904822</v>
       </c>
       <c r="AE30" s="21">
-        <v>52.795723114977278</v>
+        <v>268.54650667568404</v>
       </c>
       <c r="AF30" s="21">
-        <v>51.566095199120248</v>
+        <v>274.13009077418087</v>
       </c>
       <c r="AG30" s="21">
-        <v>60.728638505129076</v>
+        <v>276.08984209480099</v>
       </c>
       <c r="AH30" s="21">
-        <v>58.442071940718456</v>
+        <v>262.19326177076221</v>
       </c>
       <c r="AI30" s="21">
-        <v>60.759675608645679</v>
+        <v>253.7173345016804</v>
       </c>
       <c r="AJ30" s="21">
-        <v>58.62180009534152</v>
+        <v>245.81974170763266</v>
       </c>
       <c r="AK30" s="21">
-        <v>54.915965384991942</v>
+        <v>241.84118558742102</v>
       </c>
       <c r="AL30" s="21">
-        <v>56.607447163510486</v>
+        <v>235.91492443609422</v>
       </c>
       <c r="AM30" s="21">
-        <v>57.121776801718042</v>
+        <v>229.41747312485489</v>
       </c>
       <c r="AN30" s="21">
-        <v>58.647689736451113</v>
+        <v>226.38216217659777</v>
       </c>
       <c r="AO30" s="21">
-        <v>60.574998708229955</v>
+        <v>220.07771716370056</v>
       </c>
       <c r="AP30" s="21">
-        <v>60.048454225303004</v>
+        <v>218.15087874112493</v>
       </c>
       <c r="AQ30" s="21">
-        <v>55.837071435541176</v>
+        <v>225.79528634429812</v>
       </c>
       <c r="AR30" s="21">
-        <v>55.307726996070123</v>
+        <v>225.65670444405947</v>
       </c>
       <c r="AS30" s="21">
-        <v>53.336474102126822</v>
+        <v>218.17810077822591</v>
       </c>
       <c r="AT30" s="21">
-        <v>48.805769475556751</v>
+        <v>215.65775809281706</v>
       </c>
       <c r="AU30" s="21">
-        <v>46.859181984743188</v>
+        <v>220.93148191890717</v>
       </c>
       <c r="AV30" s="21">
-        <v>46.825625671251721</v>
+        <v>228.01113184037285</v>
       </c>
       <c r="AW30" s="21">
-        <v>49.307671237361404</v>
+        <v>234.93659447517825</v>
       </c>
       <c r="AX30" s="21">
-        <v>51.225466322111487</v>
+        <v>241.949187681024</v>
       </c>
       <c r="AY30" s="21">
-        <v>49.365259696944065</v>
+        <v>236.54291929720054</v>
       </c>
       <c r="AZ30" s="21">
-        <v>52.880999999925002</v>
+        <v>231.1619999975</v>
       </c>
       <c r="BA30" s="21">
-        <v>57.461750000075</v>
+        <v>239.22600000225</v>
       </c>
       <c r="BB30" s="21">
-        <v>60.695750000025001</v>
+        <v>241.24325000000002</v>
       </c>
       <c r="BC30" s="21">
-        <v>57.856499999850001</v>
+        <v>240.42975004724997</v>
       </c>
       <c r="BD30" s="21">
-        <v>58.349500000075004</v>
+        <v>245.92799999975</v>
       </c>
       <c r="BE30" s="21">
-        <v>62.658749999975001</v>
+        <v>245.45950024125</v>
       </c>
       <c r="BF30" s="21">
-        <v>63.057000000049996</v>
+        <v>243.23900000025</v>
       </c>
       <c r="BG30" s="21">
-        <v>58.775749999825003</v>
+        <v>240.38000005050003</v>
       </c>
       <c r="BH30" s="21">
-        <v>58.147250000200003</v>
+        <v>243.62099999899999</v>
       </c>
       <c r="BI30" s="21">
-        <v>46.519499999925003</v>
+        <v>245.94750002825</v>
       </c>
       <c r="BJ30" s="21">
-        <v>46.605249999975001</v>
+        <v>242.74250004075</v>
       </c>
     </row>
     <row r="31" spans="1:62" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B31" s="21" t="s">
         <v>194</v>
@@ -29300,541 +29469,541 @@
         <v>194</v>
       </c>
       <c r="K31" s="21">
-        <v>344.3</v>
+        <v>633.70000000000005</v>
       </c>
       <c r="L31" s="21">
-        <v>349</v>
+        <v>657.1</v>
       </c>
       <c r="M31" s="21">
-        <v>348.7</v>
+        <v>677</v>
       </c>
       <c r="N31" s="21">
-        <v>343</v>
+        <v>698.9</v>
       </c>
       <c r="O31" s="21">
-        <v>341.2</v>
+        <v>724.4</v>
       </c>
       <c r="P31" s="21">
-        <v>338</v>
+        <v>733.6</v>
       </c>
       <c r="Q31" s="21">
-        <v>274.64600000000002</v>
+        <v>749.60400000000004</v>
       </c>
       <c r="R31" s="21">
-        <v>258.57900000000001</v>
+        <v>737.92100000000005</v>
       </c>
       <c r="S31" s="21">
-        <v>258.654</v>
+        <v>752.846</v>
       </c>
       <c r="T31" s="21">
-        <v>259.88299999999998</v>
+        <v>771.36699999999996</v>
       </c>
       <c r="U31" s="21">
-        <v>259.95800000000003</v>
+        <v>792.29200000000003</v>
       </c>
       <c r="V31" s="21">
-        <v>264.01978745576741</v>
+        <v>822.76067742322175</v>
       </c>
       <c r="W31" s="21">
-        <v>269.17895893631402</v>
+        <v>855.37997892683836</v>
       </c>
       <c r="X31" s="21">
-        <v>261.27960790490931</v>
+        <v>874.62537271227711</v>
       </c>
       <c r="Y31" s="21">
-        <v>249.39436584020797</v>
+        <v>889.26849566455428</v>
       </c>
       <c r="Z31" s="21">
-        <v>248.108358178873</v>
+        <v>906.80844271927106</v>
       </c>
       <c r="AA31" s="21">
-        <v>256.2589845410742</v>
+        <v>922.94256899686502</v>
       </c>
       <c r="AB31" s="21">
-        <v>260.69725679904388</v>
+        <v>955.32350555653795</v>
       </c>
       <c r="AC31" s="21">
-        <v>260.48081973868915</v>
+        <v>1003.1955728861464</v>
       </c>
       <c r="AD31" s="21">
-        <v>262.24264172904822</v>
+        <v>1055.9652768059764</v>
       </c>
       <c r="AE31" s="21">
-        <v>268.54650667568404</v>
+        <v>1106.1501600592214</v>
       </c>
       <c r="AF31" s="21">
-        <v>274.13009077418087</v>
+        <v>1167.8844022494857</v>
       </c>
       <c r="AG31" s="21">
-        <v>276.08984209480099</v>
+        <v>1330.5527974811343</v>
       </c>
       <c r="AH31" s="21">
-        <v>262.19326177076221</v>
+        <v>1343.8316144687221</v>
       </c>
       <c r="AI31" s="21">
-        <v>253.7173345016804</v>
+        <v>1349.3131011447333</v>
       </c>
       <c r="AJ31" s="21">
-        <v>245.81974170763266</v>
+        <v>1360.833543007207</v>
       </c>
       <c r="AK31" s="21">
-        <v>241.84118558742102</v>
+        <v>1365.1511502527526</v>
       </c>
       <c r="AL31" s="21">
-        <v>235.91492443609422</v>
+        <v>1375.9390493532078</v>
       </c>
       <c r="AM31" s="21">
-        <v>229.41747312485489</v>
+        <v>1401.428523376461</v>
       </c>
       <c r="AN31" s="21">
-        <v>226.38216217659777</v>
+        <v>1437.2801756103117</v>
       </c>
       <c r="AO31" s="21">
-        <v>220.07771716370056</v>
+        <v>1457.6944739970245</v>
       </c>
       <c r="AP31" s="21">
-        <v>218.15087874112493</v>
+        <v>1477.6544148537466</v>
       </c>
       <c r="AQ31" s="21">
-        <v>225.79528634429812</v>
+        <v>1513.844755204871</v>
       </c>
       <c r="AR31" s="21">
-        <v>225.65670444405947</v>
+        <v>1546.8378700764342</v>
       </c>
       <c r="AS31" s="21">
-        <v>218.17810077822591</v>
+        <v>1555.4668770186756</v>
       </c>
       <c r="AT31" s="21">
-        <v>215.65775809281706</v>
+        <v>1568.0413031126352</v>
       </c>
       <c r="AU31" s="21">
-        <v>220.93148191890717</v>
+        <v>1582.7342869230815</v>
       </c>
       <c r="AV31" s="21">
-        <v>228.01113184037285</v>
+        <v>1616.4056245604224</v>
       </c>
       <c r="AW31" s="21">
-        <v>234.93659447517825</v>
+        <v>1652.6938428131029</v>
       </c>
       <c r="AX31" s="21">
-        <v>241.949187681024</v>
+        <v>1712.2337192752675</v>
       </c>
       <c r="AY31" s="21">
-        <v>236.54291929720054</v>
+        <v>1741.6286464819768</v>
       </c>
       <c r="AZ31" s="21">
-        <v>231.1619999975</v>
+        <v>1729.5645</v>
       </c>
       <c r="BA31" s="21">
-        <v>239.22600000225</v>
+        <v>1769.387499985</v>
       </c>
       <c r="BB31" s="21">
-        <v>241.24325000000002</v>
+        <v>1807.7619999975</v>
       </c>
       <c r="BC31" s="21">
-        <v>240.42975004724997</v>
+        <v>1844.4434999775001</v>
       </c>
       <c r="BD31" s="21">
-        <v>245.92799999975</v>
+        <v>1889.4252499975</v>
       </c>
       <c r="BE31" s="21">
-        <v>245.45950024125</v>
+        <v>1924.5984999875</v>
       </c>
       <c r="BF31" s="21">
-        <v>243.23900000025</v>
+        <v>1966.4127499874999</v>
       </c>
       <c r="BG31" s="21">
-        <v>240.38000005050003</v>
+        <v>1981.993249995</v>
       </c>
       <c r="BH31" s="21">
-        <v>243.62099999899999</v>
+        <v>2005.5330000099998</v>
       </c>
       <c r="BI31" s="21">
-        <v>245.94750002825</v>
+        <v>2038.6795000049999</v>
       </c>
       <c r="BJ31" s="21">
-        <v>242.74250004075</v>
+        <v>2028.79425004</v>
       </c>
     </row>
     <row r="32" spans="1:62" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="H32" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="I32" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="J32" s="21" t="s">
-        <v>194</v>
+      <c r="A32" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B32" s="21">
+        <v>758.6</v>
+      </c>
+      <c r="C32" s="21">
+        <v>770.5</v>
+      </c>
+      <c r="D32" s="21">
+        <v>774.3</v>
+      </c>
+      <c r="E32" s="21">
+        <v>775.7</v>
+      </c>
+      <c r="F32" s="21">
+        <v>777.4</v>
+      </c>
+      <c r="G32" s="21">
+        <v>774.9</v>
+      </c>
+      <c r="H32" s="21">
+        <v>776.5</v>
+      </c>
+      <c r="I32" s="21">
+        <v>773.4</v>
+      </c>
+      <c r="J32" s="21">
+        <v>769.3</v>
       </c>
       <c r="K32" s="21">
-        <v>633.70000000000005</v>
+        <v>778.5</v>
       </c>
       <c r="L32" s="21">
-        <v>657.1</v>
+        <v>802</v>
       </c>
       <c r="M32" s="21">
-        <v>677</v>
+        <v>818.2</v>
       </c>
       <c r="N32" s="21">
-        <v>698.9</v>
+        <v>831.6</v>
       </c>
       <c r="O32" s="21">
-        <v>724.4</v>
+        <v>854.5</v>
       </c>
       <c r="P32" s="21">
-        <v>733.6</v>
+        <v>860.9</v>
       </c>
       <c r="Q32" s="21">
-        <v>749.60400000000004</v>
+        <v>829.06899999999996</v>
       </c>
       <c r="R32" s="21">
-        <v>737.92100000000005</v>
+        <v>832.88699999999994</v>
       </c>
       <c r="S32" s="21">
-        <v>752.846</v>
+        <v>859.03800000000001</v>
       </c>
       <c r="T32" s="21">
-        <v>771.36699999999996</v>
+        <v>879.11300000000006</v>
       </c>
       <c r="U32" s="21">
-        <v>792.29200000000003</v>
+        <v>900.55200000000002</v>
       </c>
       <c r="V32" s="21">
-        <v>822.76067742322175</v>
+        <v>930.17046487898915</v>
       </c>
       <c r="W32" s="21">
-        <v>855.37997892683836</v>
+        <v>962.10068786315253</v>
       </c>
       <c r="X32" s="21">
-        <v>874.62537271227711</v>
+        <v>968.32273061718649</v>
       </c>
       <c r="Y32" s="21">
-        <v>889.26849566455428</v>
+        <v>975.99561150476222</v>
       </c>
       <c r="Z32" s="21">
-        <v>906.80844271927106</v>
+        <v>991.111800898144</v>
       </c>
       <c r="AA32" s="21">
-        <v>922.94256899686502</v>
+        <v>1009.8626673718246</v>
       </c>
       <c r="AB32" s="21">
-        <v>955.32350555653795</v>
+        <v>1030.463876219811</v>
       </c>
       <c r="AC32" s="21">
-        <v>1003.1955728861464</v>
+        <v>1062.7890757737935</v>
       </c>
       <c r="AD32" s="21">
-        <v>1055.9652768059764</v>
+        <v>1097.5173538691502</v>
       </c>
       <c r="AE32" s="21">
-        <v>1106.1501600592214</v>
+        <v>1133.3162342645001</v>
       </c>
       <c r="AF32" s="21">
-        <v>1167.8844022494857</v>
+        <v>1170.5847634043614</v>
       </c>
       <c r="AG32" s="21">
-        <v>1330.5527974811343</v>
+        <v>1313.3540976941599</v>
       </c>
       <c r="AH32" s="21">
-        <v>1343.8316144687221</v>
+        <v>1310.7918504043353</v>
       </c>
       <c r="AI32" s="21">
-        <v>1349.3131011447333</v>
+        <v>1320.872413982152</v>
       </c>
       <c r="AJ32" s="21">
-        <v>1360.833543007207</v>
+        <v>1328.4042881233374</v>
       </c>
       <c r="AK32" s="21">
-        <v>1365.1511502527526</v>
+        <v>1313.5306505427229</v>
       </c>
       <c r="AL32" s="21">
-        <v>1375.9390493532078</v>
+        <v>1314.8677690507729</v>
       </c>
       <c r="AM32" s="21">
-        <v>1401.428523376461</v>
+        <v>1330.4157279897674</v>
       </c>
       <c r="AN32" s="21">
-        <v>1437.2801756103117</v>
+        <v>1357.4392547574914</v>
       </c>
       <c r="AO32" s="21">
-        <v>1457.6944739970245</v>
+        <v>1384.1326957960916</v>
       </c>
       <c r="AP32" s="21">
-        <v>1477.6544148537466</v>
+        <v>1400.654013923102</v>
       </c>
       <c r="AQ32" s="21">
-        <v>1513.844755204871</v>
+        <v>1411.4085476486757</v>
       </c>
       <c r="AR32" s="21">
-        <v>1546.8378700764342</v>
+        <v>1433.4525265321699</v>
       </c>
       <c r="AS32" s="21">
-        <v>1555.4668770186756</v>
+        <v>1435.5332339312113</v>
       </c>
       <c r="AT32" s="21">
-        <v>1568.0413031126352</v>
+        <v>1438.0540423207092</v>
       </c>
       <c r="AU32" s="21">
-        <v>1582.7342869230815</v>
+        <v>1449.3390359118971</v>
       </c>
       <c r="AV32" s="21">
-        <v>1616.4056245604224</v>
+        <v>1476.6487164327511</v>
       </c>
       <c r="AW32" s="21">
-        <v>1652.6938428131029</v>
+        <v>1504.0009229295242</v>
       </c>
       <c r="AX32" s="21">
-        <v>1712.2337192752675</v>
+        <v>1545.6703991712243</v>
       </c>
       <c r="AY32" s="21">
-        <v>1741.6286464819768</v>
+        <v>1554.7726569136162</v>
       </c>
       <c r="AZ32" s="21">
-        <v>1729.5645</v>
+        <v>1540.856999997</v>
       </c>
       <c r="BA32" s="21">
-        <v>1769.387499985</v>
+        <v>1561.9522499882498</v>
       </c>
       <c r="BB32" s="21">
-        <v>1807.7619999975</v>
+        <v>1574.1889999964999</v>
       </c>
       <c r="BC32" s="21">
-        <v>1844.4434999775001</v>
+        <v>1590.0470000064997</v>
       </c>
       <c r="BD32" s="21">
-        <v>1889.4252499975</v>
+        <v>1618.2249999969999</v>
       </c>
       <c r="BE32" s="21">
-        <v>1924.5984999875</v>
+        <v>1636.6812501432501</v>
       </c>
       <c r="BF32" s="21">
-        <v>1966.4127499874999</v>
+        <v>1655.5024999885002</v>
       </c>
       <c r="BG32" s="21">
-        <v>1981.993249995</v>
+        <v>1663.4197500272501</v>
       </c>
       <c r="BH32" s="21">
-        <v>2005.5330000099998</v>
+        <v>1668.8730000072501</v>
       </c>
       <c r="BI32" s="21">
-        <v>2038.6795000049999</v>
+        <v>1675.7950000217502</v>
       </c>
       <c r="BJ32" s="21">
-        <v>2028.79425004</v>
+        <v>1658.8705000637501</v>
       </c>
     </row>
     <row r="33" spans="1:62" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="B33" s="21">
-        <v>758.6</v>
-      </c>
-      <c r="C33" s="21">
-        <v>770.5</v>
-      </c>
-      <c r="D33" s="21">
-        <v>774.3</v>
-      </c>
-      <c r="E33" s="21">
-        <v>775.7</v>
-      </c>
-      <c r="F33" s="21">
-        <v>777.4</v>
-      </c>
-      <c r="G33" s="21">
-        <v>774.9</v>
-      </c>
-      <c r="H33" s="21">
-        <v>776.5</v>
-      </c>
-      <c r="I33" s="21">
-        <v>773.4</v>
-      </c>
-      <c r="J33" s="21">
-        <v>769.3</v>
-      </c>
-      <c r="K33" s="21">
-        <v>778.5</v>
-      </c>
-      <c r="L33" s="21">
-        <v>802</v>
-      </c>
-      <c r="M33" s="21">
-        <v>818.2</v>
-      </c>
-      <c r="N33" s="21">
-        <v>831.6</v>
-      </c>
-      <c r="O33" s="21">
-        <v>854.5</v>
-      </c>
-      <c r="P33" s="21">
-        <v>860.9</v>
-      </c>
-      <c r="Q33" s="21">
-        <v>829.06899999999996</v>
-      </c>
-      <c r="R33" s="21">
-        <v>832.88699999999994</v>
-      </c>
-      <c r="S33" s="21">
-        <v>859.03800000000001</v>
-      </c>
-      <c r="T33" s="21">
-        <v>879.11300000000006</v>
-      </c>
-      <c r="U33" s="21">
-        <v>900.55200000000002</v>
-      </c>
-      <c r="V33" s="21">
-        <v>930.17046487898915</v>
-      </c>
-      <c r="W33" s="21">
-        <v>962.10068786315253</v>
-      </c>
-      <c r="X33" s="21">
-        <v>968.32273061718649</v>
-      </c>
-      <c r="Y33" s="21">
-        <v>975.99561150476222</v>
-      </c>
-      <c r="Z33" s="21">
-        <v>991.111800898144</v>
-      </c>
-      <c r="AA33" s="21">
-        <v>1009.8626673718246</v>
-      </c>
-      <c r="AB33" s="21">
-        <v>1030.463876219811</v>
-      </c>
-      <c r="AC33" s="21">
-        <v>1062.7890757737935</v>
-      </c>
-      <c r="AD33" s="21">
-        <v>1097.5173538691502</v>
-      </c>
-      <c r="AE33" s="21">
-        <v>1133.3162342645001</v>
-      </c>
-      <c r="AF33" s="21">
-        <v>1170.5847634043614</v>
-      </c>
-      <c r="AG33" s="21">
-        <v>1313.3540976941599</v>
-      </c>
-      <c r="AH33" s="21">
-        <v>1310.7918504043353</v>
-      </c>
-      <c r="AI33" s="21">
-        <v>1320.872413982152</v>
-      </c>
-      <c r="AJ33" s="21">
-        <v>1328.4042881233374</v>
-      </c>
-      <c r="AK33" s="21">
-        <v>1313.5306505427229</v>
-      </c>
-      <c r="AL33" s="21">
-        <v>1314.8677690507729</v>
-      </c>
-      <c r="AM33" s="21">
-        <v>1330.4157279897674</v>
-      </c>
-      <c r="AN33" s="21">
-        <v>1357.4392547574914</v>
-      </c>
-      <c r="AO33" s="21">
-        <v>1384.1326957960916</v>
-      </c>
-      <c r="AP33" s="21">
-        <v>1400.654013923102</v>
-      </c>
-      <c r="AQ33" s="21">
-        <v>1411.4085476486757</v>
-      </c>
-      <c r="AR33" s="21">
-        <v>1433.4525265321699</v>
-      </c>
-      <c r="AS33" s="21">
-        <v>1435.5332339312113</v>
-      </c>
-      <c r="AT33" s="21">
-        <v>1438.0540423207092</v>
-      </c>
-      <c r="AU33" s="21">
-        <v>1449.3390359118971</v>
-      </c>
-      <c r="AV33" s="21">
-        <v>1476.6487164327511</v>
-      </c>
-      <c r="AW33" s="21">
-        <v>1504.0009229295242</v>
-      </c>
-      <c r="AX33" s="21">
-        <v>1545.6703991712243</v>
-      </c>
-      <c r="AY33" s="21">
-        <v>1554.7726569136162</v>
+      <c r="A33" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="I33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="J33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="K33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="L33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="M33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="N33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="O33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="P33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="R33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="S33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="T33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="U33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="V33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="W33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="X33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AK33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AL33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AM33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AN33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AO33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AP33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AQ33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AR33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AT33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AU33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AV33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AW33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AY33" s="21" t="s">
+        <v>194</v>
       </c>
       <c r="AZ33" s="21">
-        <v>1540.856999997</v>
+        <v>46.979318439499998</v>
       </c>
       <c r="BA33" s="21">
-        <v>1561.9522499882498</v>
+        <v>51.052676870749998</v>
       </c>
       <c r="BB33" s="21">
-        <v>1574.1889999964999</v>
+        <v>54.063943258999998</v>
       </c>
       <c r="BC33" s="21">
-        <v>1590.0470000064997</v>
+        <v>51.409067484000005</v>
       </c>
       <c r="BD33" s="21">
-        <v>1618.2249999969999</v>
+        <v>50.872160747000002</v>
       </c>
       <c r="BE33" s="21">
-        <v>1636.6812501432501</v>
+        <v>55.004801668249996</v>
       </c>
       <c r="BF33" s="21">
-        <v>1655.5024999885002</v>
+        <v>55.441323388499995</v>
       </c>
       <c r="BG33" s="21">
-        <v>1663.4197500272501</v>
+        <v>50.55056291975</v>
       </c>
       <c r="BH33" s="21">
-        <v>1668.8730000072501</v>
+        <v>49.298841569749996</v>
       </c>
       <c r="BI33" s="21">
-        <v>1675.7950000217502</v>
+        <v>41.111462006750003</v>
       </c>
       <c r="BJ33" s="21">
-        <v>1658.8705000637501</v>
+        <v>40.933665576250007</v>
       </c>
     </row>
     <row r="34" spans="1:62" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B34" s="21" t="s">
         <v>194</v>
@@ -29987,42 +30156,42 @@
         <v>194</v>
       </c>
       <c r="AZ34" s="21">
-        <v>46.979318439499998</v>
+        <v>154.2202251825</v>
       </c>
       <c r="BA34" s="21">
-        <v>51.052676870749998</v>
+        <v>156.89227539250001</v>
       </c>
       <c r="BB34" s="21">
-        <v>54.063943258999998</v>
+        <v>157.55823953750001</v>
       </c>
       <c r="BC34" s="21">
-        <v>51.409067484000005</v>
+        <v>157.1568637725</v>
       </c>
       <c r="BD34" s="21">
-        <v>50.872160747000002</v>
+        <v>158.895527875</v>
       </c>
       <c r="BE34" s="21">
-        <v>55.004801668249996</v>
+        <v>156.94514982499999</v>
       </c>
       <c r="BF34" s="21">
-        <v>55.441323388499995</v>
+        <v>156.21568009999999</v>
       </c>
       <c r="BG34" s="21">
-        <v>50.55056291975</v>
+        <v>154.53849113250001</v>
       </c>
       <c r="BH34" s="21">
-        <v>49.298841569749996</v>
+        <v>158.57737256249999</v>
       </c>
       <c r="BI34" s="21">
-        <v>41.111462006750003</v>
+        <v>154.96457089</v>
       </c>
       <c r="BJ34" s="21">
-        <v>40.933665576250007</v>
+        <v>147.9577604625</v>
       </c>
     </row>
     <row r="35" spans="1:62" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B35" s="21" t="s">
         <v>194</v>
@@ -30175,418 +30344,418 @@
         <v>194</v>
       </c>
       <c r="AZ35" s="21">
-        <v>154.2202251825</v>
+        <v>1339.657456375</v>
       </c>
       <c r="BA35" s="21">
-        <v>156.89227539250001</v>
+        <v>1354.0072977249999</v>
       </c>
       <c r="BB35" s="21">
-        <v>157.55823953750001</v>
+        <v>1362.5668172000001</v>
       </c>
       <c r="BC35" s="21">
-        <v>157.1568637725</v>
+        <v>1381.4810687499998</v>
       </c>
       <c r="BD35" s="21">
-        <v>158.895527875</v>
+        <v>1408.4573113749998</v>
       </c>
       <c r="BE35" s="21">
-        <v>156.94514982499999</v>
+        <v>1424.7312986499999</v>
       </c>
       <c r="BF35" s="21">
-        <v>156.21568009999999</v>
+        <v>1443.8454965000001</v>
       </c>
       <c r="BG35" s="21">
-        <v>154.53849113250001</v>
+        <v>1458.330695975</v>
       </c>
       <c r="BH35" s="21">
-        <v>158.57737256249999</v>
+        <v>1460.9967858749999</v>
       </c>
       <c r="BI35" s="21">
-        <v>154.96457089</v>
+        <v>1479.7189671250001</v>
       </c>
       <c r="BJ35" s="21">
-        <v>147.9577604625</v>
+        <v>1469.9790740249998</v>
       </c>
     </row>
     <row r="36" spans="1:62" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="E36" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="F36" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="G36" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="H36" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="I36" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="J36" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="K36" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="L36" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="M36" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="N36" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="O36" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="P36" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q36" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="R36" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="S36" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="T36" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="U36" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="V36" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="W36" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="X36" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="Y36" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="Z36" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA36" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AB36" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AC36" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AD36" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AE36" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AF36" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AG36" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AH36" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AI36" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AJ36" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AK36" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AL36" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AM36" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AN36" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AO36" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AP36" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AQ36" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AR36" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS36" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AT36" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AU36" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AV36" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AW36" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AX36" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AY36" s="21" t="s">
-        <v>194</v>
+      <c r="A36" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B36" s="21">
+        <v>168.7</v>
+      </c>
+      <c r="C36" s="21">
+        <v>194</v>
+      </c>
+      <c r="D36" s="21">
+        <v>220.9</v>
+      </c>
+      <c r="E36" s="21">
+        <v>233.2</v>
+      </c>
+      <c r="F36" s="21">
+        <v>241.7</v>
+      </c>
+      <c r="G36" s="21">
+        <v>233.3</v>
+      </c>
+      <c r="H36" s="21">
+        <v>231.4</v>
+      </c>
+      <c r="I36" s="21">
+        <v>237.5</v>
+      </c>
+      <c r="J36" s="21">
+        <v>248.2</v>
+      </c>
+      <c r="K36" s="21">
+        <v>260.7</v>
+      </c>
+      <c r="L36" s="21">
+        <v>265.3</v>
+      </c>
+      <c r="M36" s="21">
+        <v>268</v>
+      </c>
+      <c r="N36" s="21">
+        <v>270</v>
+      </c>
+      <c r="O36" s="21">
+        <v>270.3</v>
+      </c>
+      <c r="P36" s="21">
+        <v>269.7</v>
+      </c>
+      <c r="Q36" s="21">
+        <v>252.93100000000001</v>
+      </c>
+      <c r="R36" s="21">
+        <v>221.863</v>
+      </c>
+      <c r="S36" s="21">
+        <v>210.71199999999999</v>
+      </c>
+      <c r="T36" s="21">
+        <v>209.387</v>
+      </c>
+      <c r="U36" s="21">
+        <v>208.94800000000001</v>
+      </c>
+      <c r="V36" s="21">
+        <v>214.61</v>
+      </c>
+      <c r="W36" s="21">
+        <v>225.041</v>
+      </c>
+      <c r="X36" s="21">
+        <v>229.50200000000001</v>
+      </c>
+      <c r="Y36" s="21">
+        <v>224.38499999999999</v>
+      </c>
+      <c r="Z36" s="21">
+        <v>224.51</v>
+      </c>
+      <c r="AA36" s="21">
+        <v>229.03299999999999</v>
+      </c>
+      <c r="AB36" s="21">
+        <v>242.95073240368023</v>
+      </c>
+      <c r="AC36" s="21">
+        <v>257.81861732121041</v>
+      </c>
+      <c r="AD36" s="21">
+        <v>275.24734972829003</v>
+      </c>
+      <c r="AE36" s="21">
+        <v>294.17615558538262</v>
+      </c>
+      <c r="AF36" s="21">
+        <v>322.99582481842549</v>
+      </c>
+      <c r="AG36" s="21">
+        <v>354.01718038690484</v>
+      </c>
+      <c r="AH36" s="21">
+        <v>353.67509777586719</v>
+      </c>
+      <c r="AI36" s="21">
+        <v>342.91769727290762</v>
+      </c>
+      <c r="AJ36" s="21">
+        <v>336.87079668684345</v>
+      </c>
+      <c r="AK36" s="21">
+        <v>348.37765068244278</v>
+      </c>
+      <c r="AL36" s="21">
+        <v>353.59365190203982</v>
+      </c>
+      <c r="AM36" s="21">
+        <v>357.55204531326649</v>
+      </c>
+      <c r="AN36" s="21">
+        <v>364.87077276586911</v>
+      </c>
+      <c r="AO36" s="21">
+        <v>354.21449407286372</v>
+      </c>
+      <c r="AP36" s="21">
+        <v>355.19973389707269</v>
+      </c>
+      <c r="AQ36" s="21">
+        <v>384.06856533603457</v>
+      </c>
+      <c r="AR36" s="21">
+        <v>394.34977498439355</v>
+      </c>
+      <c r="AS36" s="21">
+        <v>391.4482179678169</v>
+      </c>
+      <c r="AT36" s="21">
+        <v>394.45078836029978</v>
+      </c>
+      <c r="AU36" s="21">
+        <v>401.18591491483437</v>
+      </c>
+      <c r="AV36" s="21">
+        <v>414.59366563929569</v>
+      </c>
+      <c r="AW36" s="21">
+        <v>432.93718559611824</v>
+      </c>
+      <c r="AX36" s="21">
+        <v>459.73797410717884</v>
+      </c>
+      <c r="AY36" s="21">
+        <v>472.7641685625054</v>
       </c>
       <c r="AZ36" s="21">
-        <v>1339.657456375</v>
+        <v>472.75050000042501</v>
       </c>
       <c r="BA36" s="21">
-        <v>1354.0072977249999</v>
+        <v>504.12299999907498</v>
       </c>
       <c r="BB36" s="21">
-        <v>1362.5668172000001</v>
+        <v>535.51200000102494</v>
       </c>
       <c r="BC36" s="21">
-        <v>1381.4810687499998</v>
+        <v>552.68275001810002</v>
       </c>
       <c r="BD36" s="21">
-        <v>1408.4573113749998</v>
+        <v>575.47775000032505</v>
       </c>
       <c r="BE36" s="21">
-        <v>1424.7312986499999</v>
+        <v>596.03550008547495</v>
       </c>
       <c r="BF36" s="21">
-        <v>1443.8454965000001</v>
+        <v>617.20624999929998</v>
       </c>
       <c r="BG36" s="21">
-        <v>1458.330695975</v>
+        <v>617.72925001807505</v>
       </c>
       <c r="BH36" s="21">
-        <v>1460.9967858749999</v>
+        <v>638.42825000195</v>
       </c>
       <c r="BI36" s="21">
-        <v>1479.7189671250001</v>
+        <v>655.35150001142506</v>
       </c>
       <c r="BJ36" s="21">
-        <v>1469.9790740249998</v>
+        <v>659.27150001697498</v>
       </c>
     </row>
     <row r="37" spans="1:62" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="B37" s="21">
-        <v>168.7</v>
-      </c>
-      <c r="C37" s="21">
-        <v>194</v>
-      </c>
-      <c r="D37" s="21">
-        <v>220.9</v>
-      </c>
-      <c r="E37" s="21">
-        <v>233.2</v>
-      </c>
-      <c r="F37" s="21">
-        <v>241.7</v>
-      </c>
-      <c r="G37" s="21">
-        <v>233.3</v>
-      </c>
-      <c r="H37" s="21">
-        <v>231.4</v>
-      </c>
-      <c r="I37" s="21">
-        <v>237.5</v>
-      </c>
-      <c r="J37" s="21">
-        <v>248.2</v>
-      </c>
-      <c r="K37" s="21">
-        <v>260.7</v>
-      </c>
-      <c r="L37" s="21">
-        <v>265.3</v>
-      </c>
-      <c r="M37" s="21">
-        <v>268</v>
-      </c>
-      <c r="N37" s="21">
-        <v>270</v>
-      </c>
-      <c r="O37" s="21">
-        <v>270.3</v>
-      </c>
-      <c r="P37" s="21">
-        <v>269.7</v>
-      </c>
-      <c r="Q37" s="21">
-        <v>252.93100000000001</v>
-      </c>
-      <c r="R37" s="21">
-        <v>221.863</v>
-      </c>
-      <c r="S37" s="21">
-        <v>210.71199999999999</v>
-      </c>
-      <c r="T37" s="21">
-        <v>209.387</v>
-      </c>
-      <c r="U37" s="21">
-        <v>208.94800000000001</v>
-      </c>
-      <c r="V37" s="21">
-        <v>214.61</v>
-      </c>
-      <c r="W37" s="21">
-        <v>225.041</v>
-      </c>
-      <c r="X37" s="21">
-        <v>229.50200000000001</v>
-      </c>
-      <c r="Y37" s="21">
-        <v>224.38499999999999</v>
-      </c>
-      <c r="Z37" s="21">
-        <v>224.51</v>
-      </c>
-      <c r="AA37" s="21">
-        <v>229.03299999999999</v>
-      </c>
-      <c r="AB37" s="21">
-        <v>242.95073240368023</v>
-      </c>
-      <c r="AC37" s="21">
-        <v>257.81861732121041</v>
-      </c>
-      <c r="AD37" s="21">
-        <v>275.24734972829003</v>
-      </c>
-      <c r="AE37" s="21">
-        <v>294.17615558538262</v>
-      </c>
-      <c r="AF37" s="21">
-        <v>322.99582481842549</v>
-      </c>
-      <c r="AG37" s="21">
-        <v>354.01718038690484</v>
-      </c>
-      <c r="AH37" s="21">
-        <v>353.67509777586719</v>
-      </c>
-      <c r="AI37" s="21">
-        <v>342.91769727290762</v>
-      </c>
-      <c r="AJ37" s="21">
-        <v>336.87079668684345</v>
-      </c>
-      <c r="AK37" s="21">
-        <v>348.37765068244278</v>
-      </c>
-      <c r="AL37" s="21">
-        <v>353.59365190203982</v>
-      </c>
-      <c r="AM37" s="21">
-        <v>357.55204531326649</v>
-      </c>
-      <c r="AN37" s="21">
-        <v>364.87077276586911</v>
-      </c>
-      <c r="AO37" s="21">
-        <v>354.21449407286372</v>
-      </c>
-      <c r="AP37" s="21">
-        <v>355.19973389707269</v>
-      </c>
-      <c r="AQ37" s="21">
-        <v>384.06856533603457</v>
-      </c>
-      <c r="AR37" s="21">
-        <v>394.34977498439355</v>
-      </c>
-      <c r="AS37" s="21">
-        <v>391.4482179678169</v>
-      </c>
-      <c r="AT37" s="21">
-        <v>394.45078836029978</v>
-      </c>
-      <c r="AU37" s="21">
-        <v>401.18591491483437</v>
-      </c>
-      <c r="AV37" s="21">
-        <v>414.59366563929569</v>
-      </c>
-      <c r="AW37" s="21">
-        <v>432.93718559611824</v>
-      </c>
-      <c r="AX37" s="21">
-        <v>459.73797410717884</v>
-      </c>
-      <c r="AY37" s="21">
-        <v>472.7641685625054</v>
-      </c>
-      <c r="AZ37" s="21">
-        <v>472.75050000042501</v>
-      </c>
-      <c r="BA37" s="21">
-        <v>504.12299999907498</v>
-      </c>
-      <c r="BB37" s="21">
-        <v>535.51200000102494</v>
-      </c>
-      <c r="BC37" s="21">
-        <v>552.68275001810002</v>
-      </c>
-      <c r="BD37" s="21">
-        <v>575.47775000032505</v>
-      </c>
-      <c r="BE37" s="21">
-        <v>596.03550008547495</v>
-      </c>
-      <c r="BF37" s="21">
-        <v>617.20624999929998</v>
-      </c>
-      <c r="BG37" s="21">
-        <v>617.72925001807505</v>
-      </c>
-      <c r="BH37" s="21">
-        <v>638.42825000195</v>
-      </c>
-      <c r="BI37" s="21">
-        <v>655.35150001142506</v>
-      </c>
-      <c r="BJ37" s="21">
-        <v>659.27150001697498</v>
+      <c r="A37" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="I37" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="J37" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="K37" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="L37" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="M37" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="N37" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="O37" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="P37" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q37" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="R37" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="S37" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="T37" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="U37" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="V37" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="W37" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="X37" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y37" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z37" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA37" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB37" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC37" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD37" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE37" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF37" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG37" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH37" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI37" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ37" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AK37" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AL37" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AM37" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AN37" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AO37" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AP37" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AQ37" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AR37" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS37" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AT37" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AU37" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AV37" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AW37" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX37" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AY37" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AZ37" s="13">
+        <v>5.9016815604250006</v>
+      </c>
+      <c r="BA37" s="13">
+        <v>6.4090731293249998</v>
+      </c>
+      <c r="BB37" s="13">
+        <v>6.6318067410250006</v>
+      </c>
+      <c r="BC37" s="13">
+        <v>6.4474325158500001</v>
+      </c>
+      <c r="BD37" s="13">
+        <v>7.4773392530749998</v>
+      </c>
+      <c r="BE37" s="13">
+        <v>7.6539483317249992</v>
+      </c>
+      <c r="BF37" s="13">
+        <v>7.6156766115499988</v>
+      </c>
+      <c r="BG37" s="13">
+        <v>8.2251870800749991</v>
+      </c>
+      <c r="BH37" s="13">
+        <v>8.8484084304500001</v>
+      </c>
+      <c r="BI37" s="13">
+        <v>5.4080379931750002</v>
+      </c>
+      <c r="BJ37" s="13">
+        <v>5.6715844237249993</v>
       </c>
     </row>
     <row r="38" spans="1:62" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B38" s="21" t="s">
         <v>194</v>
@@ -30738,420 +30907,239 @@
       <c r="AY38" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="AZ38" s="13">
-        <v>5.9016815604250006</v>
-      </c>
-      <c r="BA38" s="13">
-        <v>6.4090731293249998</v>
-      </c>
-      <c r="BB38" s="13">
-        <v>6.6318067410250006</v>
-      </c>
-      <c r="BC38" s="13">
-        <v>6.4474325158500001</v>
-      </c>
-      <c r="BD38" s="13">
-        <v>7.4773392530749998</v>
-      </c>
-      <c r="BE38" s="13">
-        <v>7.6539483317249992</v>
-      </c>
-      <c r="BF38" s="13">
-        <v>7.6156766115499988</v>
-      </c>
-      <c r="BG38" s="13">
-        <v>8.2251870800749991</v>
-      </c>
-      <c r="BH38" s="13">
-        <v>8.8484084304500001</v>
-      </c>
-      <c r="BI38" s="13">
-        <v>5.4080379931750002</v>
-      </c>
-      <c r="BJ38" s="13">
-        <v>5.6715844237249993</v>
+      <c r="AZ38" s="21">
+        <v>76.941774815000002</v>
+      </c>
+      <c r="BA38" s="21">
+        <v>82.333724609749993</v>
+      </c>
+      <c r="BB38" s="21">
+        <v>83.685010462500003</v>
+      </c>
+      <c r="BC38" s="21">
+        <v>83.272886274749993</v>
+      </c>
+      <c r="BD38" s="21">
+        <v>87.032472124749987</v>
+      </c>
+      <c r="BE38" s="21">
+        <v>88.514350416250011</v>
+      </c>
+      <c r="BF38" s="21">
+        <v>87.023319900250002</v>
+      </c>
+      <c r="BG38" s="21">
+        <v>85.841508918000002</v>
+      </c>
+      <c r="BH38" s="21">
+        <v>85.043627436499975</v>
+      </c>
+      <c r="BI38" s="21">
+        <v>90.98292913825</v>
+      </c>
+      <c r="BJ38" s="21">
+        <v>94.784739578249997</v>
       </c>
     </row>
     <row r="39" spans="1:62" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="G39" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="H39" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="I39" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="J39" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="K39" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="L39" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="M39" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="N39" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="O39" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="P39" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q39" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="R39" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="S39" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="T39" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="U39" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="V39" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="W39" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="X39" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="Y39" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="Z39" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA39" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AB39" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AC39" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AD39" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AE39" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AF39" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AG39" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AH39" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AI39" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AJ39" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AK39" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AL39" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AM39" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AN39" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AO39" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AP39" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AQ39" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AR39" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS39" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AT39" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AU39" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AV39" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AW39" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AX39" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AY39" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AZ39" s="21">
-        <v>76.941774815000002</v>
-      </c>
-      <c r="BA39" s="21">
-        <v>82.333724609749993</v>
-      </c>
-      <c r="BB39" s="21">
-        <v>83.685010462500003</v>
-      </c>
-      <c r="BC39" s="21">
-        <v>83.272886274749993</v>
-      </c>
-      <c r="BD39" s="21">
-        <v>87.032472124749987</v>
-      </c>
-      <c r="BE39" s="21">
-        <v>88.514350416250011</v>
-      </c>
-      <c r="BF39" s="21">
-        <v>87.023319900250002</v>
-      </c>
-      <c r="BG39" s="21">
-        <v>85.841508918000002</v>
-      </c>
-      <c r="BH39" s="21">
-        <v>85.043627436499975</v>
-      </c>
-      <c r="BI39" s="21">
-        <v>90.98292913825</v>
-      </c>
-      <c r="BJ39" s="21">
-        <v>94.784739578249997</v>
+      <c r="A39" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="G39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="H39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="I39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="J39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="K39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="L39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="M39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="N39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="O39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="P39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="R39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="S39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="T39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="U39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="V39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="W39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="X39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="AK39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="AL39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="AM39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="AN39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="AO39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="AP39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="AQ39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="AR39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="AT39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="AU39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="AV39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="AW39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="AY39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="AZ39" s="23">
+        <v>389.90704362500003</v>
+      </c>
+      <c r="BA39" s="23">
+        <v>415.38020226000003</v>
+      </c>
+      <c r="BB39" s="23">
+        <v>445.19518279750002</v>
+      </c>
+      <c r="BC39" s="23">
+        <v>462.96243122750002</v>
+      </c>
+      <c r="BD39" s="23">
+        <v>480.96793862250001</v>
+      </c>
+      <c r="BE39" s="23">
+        <v>499.86720133749998</v>
+      </c>
+      <c r="BF39" s="23">
+        <v>522.56725348750001</v>
+      </c>
+      <c r="BG39" s="23">
+        <v>523.66255402000002</v>
+      </c>
+      <c r="BH39" s="23">
+        <v>544.53621413500002</v>
+      </c>
+      <c r="BI39" s="23">
+        <v>558.96053287999996</v>
+      </c>
+      <c r="BJ39" s="23">
+        <v>558.81517601500002</v>
       </c>
     </row>
     <row r="40" spans="1:62" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="E40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="F40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="G40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="H40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="I40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="J40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="K40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="L40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="M40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="N40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="O40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="P40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="R40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="S40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="T40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="U40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="V40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="W40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="X40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="Y40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="Z40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="AB40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="AC40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="AD40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="AE40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="AF40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="AG40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="AH40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="AI40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="AJ40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="AK40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="AL40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="AM40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="AN40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="AO40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="AP40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="AQ40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="AR40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="AT40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="AU40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="AV40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="AW40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="AX40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="AY40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="AZ40" s="23">
-        <v>389.90704362500003</v>
-      </c>
-      <c r="BA40" s="23">
-        <v>415.38020226000003</v>
-      </c>
-      <c r="BB40" s="23">
-        <v>445.19518279750002</v>
-      </c>
-      <c r="BC40" s="23">
-        <v>462.96243122750002</v>
-      </c>
-      <c r="BD40" s="23">
-        <v>480.96793862250001</v>
-      </c>
-      <c r="BE40" s="23">
-        <v>499.86720133749998</v>
-      </c>
-      <c r="BF40" s="23">
-        <v>522.56725348750001</v>
-      </c>
-      <c r="BG40" s="23">
-        <v>523.66255402000002</v>
-      </c>
-      <c r="BH40" s="23">
-        <v>544.53621413500002</v>
-      </c>
-      <c r="BI40" s="23">
-        <v>558.96053287999996</v>
-      </c>
-      <c r="BJ40" s="23">
-        <v>558.81517601500002</v>
-      </c>
+      <c r="A40" s="30"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
     </row>
     <row r="41" spans="1:62" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="30"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
     </row>
     <row r="42" spans="1:62" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22"/>
@@ -31168,14 +31156,10 @@
       <c r="G43" s="22"/>
     </row>
     <row r="44" spans="1:62" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="22"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
+      <c r="A44" s="8"/>
     </row>
     <row r="45" spans="1:62" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
+      <c r="A45" s="9"/>
     </row>
     <row r="46" spans="1:62" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
@@ -31187,10 +31171,196 @@
       <c r="A48" s="9"/>
     </row>
     <row r="49" spans="1:187" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="28"/>
+      <c r="R49" s="27"/>
+      <c r="S49" s="27"/>
+      <c r="T49" s="27"/>
+      <c r="U49" s="28"/>
+      <c r="V49" s="27"/>
+      <c r="W49" s="27"/>
+      <c r="X49" s="27"/>
+      <c r="Y49" s="28"/>
+      <c r="Z49" s="27"/>
+      <c r="AA49" s="27"/>
+      <c r="AB49" s="27"/>
+      <c r="AC49" s="28"/>
+      <c r="AD49" s="27"/>
+      <c r="AE49" s="27"/>
+      <c r="AF49" s="27"/>
+      <c r="AG49" s="28"/>
+      <c r="AH49" s="27"/>
+      <c r="AI49" s="27"/>
+      <c r="AJ49" s="27"/>
+      <c r="AK49" s="28"/>
+      <c r="AL49" s="27"/>
+      <c r="AM49" s="27"/>
+      <c r="AN49" s="27"/>
+      <c r="AO49" s="28"/>
+      <c r="AP49" s="27"/>
+      <c r="AQ49" s="27"/>
+      <c r="AR49" s="27"/>
+      <c r="AS49" s="28"/>
+      <c r="AT49" s="27"/>
+      <c r="AU49" s="27"/>
+      <c r="AV49" s="27"/>
+      <c r="AW49" s="28"/>
+      <c r="AX49" s="27"/>
+      <c r="AY49" s="27"/>
+      <c r="AZ49" s="27"/>
+      <c r="BA49" s="28"/>
+      <c r="BB49" s="27"/>
+      <c r="BC49" s="27"/>
+      <c r="BD49" s="27"/>
+      <c r="BE49" s="28"/>
+      <c r="BF49" s="27"/>
+      <c r="BG49" s="27"/>
+      <c r="BH49" s="27"/>
+      <c r="BI49" s="28"/>
+      <c r="BJ49" s="27"/>
+      <c r="BK49" s="27"/>
+      <c r="BL49" s="27"/>
+      <c r="BM49" s="28"/>
+      <c r="BN49" s="27"/>
+      <c r="BO49" s="27"/>
+      <c r="BP49" s="27"/>
+      <c r="BQ49" s="28"/>
+      <c r="BR49" s="27"/>
+      <c r="BS49" s="27"/>
+      <c r="BT49" s="27"/>
+      <c r="BU49" s="28"/>
+      <c r="BV49" s="27"/>
+      <c r="BW49" s="27"/>
+      <c r="BX49" s="27"/>
+      <c r="BY49" s="28"/>
+      <c r="BZ49" s="27"/>
+      <c r="CA49" s="27"/>
+      <c r="CB49" s="27"/>
+      <c r="CC49" s="28"/>
+      <c r="CD49" s="27"/>
+      <c r="CE49" s="27"/>
+      <c r="CF49" s="27"/>
+      <c r="CG49" s="28"/>
+      <c r="CH49" s="27"/>
+      <c r="CI49" s="27"/>
+      <c r="CJ49" s="27"/>
+      <c r="CK49" s="28"/>
+      <c r="CL49" s="27"/>
+      <c r="CM49" s="27"/>
+      <c r="CN49" s="27"/>
+      <c r="CO49" s="28"/>
+      <c r="CP49" s="27"/>
+      <c r="CQ49" s="27"/>
+      <c r="CR49" s="27"/>
+      <c r="CS49" s="28"/>
+      <c r="CT49" s="27"/>
+      <c r="CU49" s="27"/>
+      <c r="CV49" s="27"/>
+      <c r="CW49" s="28"/>
+      <c r="CX49" s="27"/>
+      <c r="CY49" s="27"/>
+      <c r="CZ49" s="27"/>
+      <c r="DA49" s="28"/>
+      <c r="DB49" s="27"/>
+      <c r="DC49" s="27"/>
+      <c r="DD49" s="27"/>
+      <c r="DE49" s="28"/>
+      <c r="DF49" s="27"/>
+      <c r="DG49" s="27"/>
+      <c r="DH49" s="27"/>
+      <c r="DI49" s="28"/>
+      <c r="DJ49" s="27"/>
+      <c r="DK49" s="27"/>
+      <c r="DL49" s="27"/>
+      <c r="DM49" s="28"/>
+      <c r="DN49" s="27"/>
+      <c r="DO49" s="27"/>
+      <c r="DP49" s="27"/>
+      <c r="DQ49" s="28"/>
+      <c r="DR49" s="27"/>
+      <c r="DS49" s="27"/>
+      <c r="DT49" s="27"/>
+      <c r="DU49" s="28"/>
+      <c r="DV49" s="27"/>
+      <c r="DW49" s="27"/>
+      <c r="DX49" s="27"/>
+      <c r="DY49" s="28"/>
+      <c r="DZ49" s="27"/>
+      <c r="EA49" s="27"/>
+      <c r="EB49" s="27"/>
+      <c r="EC49" s="28"/>
+      <c r="ED49" s="27"/>
+      <c r="EE49" s="27"/>
+      <c r="EF49" s="27"/>
+      <c r="EG49" s="28"/>
+      <c r="EH49" s="27"/>
+      <c r="EI49" s="27"/>
+      <c r="EJ49" s="27"/>
+      <c r="EK49" s="28"/>
+      <c r="EL49" s="27"/>
+      <c r="EM49" s="27"/>
+      <c r="EN49" s="27"/>
+      <c r="EO49" s="28"/>
+      <c r="EP49" s="27"/>
+      <c r="EQ49" s="27"/>
+      <c r="ER49" s="27"/>
+      <c r="ES49" s="28"/>
+      <c r="ET49" s="27"/>
+      <c r="EU49" s="27"/>
+      <c r="EV49" s="27"/>
+      <c r="EW49" s="28"/>
+      <c r="EX49" s="27"/>
+      <c r="EY49" s="27"/>
+      <c r="EZ49" s="27"/>
+      <c r="FA49" s="28"/>
+      <c r="FB49" s="27"/>
+      <c r="FC49" s="27"/>
+      <c r="FD49" s="27"/>
+      <c r="FE49" s="28"/>
+      <c r="FF49" s="27"/>
+      <c r="FG49" s="27"/>
+      <c r="FH49" s="27"/>
+      <c r="FI49" s="28"/>
+      <c r="FJ49" s="27"/>
+      <c r="FK49" s="27"/>
+      <c r="FL49" s="27"/>
+      <c r="FM49" s="28"/>
+      <c r="FN49" s="27"/>
+      <c r="FO49" s="27"/>
+      <c r="FP49" s="27"/>
+      <c r="FQ49" s="28"/>
+      <c r="FR49" s="27"/>
+      <c r="FS49" s="27"/>
+      <c r="FT49" s="27"/>
+      <c r="FU49" s="28"/>
+      <c r="FV49" s="27"/>
+      <c r="FW49" s="27"/>
+      <c r="FX49" s="27"/>
+      <c r="FY49" s="28"/>
+      <c r="FZ49" s="27"/>
+      <c r="GA49" s="27"/>
+      <c r="GB49" s="27"/>
+      <c r="GC49" s="27"/>
+      <c r="GD49" s="27"/>
+      <c r="GE49" s="27"/>
     </row>
     <row r="50" spans="1:187" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="26"/>
+      <c r="A50" s="9"/>
       <c r="B50" s="27"/>
       <c r="C50" s="27"/>
       <c r="D50" s="27"/>
@@ -32135,199 +32305,13 @@
       <c r="GE54" s="27"/>
     </row>
     <row r="55" spans="1:187" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="9"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="27"/>
-      <c r="L55" s="27"/>
-      <c r="M55" s="28"/>
-      <c r="N55" s="27"/>
-      <c r="O55" s="27"/>
-      <c r="P55" s="27"/>
-      <c r="Q55" s="28"/>
-      <c r="R55" s="27"/>
-      <c r="S55" s="27"/>
-      <c r="T55" s="27"/>
-      <c r="U55" s="28"/>
-      <c r="V55" s="27"/>
-      <c r="W55" s="27"/>
-      <c r="X55" s="27"/>
-      <c r="Y55" s="28"/>
-      <c r="Z55" s="27"/>
-      <c r="AA55" s="27"/>
-      <c r="AB55" s="27"/>
-      <c r="AC55" s="28"/>
-      <c r="AD55" s="27"/>
-      <c r="AE55" s="27"/>
-      <c r="AF55" s="27"/>
-      <c r="AG55" s="28"/>
-      <c r="AH55" s="27"/>
-      <c r="AI55" s="27"/>
-      <c r="AJ55" s="27"/>
-      <c r="AK55" s="28"/>
-      <c r="AL55" s="27"/>
-      <c r="AM55" s="27"/>
-      <c r="AN55" s="27"/>
-      <c r="AO55" s="28"/>
-      <c r="AP55" s="27"/>
-      <c r="AQ55" s="27"/>
-      <c r="AR55" s="27"/>
-      <c r="AS55" s="28"/>
-      <c r="AT55" s="27"/>
-      <c r="AU55" s="27"/>
-      <c r="AV55" s="27"/>
-      <c r="AW55" s="28"/>
-      <c r="AX55" s="27"/>
-      <c r="AY55" s="27"/>
-      <c r="AZ55" s="27"/>
-      <c r="BA55" s="28"/>
-      <c r="BB55" s="27"/>
-      <c r="BC55" s="27"/>
-      <c r="BD55" s="27"/>
-      <c r="BE55" s="28"/>
-      <c r="BF55" s="27"/>
-      <c r="BG55" s="27"/>
-      <c r="BH55" s="27"/>
-      <c r="BI55" s="28"/>
-      <c r="BJ55" s="27"/>
-      <c r="BK55" s="27"/>
-      <c r="BL55" s="27"/>
-      <c r="BM55" s="28"/>
-      <c r="BN55" s="27"/>
-      <c r="BO55" s="27"/>
-      <c r="BP55" s="27"/>
-      <c r="BQ55" s="28"/>
-      <c r="BR55" s="27"/>
-      <c r="BS55" s="27"/>
-      <c r="BT55" s="27"/>
-      <c r="BU55" s="28"/>
-      <c r="BV55" s="27"/>
-      <c r="BW55" s="27"/>
-      <c r="BX55" s="27"/>
-      <c r="BY55" s="28"/>
-      <c r="BZ55" s="27"/>
-      <c r="CA55" s="27"/>
-      <c r="CB55" s="27"/>
-      <c r="CC55" s="28"/>
-      <c r="CD55" s="27"/>
-      <c r="CE55" s="27"/>
-      <c r="CF55" s="27"/>
-      <c r="CG55" s="28"/>
-      <c r="CH55" s="27"/>
-      <c r="CI55" s="27"/>
-      <c r="CJ55" s="27"/>
-      <c r="CK55" s="28"/>
-      <c r="CL55" s="27"/>
-      <c r="CM55" s="27"/>
-      <c r="CN55" s="27"/>
-      <c r="CO55" s="28"/>
-      <c r="CP55" s="27"/>
-      <c r="CQ55" s="27"/>
-      <c r="CR55" s="27"/>
-      <c r="CS55" s="28"/>
-      <c r="CT55" s="27"/>
-      <c r="CU55" s="27"/>
-      <c r="CV55" s="27"/>
-      <c r="CW55" s="28"/>
-      <c r="CX55" s="27"/>
-      <c r="CY55" s="27"/>
-      <c r="CZ55" s="27"/>
-      <c r="DA55" s="28"/>
-      <c r="DB55" s="27"/>
-      <c r="DC55" s="27"/>
-      <c r="DD55" s="27"/>
-      <c r="DE55" s="28"/>
-      <c r="DF55" s="27"/>
-      <c r="DG55" s="27"/>
-      <c r="DH55" s="27"/>
-      <c r="DI55" s="28"/>
-      <c r="DJ55" s="27"/>
-      <c r="DK55" s="27"/>
-      <c r="DL55" s="27"/>
-      <c r="DM55" s="28"/>
-      <c r="DN55" s="27"/>
-      <c r="DO55" s="27"/>
-      <c r="DP55" s="27"/>
-      <c r="DQ55" s="28"/>
-      <c r="DR55" s="27"/>
-      <c r="DS55" s="27"/>
-      <c r="DT55" s="27"/>
-      <c r="DU55" s="28"/>
-      <c r="DV55" s="27"/>
-      <c r="DW55" s="27"/>
-      <c r="DX55" s="27"/>
-      <c r="DY55" s="28"/>
-      <c r="DZ55" s="27"/>
-      <c r="EA55" s="27"/>
-      <c r="EB55" s="27"/>
-      <c r="EC55" s="28"/>
-      <c r="ED55" s="27"/>
-      <c r="EE55" s="27"/>
-      <c r="EF55" s="27"/>
-      <c r="EG55" s="28"/>
-      <c r="EH55" s="27"/>
-      <c r="EI55" s="27"/>
-      <c r="EJ55" s="27"/>
-      <c r="EK55" s="28"/>
-      <c r="EL55" s="27"/>
-      <c r="EM55" s="27"/>
-      <c r="EN55" s="27"/>
-      <c r="EO55" s="28"/>
-      <c r="EP55" s="27"/>
-      <c r="EQ55" s="27"/>
-      <c r="ER55" s="27"/>
-      <c r="ES55" s="28"/>
-      <c r="ET55" s="27"/>
-      <c r="EU55" s="27"/>
-      <c r="EV55" s="27"/>
-      <c r="EW55" s="28"/>
-      <c r="EX55" s="27"/>
-      <c r="EY55" s="27"/>
-      <c r="EZ55" s="27"/>
-      <c r="FA55" s="28"/>
-      <c r="FB55" s="27"/>
-      <c r="FC55" s="27"/>
-      <c r="FD55" s="27"/>
-      <c r="FE55" s="28"/>
-      <c r="FF55" s="27"/>
-      <c r="FG55" s="27"/>
-      <c r="FH55" s="27"/>
-      <c r="FI55" s="28"/>
-      <c r="FJ55" s="27"/>
-      <c r="FK55" s="27"/>
-      <c r="FL55" s="27"/>
-      <c r="FM55" s="28"/>
-      <c r="FN55" s="27"/>
-      <c r="FO55" s="27"/>
-      <c r="FP55" s="27"/>
-      <c r="FQ55" s="28"/>
-      <c r="FR55" s="27"/>
-      <c r="FS55" s="27"/>
-      <c r="FT55" s="27"/>
-      <c r="FU55" s="28"/>
-      <c r="FV55" s="27"/>
-      <c r="FW55" s="27"/>
-      <c r="FX55" s="27"/>
-      <c r="FY55" s="28"/>
-      <c r="FZ55" s="27"/>
-      <c r="GA55" s="27"/>
-      <c r="GB55" s="27"/>
-      <c r="GC55" s="27"/>
-      <c r="GD55" s="27"/>
-      <c r="GE55" s="27"/>
+      <c r="A55" s="8"/>
     </row>
     <row r="56" spans="1:187" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
+      <c r="A56" s="9"/>
     </row>
     <row r="57" spans="1:187" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="9"/>
+      <c r="A57" s="1"/>
     </row>
     <row r="58" spans="1:187" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
@@ -32335,17 +32319,14 @@
     <row r="59" spans="1:187" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:187" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-    </row>
-    <row r="61" spans="1:187" x14ac:dyDescent="0.25">
-      <c r="A61" s="29" t="s">
+    <row r="60" spans="1:187" x14ac:dyDescent="0.25">
+      <c r="A60" s="29" t="s">
         <v>222</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A40:C40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
